--- a/config_vivo/shoping_config_vivo.xlsx
+++ b/config_vivo/shoping_config_vivo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3194" uniqueCount="1371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3273" uniqueCount="1404">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6297,6 +6297,138 @@
   </si>
   <si>
     <t>{type="permission_class",class_value = "lmqx_026_bblb" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费话费</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（免费，小额）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"30万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_mfcjq",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>300000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运彩蛋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运彩蛋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V1-V3）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V1-V3）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_xycd_sunshine",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_xycd_sunshine",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,-60,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,-80,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,3,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2800000,200,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,5,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6800000,400,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,8,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(V4-V10)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2800000,-200,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"680万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6800000,-400,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1380万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2580万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>25800000,-1200,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "xycd_028_xycd_v1" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "xycd_028_xycd_v4" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -6467,7 +6599,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6617,6 +6749,12 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7082,7 +7220,7 @@
   <dimension ref="A1:AF32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9068,13 +9206,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM374"/>
+  <dimension ref="A1:AM385"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H329" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H365" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H349" sqref="H349"/>
+      <selection pane="bottomRight" activeCell="G390" sqref="G390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -32665,6 +32803,754 @@
         <v>1</v>
       </c>
     </row>
+    <row r="375" spans="1:38" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A375" s="48">
+        <v>374</v>
+      </c>
+      <c r="B375" s="48">
+        <v>10291</v>
+      </c>
+      <c r="F375" s="48">
+        <v>1</v>
+      </c>
+      <c r="G375" s="48" t="s">
+        <v>1371</v>
+      </c>
+      <c r="H375" s="48" t="s">
+        <v>1372</v>
+      </c>
+      <c r="I375" s="48" t="s">
+        <v>1373</v>
+      </c>
+      <c r="K375" s="48">
+        <v>-31</v>
+      </c>
+      <c r="L375" s="48">
+        <v>0</v>
+      </c>
+      <c r="M375" s="48">
+        <v>0</v>
+      </c>
+      <c r="N375" s="48" t="s">
+        <v>1374</v>
+      </c>
+      <c r="O375" s="48">
+        <v>300</v>
+      </c>
+      <c r="P375" s="48" t="s">
+        <v>1375</v>
+      </c>
+      <c r="Q375" s="49" t="s">
+        <v>1376</v>
+      </c>
+      <c r="V375" s="48" t="s">
+        <v>1377</v>
+      </c>
+      <c r="W375" s="48">
+        <v>9999999</v>
+      </c>
+      <c r="X375" s="48">
+        <v>1599523200</v>
+      </c>
+      <c r="Y375" s="48">
+        <v>1600099199</v>
+      </c>
+      <c r="Z375" s="48">
+        <v>14</v>
+      </c>
+      <c r="AG375" s="48">
+        <v>1</v>
+      </c>
+      <c r="AH375" s="48">
+        <v>1</v>
+      </c>
+      <c r="AK375" s="48">
+        <v>1</v>
+      </c>
+      <c r="AL375" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:38" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A376" s="48">
+        <v>375</v>
+      </c>
+      <c r="B376" s="48">
+        <v>10292</v>
+      </c>
+      <c r="F376" s="48">
+        <v>1</v>
+      </c>
+      <c r="G376" s="48" t="s">
+        <v>1379</v>
+      </c>
+      <c r="H376" s="48" t="s">
+        <v>1381</v>
+      </c>
+      <c r="I376" s="48" t="s">
+        <v>1382</v>
+      </c>
+      <c r="K376" s="48">
+        <v>-31</v>
+      </c>
+      <c r="L376" s="48">
+        <v>0</v>
+      </c>
+      <c r="M376" s="48">
+        <v>0</v>
+      </c>
+      <c r="N376" s="48" t="s">
+        <v>1374</v>
+      </c>
+      <c r="O376" s="48">
+        <v>0</v>
+      </c>
+      <c r="P376" s="48" t="s">
+        <v>1384</v>
+      </c>
+      <c r="Q376" s="49" t="s">
+        <v>1385</v>
+      </c>
+      <c r="V376" s="48" t="s">
+        <v>1386</v>
+      </c>
+      <c r="W376" s="48">
+        <v>9999999</v>
+      </c>
+      <c r="X376" s="48">
+        <v>1599523200</v>
+      </c>
+      <c r="Y376" s="48">
+        <v>1600099199</v>
+      </c>
+      <c r="Z376" s="48">
+        <v>42</v>
+      </c>
+      <c r="AG376" s="48">
+        <v>1</v>
+      </c>
+      <c r="AH376" s="48">
+        <v>1</v>
+      </c>
+      <c r="AK376" s="48">
+        <v>1</v>
+      </c>
+      <c r="AL376" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:38" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A377" s="48">
+        <v>376</v>
+      </c>
+      <c r="B377" s="48">
+        <v>10293</v>
+      </c>
+      <c r="F377" s="48">
+        <v>1</v>
+      </c>
+      <c r="G377" s="48" t="s">
+        <v>1379</v>
+      </c>
+      <c r="H377" s="48" t="s">
+        <v>1381</v>
+      </c>
+      <c r="I377" s="48" t="s">
+        <v>1038</v>
+      </c>
+      <c r="K377" s="48">
+        <v>-31</v>
+      </c>
+      <c r="L377" s="48">
+        <v>0</v>
+      </c>
+      <c r="M377" s="48">
+        <v>0</v>
+      </c>
+      <c r="N377" s="48" t="s">
+        <v>1374</v>
+      </c>
+      <c r="O377" s="48">
+        <v>300</v>
+      </c>
+      <c r="P377" s="48" t="s">
+        <v>1383</v>
+      </c>
+      <c r="Q377" s="49" t="s">
+        <v>1387</v>
+      </c>
+      <c r="V377" s="48" t="s">
+        <v>1377</v>
+      </c>
+      <c r="W377" s="48">
+        <v>9999999</v>
+      </c>
+      <c r="X377" s="48">
+        <v>1599523200</v>
+      </c>
+      <c r="Y377" s="48">
+        <v>1600099199</v>
+      </c>
+      <c r="Z377" s="48">
+        <v>42</v>
+      </c>
+      <c r="AG377" s="48">
+        <v>1</v>
+      </c>
+      <c r="AH377" s="48">
+        <v>1</v>
+      </c>
+      <c r="AK377" s="48">
+        <v>1</v>
+      </c>
+      <c r="AL377" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:38" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A378" s="48">
+        <v>377</v>
+      </c>
+      <c r="B378" s="48">
+        <v>10294</v>
+      </c>
+      <c r="F378" s="48">
+        <v>1</v>
+      </c>
+      <c r="G378" s="48" t="s">
+        <v>1379</v>
+      </c>
+      <c r="H378" s="48" t="s">
+        <v>1380</v>
+      </c>
+      <c r="I378" s="48" t="s">
+        <v>1388</v>
+      </c>
+      <c r="K378" s="48">
+        <v>-31</v>
+      </c>
+      <c r="L378" s="48">
+        <v>0</v>
+      </c>
+      <c r="M378" s="48">
+        <v>0</v>
+      </c>
+      <c r="N378" s="48" t="s">
+        <v>484</v>
+      </c>
+      <c r="O378" s="48">
+        <v>600</v>
+      </c>
+      <c r="P378" s="48" t="s">
+        <v>1384</v>
+      </c>
+      <c r="Q378" s="49" t="s">
+        <v>1389</v>
+      </c>
+      <c r="V378" s="48" t="s">
+        <v>1390</v>
+      </c>
+      <c r="W378" s="48">
+        <v>9999999</v>
+      </c>
+      <c r="X378" s="48">
+        <v>1599523200</v>
+      </c>
+      <c r="Y378" s="48">
+        <v>1600099199</v>
+      </c>
+      <c r="Z378" s="48">
+        <v>42</v>
+      </c>
+      <c r="AG378" s="48">
+        <v>1</v>
+      </c>
+      <c r="AH378" s="48">
+        <v>1</v>
+      </c>
+      <c r="AK378" s="48">
+        <v>1</v>
+      </c>
+      <c r="AL378" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:38" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A379" s="48">
+        <v>378</v>
+      </c>
+      <c r="B379" s="48">
+        <v>10295</v>
+      </c>
+      <c r="F379" s="48">
+        <v>1</v>
+      </c>
+      <c r="G379" s="48" t="s">
+        <v>1378</v>
+      </c>
+      <c r="H379" s="48" t="s">
+        <v>1381</v>
+      </c>
+      <c r="I379" s="48" t="s">
+        <v>917</v>
+      </c>
+      <c r="K379" s="48">
+        <v>-31</v>
+      </c>
+      <c r="L379" s="48">
+        <v>0</v>
+      </c>
+      <c r="M379" s="48">
+        <v>0</v>
+      </c>
+      <c r="N379" s="48" t="s">
+        <v>1374</v>
+      </c>
+      <c r="O379" s="48">
+        <v>1800</v>
+      </c>
+      <c r="P379" s="48" t="s">
+        <v>1384</v>
+      </c>
+      <c r="Q379" s="49" t="s">
+        <v>1391</v>
+      </c>
+      <c r="V379" s="48" t="s">
+        <v>1392</v>
+      </c>
+      <c r="W379" s="48">
+        <v>9999999</v>
+      </c>
+      <c r="X379" s="48">
+        <v>1599523200</v>
+      </c>
+      <c r="Y379" s="48">
+        <v>1600099199</v>
+      </c>
+      <c r="Z379" s="48">
+        <v>42</v>
+      </c>
+      <c r="AG379" s="48">
+        <v>1</v>
+      </c>
+      <c r="AH379" s="48">
+        <v>1</v>
+      </c>
+      <c r="AK379" s="48">
+        <v>1</v>
+      </c>
+      <c r="AL379" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:38" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A380" s="48">
+        <v>379</v>
+      </c>
+      <c r="B380" s="48">
+        <v>10296</v>
+      </c>
+      <c r="F380" s="48">
+        <v>1</v>
+      </c>
+      <c r="G380" s="48" t="s">
+        <v>1378</v>
+      </c>
+      <c r="H380" s="48" t="s">
+        <v>1380</v>
+      </c>
+      <c r="I380" s="48" t="s">
+        <v>918</v>
+      </c>
+      <c r="K380" s="48">
+        <v>-31</v>
+      </c>
+      <c r="L380" s="48">
+        <v>0</v>
+      </c>
+      <c r="M380" s="48">
+        <v>0</v>
+      </c>
+      <c r="N380" s="48" t="s">
+        <v>1374</v>
+      </c>
+      <c r="O380" s="48">
+        <v>4800</v>
+      </c>
+      <c r="P380" s="48" t="s">
+        <v>1384</v>
+      </c>
+      <c r="Q380" s="49" t="s">
+        <v>1393</v>
+      </c>
+      <c r="V380" s="48" t="s">
+        <v>1394</v>
+      </c>
+      <c r="W380" s="48">
+        <v>9999999</v>
+      </c>
+      <c r="X380" s="48">
+        <v>1599523200</v>
+      </c>
+      <c r="Y380" s="48">
+        <v>1600099199</v>
+      </c>
+      <c r="Z380" s="48">
+        <v>42</v>
+      </c>
+      <c r="AG380" s="48">
+        <v>1</v>
+      </c>
+      <c r="AH380" s="48">
+        <v>1</v>
+      </c>
+      <c r="AK380" s="48">
+        <v>1</v>
+      </c>
+      <c r="AL380" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:38" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A381" s="48">
+        <v>380</v>
+      </c>
+      <c r="B381" s="48">
+        <v>10297</v>
+      </c>
+      <c r="F381" s="48">
+        <v>1</v>
+      </c>
+      <c r="G381" s="48" t="s">
+        <v>1379</v>
+      </c>
+      <c r="H381" s="48" t="s">
+        <v>1395</v>
+      </c>
+      <c r="I381" s="48" t="s">
+        <v>1382</v>
+      </c>
+      <c r="K381" s="48">
+        <v>-31</v>
+      </c>
+      <c r="L381" s="48">
+        <v>0</v>
+      </c>
+      <c r="M381" s="48">
+        <v>0</v>
+      </c>
+      <c r="N381" s="48" t="s">
+        <v>484</v>
+      </c>
+      <c r="O381" s="48">
+        <v>0</v>
+      </c>
+      <c r="P381" s="48" t="s">
+        <v>1384</v>
+      </c>
+      <c r="Q381" s="49" t="s">
+        <v>1385</v>
+      </c>
+      <c r="V381" s="48" t="s">
+        <v>572</v>
+      </c>
+      <c r="W381" s="48">
+        <v>9999999</v>
+      </c>
+      <c r="X381" s="48">
+        <v>1599523200</v>
+      </c>
+      <c r="Y381" s="48">
+        <v>1600099199</v>
+      </c>
+      <c r="Z381" s="48">
+        <v>43</v>
+      </c>
+      <c r="AG381" s="48">
+        <v>1</v>
+      </c>
+      <c r="AH381" s="48">
+        <v>1</v>
+      </c>
+      <c r="AK381" s="48">
+        <v>1</v>
+      </c>
+      <c r="AL381" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:38" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A382" s="48">
+        <v>381</v>
+      </c>
+      <c r="B382" s="48">
+        <v>10298</v>
+      </c>
+      <c r="F382" s="48">
+        <v>1</v>
+      </c>
+      <c r="G382" s="48" t="s">
+        <v>1378</v>
+      </c>
+      <c r="H382" s="48" t="s">
+        <v>1395</v>
+      </c>
+      <c r="I382" s="48" t="s">
+        <v>1348</v>
+      </c>
+      <c r="K382" s="48">
+        <v>-31</v>
+      </c>
+      <c r="L382" s="48">
+        <v>0</v>
+      </c>
+      <c r="M382" s="48">
+        <v>0</v>
+      </c>
+      <c r="N382" s="48" t="s">
+        <v>484</v>
+      </c>
+      <c r="O382" s="48">
+        <v>1800</v>
+      </c>
+      <c r="P382" s="48" t="s">
+        <v>1383</v>
+      </c>
+      <c r="Q382" s="49" t="s">
+        <v>1396</v>
+      </c>
+      <c r="V382" s="48" t="s">
+        <v>1377</v>
+      </c>
+      <c r="W382" s="48">
+        <v>9999999</v>
+      </c>
+      <c r="X382" s="48">
+        <v>1599523200</v>
+      </c>
+      <c r="Y382" s="48">
+        <v>1600099199</v>
+      </c>
+      <c r="Z382" s="48">
+        <v>43</v>
+      </c>
+      <c r="AG382" s="48">
+        <v>1</v>
+      </c>
+      <c r="AH382" s="48">
+        <v>1</v>
+      </c>
+      <c r="AK382" s="48">
+        <v>1</v>
+      </c>
+      <c r="AL382" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:38" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A383" s="48">
+        <v>382</v>
+      </c>
+      <c r="B383" s="48">
+        <v>10299</v>
+      </c>
+      <c r="F383" s="48">
+        <v>1</v>
+      </c>
+      <c r="G383" s="48" t="s">
+        <v>1379</v>
+      </c>
+      <c r="H383" s="48" t="s">
+        <v>1395</v>
+      </c>
+      <c r="I383" s="48" t="s">
+        <v>1397</v>
+      </c>
+      <c r="K383" s="48">
+        <v>-31</v>
+      </c>
+      <c r="L383" s="48">
+        <v>0</v>
+      </c>
+      <c r="M383" s="48">
+        <v>0</v>
+      </c>
+      <c r="N383" s="48" t="s">
+        <v>484</v>
+      </c>
+      <c r="O383" s="48">
+        <v>4800</v>
+      </c>
+      <c r="P383" s="48" t="s">
+        <v>1384</v>
+      </c>
+      <c r="Q383" s="49" t="s">
+        <v>1398</v>
+      </c>
+      <c r="V383" s="48" t="s">
+        <v>538</v>
+      </c>
+      <c r="W383" s="48">
+        <v>9999999</v>
+      </c>
+      <c r="X383" s="48">
+        <v>1599523200</v>
+      </c>
+      <c r="Y383" s="48">
+        <v>1600099199</v>
+      </c>
+      <c r="Z383" s="48">
+        <v>43</v>
+      </c>
+      <c r="AG383" s="48">
+        <v>1</v>
+      </c>
+      <c r="AH383" s="48">
+        <v>1</v>
+      </c>
+      <c r="AK383" s="48">
+        <v>1</v>
+      </c>
+      <c r="AL383" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:38" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A384" s="48">
+        <v>383</v>
+      </c>
+      <c r="B384" s="48">
+        <v>10300</v>
+      </c>
+      <c r="F384" s="48">
+        <v>1</v>
+      </c>
+      <c r="G384" s="48" t="s">
+        <v>1378</v>
+      </c>
+      <c r="H384" s="48" t="s">
+        <v>1395</v>
+      </c>
+      <c r="I384" s="48" t="s">
+        <v>1399</v>
+      </c>
+      <c r="K384" s="48">
+        <v>-31</v>
+      </c>
+      <c r="L384" s="48">
+        <v>0</v>
+      </c>
+      <c r="M384" s="48">
+        <v>0</v>
+      </c>
+      <c r="N384" s="48" t="s">
+        <v>1374</v>
+      </c>
+      <c r="O384" s="48">
+        <v>9800</v>
+      </c>
+      <c r="P384" s="48" t="s">
+        <v>1384</v>
+      </c>
+      <c r="Q384" s="49" t="s">
+        <v>766</v>
+      </c>
+      <c r="V384" s="48" t="s">
+        <v>539</v>
+      </c>
+      <c r="W384" s="48">
+        <v>9999999</v>
+      </c>
+      <c r="X384" s="48">
+        <v>1599523200</v>
+      </c>
+      <c r="Y384" s="48">
+        <v>1600099199</v>
+      </c>
+      <c r="Z384" s="48">
+        <v>43</v>
+      </c>
+      <c r="AG384" s="48">
+        <v>1</v>
+      </c>
+      <c r="AH384" s="48">
+        <v>1</v>
+      </c>
+      <c r="AK384" s="48">
+        <v>1</v>
+      </c>
+      <c r="AL384" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:38" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A385" s="48">
+        <v>384</v>
+      </c>
+      <c r="B385" s="48">
+        <v>10301</v>
+      </c>
+      <c r="F385" s="48">
+        <v>1</v>
+      </c>
+      <c r="G385" s="48" t="s">
+        <v>1379</v>
+      </c>
+      <c r="H385" s="48" t="s">
+        <v>1395</v>
+      </c>
+      <c r="I385" s="48" t="s">
+        <v>1400</v>
+      </c>
+      <c r="K385" s="48">
+        <v>-31</v>
+      </c>
+      <c r="L385" s="48">
+        <v>0</v>
+      </c>
+      <c r="M385" s="48">
+        <v>0</v>
+      </c>
+      <c r="N385" s="48" t="s">
+        <v>1374</v>
+      </c>
+      <c r="O385" s="48">
+        <v>19800</v>
+      </c>
+      <c r="P385" s="48" t="s">
+        <v>1383</v>
+      </c>
+      <c r="Q385" s="49" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V385" s="48" t="s">
+        <v>1394</v>
+      </c>
+      <c r="W385" s="48">
+        <v>9999999</v>
+      </c>
+      <c r="X385" s="48">
+        <v>1599523200</v>
+      </c>
+      <c r="Y385" s="48">
+        <v>1600099199</v>
+      </c>
+      <c r="Z385" s="48">
+        <v>43</v>
+      </c>
+      <c r="AG385" s="48">
+        <v>1</v>
+      </c>
+      <c r="AH385" s="48">
+        <v>1</v>
+      </c>
+      <c r="AK385" s="48">
+        <v>1</v>
+      </c>
+      <c r="AL385" s="48">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32675,10 +33561,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -33279,6 +34165,34 @@
         <v>1</v>
       </c>
       <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="50">
+        <v>42</v>
+      </c>
+      <c r="B43" s="51" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C43" s="50">
+        <v>1</v>
+      </c>
+      <c r="D43" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="50">
+        <v>43</v>
+      </c>
+      <c r="B44" s="51" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C44" s="50">
+        <v>1</v>
+      </c>
+      <c r="D44" s="50">
         <v>0</v>
       </c>
     </row>

--- a/config_vivo/shoping_config_vivo.xlsx
+++ b/config_vivo/shoping_config_vivo.xlsx
@@ -6380,18 +6380,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>2800000,200,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>86400,5,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>6800000,400,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>86400,8,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6429,6 +6421,14 @@
   </si>
   <si>
     <t>{type="permission_class",class_value = "xycd_028_xycd_v4" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2800000,-200,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6800000,-400,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9209,10 +9209,10 @@
   <dimension ref="A1:AM385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H365" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="Q365" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G390" sqref="G390"/>
+      <selection pane="bottomRight" activeCell="R391" sqref="R391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -33113,10 +33113,10 @@
         <v>1384</v>
       </c>
       <c r="Q379" s="49" t="s">
+        <v>1402</v>
+      </c>
+      <c r="V379" s="48" t="s">
         <v>1391</v>
-      </c>
-      <c r="V379" s="48" t="s">
-        <v>1392</v>
       </c>
       <c r="W379" s="48">
         <v>9999999</v>
@@ -33181,10 +33181,10 @@
         <v>1384</v>
       </c>
       <c r="Q380" s="49" t="s">
-        <v>1393</v>
+        <v>1403</v>
       </c>
       <c r="V380" s="48" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="W380" s="48">
         <v>9999999</v>
@@ -33225,7 +33225,7 @@
         <v>1379</v>
       </c>
       <c r="H381" s="48" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="I381" s="48" t="s">
         <v>1382</v>
@@ -33293,7 +33293,7 @@
         <v>1378</v>
       </c>
       <c r="H382" s="48" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="I382" s="48" t="s">
         <v>1348</v>
@@ -33317,7 +33317,7 @@
         <v>1383</v>
       </c>
       <c r="Q382" s="49" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="V382" s="48" t="s">
         <v>1377</v>
@@ -33361,10 +33361,10 @@
         <v>1379</v>
       </c>
       <c r="H383" s="48" t="s">
+        <v>1393</v>
+      </c>
+      <c r="I383" s="48" t="s">
         <v>1395</v>
-      </c>
-      <c r="I383" s="48" t="s">
-        <v>1397</v>
       </c>
       <c r="K383" s="48">
         <v>-31</v>
@@ -33385,7 +33385,7 @@
         <v>1384</v>
       </c>
       <c r="Q383" s="49" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="V383" s="48" t="s">
         <v>538</v>
@@ -33429,10 +33429,10 @@
         <v>1378</v>
       </c>
       <c r="H384" s="48" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="I384" s="48" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="K384" s="48">
         <v>-31</v>
@@ -33497,10 +33497,10 @@
         <v>1379</v>
       </c>
       <c r="H385" s="48" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="I385" s="48" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="K385" s="48">
         <v>-31</v>
@@ -33521,10 +33521,10 @@
         <v>1383</v>
       </c>
       <c r="Q385" s="49" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="V385" s="48" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="W385" s="48">
         <v>9999999</v>
@@ -34173,7 +34173,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="51" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="C43" s="50">
         <v>1</v>
@@ -34187,7 +34187,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="51" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="C44" s="50">
         <v>1</v>

--- a/config_vivo/shoping_config_vivo.xlsx
+++ b/config_vivo/shoping_config_vivo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3273" uniqueCount="1404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3339" uniqueCount="1449">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6429,6 +6429,186 @@
   </si>
   <si>
     <t>6800000,-400,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋铜锤</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V1-V3）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","铜锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_brass_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋银锤</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V1-V3）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"300万金币","银锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_silver_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋金锤</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V1-V3）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","金锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_gold_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,3,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋铜锤</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V4-V7）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","铜锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_brass_hammer_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","银锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_silver_hammer_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋金锤</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","金锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_gold_hammer_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V8-V10）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","铜锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_brass_hammer_3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V8-V10）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","银锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_silver_hammer_3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V8-V10）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","金锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_gold_hammer_3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hlqjd_029_hlqjd_v1" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hlqjd_029_hlqjd_v4" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hlqjd_029_hlqjd_v8" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9206,13 +9386,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM385"/>
+  <dimension ref="A1:AM394"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="Q365" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R391" sqref="R391"/>
+      <selection pane="bottomRight" activeCell="Q398" sqref="Q398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -32735,819 +32915,1431 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:38" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A374" s="48">
+    <row r="374" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A374" s="5">
         <v>373</v>
       </c>
-      <c r="B374" s="48">
+      <c r="B374" s="5">
         <v>10290</v>
       </c>
-      <c r="F374" s="48">
-        <v>1</v>
-      </c>
-      <c r="G374" s="48" t="s">
+      <c r="F374" s="5">
+        <v>1</v>
+      </c>
+      <c r="G374" s="5" t="s">
         <v>1246</v>
       </c>
-      <c r="H374" s="48" t="s">
+      <c r="H374" s="5" t="s">
         <v>1247</v>
       </c>
-      <c r="I374" s="48" t="s">
+      <c r="I374" s="5" t="s">
         <v>1248</v>
       </c>
-      <c r="K374" s="48">
+      <c r="K374" s="5">
         <v>-31</v>
       </c>
-      <c r="L374" s="48">
-        <v>0</v>
-      </c>
-      <c r="M374" s="48">
-        <v>0</v>
-      </c>
-      <c r="N374" s="48" t="s">
+      <c r="L374" s="5">
+        <v>0</v>
+      </c>
+      <c r="M374" s="5">
+        <v>0</v>
+      </c>
+      <c r="N374" s="5" t="s">
         <v>1292</v>
       </c>
-      <c r="O374" s="48">
+      <c r="O374" s="5">
         <v>300</v>
       </c>
-      <c r="P374" s="48" t="s">
+      <c r="P374" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="Q374" s="49" t="s">
+      <c r="Q374" s="10" t="s">
         <v>1249</v>
       </c>
-      <c r="V374" s="48" t="s">
+      <c r="V374" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="W374" s="48">
+      <c r="W374" s="5">
         <v>9999999</v>
       </c>
-      <c r="X374" s="48">
+      <c r="X374" s="5">
         <v>1598916600</v>
       </c>
-      <c r="Y374" s="48">
+      <c r="Y374" s="5">
         <v>1599494399</v>
       </c>
-      <c r="Z374" s="48">
+      <c r="Z374" s="5">
         <v>14</v>
       </c>
-      <c r="AG374" s="48">
-        <v>1</v>
-      </c>
-      <c r="AH374" s="48">
-        <v>1</v>
-      </c>
-      <c r="AK374" s="48">
-        <v>1</v>
-      </c>
-      <c r="AL374" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="375" spans="1:38" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A375" s="48">
+      <c r="AG374" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH374" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK374" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL374" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A375" s="5">
         <v>374</v>
       </c>
-      <c r="B375" s="48">
+      <c r="B375" s="5">
         <v>10291</v>
       </c>
-      <c r="F375" s="48">
-        <v>1</v>
-      </c>
-      <c r="G375" s="48" t="s">
+      <c r="F375" s="5">
+        <v>1</v>
+      </c>
+      <c r="G375" s="5" t="s">
         <v>1371</v>
       </c>
-      <c r="H375" s="48" t="s">
+      <c r="H375" s="5" t="s">
         <v>1372</v>
       </c>
-      <c r="I375" s="48" t="s">
+      <c r="I375" s="5" t="s">
         <v>1373</v>
       </c>
-      <c r="K375" s="48">
+      <c r="K375" s="5">
         <v>-31</v>
       </c>
-      <c r="L375" s="48">
-        <v>0</v>
-      </c>
-      <c r="M375" s="48">
-        <v>0</v>
-      </c>
-      <c r="N375" s="48" t="s">
+      <c r="L375" s="5">
+        <v>0</v>
+      </c>
+      <c r="M375" s="5">
+        <v>0</v>
+      </c>
+      <c r="N375" s="5" t="s">
         <v>1374</v>
       </c>
-      <c r="O375" s="48">
+      <c r="O375" s="5">
         <v>300</v>
       </c>
-      <c r="P375" s="48" t="s">
+      <c r="P375" s="5" t="s">
         <v>1375</v>
       </c>
-      <c r="Q375" s="49" t="s">
+      <c r="Q375" s="10" t="s">
         <v>1376</v>
       </c>
-      <c r="V375" s="48" t="s">
+      <c r="V375" s="5" t="s">
         <v>1377</v>
       </c>
-      <c r="W375" s="48">
+      <c r="W375" s="5">
         <v>9999999</v>
       </c>
-      <c r="X375" s="48">
+      <c r="X375" s="5">
         <v>1599523200</v>
       </c>
-      <c r="Y375" s="48">
+      <c r="Y375" s="5">
         <v>1600099199</v>
       </c>
-      <c r="Z375" s="48">
+      <c r="Z375" s="5">
         <v>14</v>
       </c>
-      <c r="AG375" s="48">
-        <v>1</v>
-      </c>
-      <c r="AH375" s="48">
-        <v>1</v>
-      </c>
-      <c r="AK375" s="48">
-        <v>1</v>
-      </c>
-      <c r="AL375" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="376" spans="1:38" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A376" s="48">
+      <c r="AG375" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH375" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK375" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL375" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A376" s="5">
         <v>375</v>
       </c>
-      <c r="B376" s="48">
+      <c r="B376" s="5">
         <v>10292</v>
       </c>
-      <c r="F376" s="48">
-        <v>1</v>
-      </c>
-      <c r="G376" s="48" t="s">
+      <c r="F376" s="5">
+        <v>1</v>
+      </c>
+      <c r="G376" s="5" t="s">
         <v>1379</v>
       </c>
-      <c r="H376" s="48" t="s">
+      <c r="H376" s="5" t="s">
         <v>1381</v>
       </c>
-      <c r="I376" s="48" t="s">
+      <c r="I376" s="5" t="s">
         <v>1382</v>
       </c>
-      <c r="K376" s="48">
+      <c r="K376" s="5">
         <v>-31</v>
       </c>
-      <c r="L376" s="48">
-        <v>0</v>
-      </c>
-      <c r="M376" s="48">
-        <v>0</v>
-      </c>
-      <c r="N376" s="48" t="s">
+      <c r="L376" s="5">
+        <v>0</v>
+      </c>
+      <c r="M376" s="5">
+        <v>0</v>
+      </c>
+      <c r="N376" s="5" t="s">
         <v>1374</v>
       </c>
-      <c r="O376" s="48">
-        <v>0</v>
-      </c>
-      <c r="P376" s="48" t="s">
+      <c r="O376" s="5">
+        <v>0</v>
+      </c>
+      <c r="P376" s="5" t="s">
         <v>1384</v>
       </c>
-      <c r="Q376" s="49" t="s">
+      <c r="Q376" s="10" t="s">
         <v>1385</v>
       </c>
-      <c r="V376" s="48" t="s">
+      <c r="V376" s="5" t="s">
         <v>1386</v>
       </c>
-      <c r="W376" s="48">
+      <c r="W376" s="5">
         <v>9999999</v>
       </c>
-      <c r="X376" s="48">
+      <c r="X376" s="5">
         <v>1599523200</v>
       </c>
-      <c r="Y376" s="48">
+      <c r="Y376" s="5">
         <v>1600099199</v>
       </c>
-      <c r="Z376" s="48">
+      <c r="Z376" s="5">
         <v>42</v>
       </c>
-      <c r="AG376" s="48">
-        <v>1</v>
-      </c>
-      <c r="AH376" s="48">
-        <v>1</v>
-      </c>
-      <c r="AK376" s="48">
-        <v>1</v>
-      </c>
-      <c r="AL376" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="377" spans="1:38" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A377" s="48">
+      <c r="AG376" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH376" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK376" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL376" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A377" s="5">
         <v>376</v>
       </c>
-      <c r="B377" s="48">
+      <c r="B377" s="5">
         <v>10293</v>
       </c>
-      <c r="F377" s="48">
-        <v>1</v>
-      </c>
-      <c r="G377" s="48" t="s">
+      <c r="F377" s="5">
+        <v>1</v>
+      </c>
+      <c r="G377" s="5" t="s">
         <v>1379</v>
       </c>
-      <c r="H377" s="48" t="s">
+      <c r="H377" s="5" t="s">
         <v>1381</v>
       </c>
-      <c r="I377" s="48" t="s">
+      <c r="I377" s="5" t="s">
         <v>1038</v>
       </c>
-      <c r="K377" s="48">
+      <c r="K377" s="5">
         <v>-31</v>
       </c>
-      <c r="L377" s="48">
-        <v>0</v>
-      </c>
-      <c r="M377" s="48">
-        <v>0</v>
-      </c>
-      <c r="N377" s="48" t="s">
+      <c r="L377" s="5">
+        <v>0</v>
+      </c>
+      <c r="M377" s="5">
+        <v>0</v>
+      </c>
+      <c r="N377" s="5" t="s">
         <v>1374</v>
       </c>
-      <c r="O377" s="48">
+      <c r="O377" s="5">
         <v>300</v>
       </c>
-      <c r="P377" s="48" t="s">
+      <c r="P377" s="5" t="s">
         <v>1383</v>
       </c>
-      <c r="Q377" s="49" t="s">
+      <c r="Q377" s="10" t="s">
         <v>1387</v>
       </c>
-      <c r="V377" s="48" t="s">
+      <c r="V377" s="5" t="s">
         <v>1377</v>
       </c>
-      <c r="W377" s="48">
+      <c r="W377" s="5">
         <v>9999999</v>
       </c>
-      <c r="X377" s="48">
+      <c r="X377" s="5">
         <v>1599523200</v>
       </c>
-      <c r="Y377" s="48">
+      <c r="Y377" s="5">
         <v>1600099199</v>
       </c>
-      <c r="Z377" s="48">
+      <c r="Z377" s="5">
         <v>42</v>
       </c>
-      <c r="AG377" s="48">
-        <v>1</v>
-      </c>
-      <c r="AH377" s="48">
-        <v>1</v>
-      </c>
-      <c r="AK377" s="48">
-        <v>1</v>
-      </c>
-      <c r="AL377" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="378" spans="1:38" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A378" s="48">
+      <c r="AG377" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH377" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK377" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL377" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A378" s="5">
         <v>377</v>
       </c>
-      <c r="B378" s="48">
+      <c r="B378" s="5">
         <v>10294</v>
       </c>
-      <c r="F378" s="48">
-        <v>1</v>
-      </c>
-      <c r="G378" s="48" t="s">
+      <c r="F378" s="5">
+        <v>1</v>
+      </c>
+      <c r="G378" s="5" t="s">
         <v>1379</v>
       </c>
-      <c r="H378" s="48" t="s">
+      <c r="H378" s="5" t="s">
         <v>1380</v>
       </c>
-      <c r="I378" s="48" t="s">
+      <c r="I378" s="5" t="s">
         <v>1388</v>
       </c>
-      <c r="K378" s="48">
+      <c r="K378" s="5">
         <v>-31</v>
       </c>
-      <c r="L378" s="48">
-        <v>0</v>
-      </c>
-      <c r="M378" s="48">
-        <v>0</v>
-      </c>
-      <c r="N378" s="48" t="s">
+      <c r="L378" s="5">
+        <v>0</v>
+      </c>
+      <c r="M378" s="5">
+        <v>0</v>
+      </c>
+      <c r="N378" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="O378" s="48">
+      <c r="O378" s="5">
         <v>600</v>
       </c>
-      <c r="P378" s="48" t="s">
+      <c r="P378" s="5" t="s">
         <v>1384</v>
       </c>
-      <c r="Q378" s="49" t="s">
+      <c r="Q378" s="10" t="s">
         <v>1389</v>
       </c>
-      <c r="V378" s="48" t="s">
+      <c r="V378" s="5" t="s">
         <v>1390</v>
       </c>
-      <c r="W378" s="48">
+      <c r="W378" s="5">
         <v>9999999</v>
       </c>
-      <c r="X378" s="48">
+      <c r="X378" s="5">
         <v>1599523200</v>
       </c>
-      <c r="Y378" s="48">
+      <c r="Y378" s="5">
         <v>1600099199</v>
       </c>
-      <c r="Z378" s="48">
+      <c r="Z378" s="5">
         <v>42</v>
       </c>
-      <c r="AG378" s="48">
-        <v>1</v>
-      </c>
-      <c r="AH378" s="48">
-        <v>1</v>
-      </c>
-      <c r="AK378" s="48">
-        <v>1</v>
-      </c>
-      <c r="AL378" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="379" spans="1:38" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A379" s="48">
+      <c r="AG378" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH378" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK378" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL378" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A379" s="5">
         <v>378</v>
       </c>
-      <c r="B379" s="48">
+      <c r="B379" s="5">
         <v>10295</v>
       </c>
-      <c r="F379" s="48">
-        <v>1</v>
-      </c>
-      <c r="G379" s="48" t="s">
+      <c r="F379" s="5">
+        <v>1</v>
+      </c>
+      <c r="G379" s="5" t="s">
         <v>1378</v>
       </c>
-      <c r="H379" s="48" t="s">
+      <c r="H379" s="5" t="s">
         <v>1381</v>
       </c>
-      <c r="I379" s="48" t="s">
+      <c r="I379" s="5" t="s">
         <v>917</v>
       </c>
-      <c r="K379" s="48">
+      <c r="K379" s="5">
         <v>-31</v>
       </c>
-      <c r="L379" s="48">
-        <v>0</v>
-      </c>
-      <c r="M379" s="48">
-        <v>0</v>
-      </c>
-      <c r="N379" s="48" t="s">
+      <c r="L379" s="5">
+        <v>0</v>
+      </c>
+      <c r="M379" s="5">
+        <v>0</v>
+      </c>
+      <c r="N379" s="5" t="s">
         <v>1374</v>
       </c>
-      <c r="O379" s="48">
+      <c r="O379" s="5">
         <v>1800</v>
       </c>
-      <c r="P379" s="48" t="s">
+      <c r="P379" s="5" t="s">
         <v>1384</v>
       </c>
-      <c r="Q379" s="49" t="s">
+      <c r="Q379" s="10" t="s">
         <v>1402</v>
       </c>
-      <c r="V379" s="48" t="s">
+      <c r="V379" s="5" t="s">
         <v>1391</v>
       </c>
-      <c r="W379" s="48">
+      <c r="W379" s="5">
         <v>9999999</v>
       </c>
-      <c r="X379" s="48">
+      <c r="X379" s="5">
         <v>1599523200</v>
       </c>
-      <c r="Y379" s="48">
+      <c r="Y379" s="5">
         <v>1600099199</v>
       </c>
-      <c r="Z379" s="48">
+      <c r="Z379" s="5">
         <v>42</v>
       </c>
-      <c r="AG379" s="48">
-        <v>1</v>
-      </c>
-      <c r="AH379" s="48">
-        <v>1</v>
-      </c>
-      <c r="AK379" s="48">
-        <v>1</v>
-      </c>
-      <c r="AL379" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="380" spans="1:38" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A380" s="48">
+      <c r="AG379" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH379" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK379" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL379" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A380" s="5">
         <v>379</v>
       </c>
-      <c r="B380" s="48">
+      <c r="B380" s="5">
         <v>10296</v>
       </c>
-      <c r="F380" s="48">
-        <v>1</v>
-      </c>
-      <c r="G380" s="48" t="s">
+      <c r="F380" s="5">
+        <v>1</v>
+      </c>
+      <c r="G380" s="5" t="s">
         <v>1378</v>
       </c>
-      <c r="H380" s="48" t="s">
+      <c r="H380" s="5" t="s">
         <v>1380</v>
       </c>
-      <c r="I380" s="48" t="s">
+      <c r="I380" s="5" t="s">
         <v>918</v>
       </c>
-      <c r="K380" s="48">
+      <c r="K380" s="5">
         <v>-31</v>
       </c>
-      <c r="L380" s="48">
-        <v>0</v>
-      </c>
-      <c r="M380" s="48">
-        <v>0</v>
-      </c>
-      <c r="N380" s="48" t="s">
+      <c r="L380" s="5">
+        <v>0</v>
+      </c>
+      <c r="M380" s="5">
+        <v>0</v>
+      </c>
+      <c r="N380" s="5" t="s">
         <v>1374</v>
       </c>
-      <c r="O380" s="48">
+      <c r="O380" s="5">
         <v>4800</v>
       </c>
-      <c r="P380" s="48" t="s">
+      <c r="P380" s="5" t="s">
         <v>1384</v>
       </c>
-      <c r="Q380" s="49" t="s">
+      <c r="Q380" s="10" t="s">
         <v>1403</v>
       </c>
-      <c r="V380" s="48" t="s">
+      <c r="V380" s="5" t="s">
         <v>1392</v>
       </c>
-      <c r="W380" s="48">
+      <c r="W380" s="5">
         <v>9999999</v>
       </c>
-      <c r="X380" s="48">
+      <c r="X380" s="5">
         <v>1599523200</v>
       </c>
-      <c r="Y380" s="48">
+      <c r="Y380" s="5">
         <v>1600099199</v>
       </c>
-      <c r="Z380" s="48">
+      <c r="Z380" s="5">
         <v>42</v>
       </c>
-      <c r="AG380" s="48">
-        <v>1</v>
-      </c>
-      <c r="AH380" s="48">
-        <v>1</v>
-      </c>
-      <c r="AK380" s="48">
-        <v>1</v>
-      </c>
-      <c r="AL380" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="381" spans="1:38" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A381" s="48">
+      <c r="AG380" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH380" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK380" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL380" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A381" s="5">
         <v>380</v>
       </c>
-      <c r="B381" s="48">
+      <c r="B381" s="5">
         <v>10297</v>
       </c>
-      <c r="F381" s="48">
-        <v>1</v>
-      </c>
-      <c r="G381" s="48" t="s">
+      <c r="F381" s="5">
+        <v>1</v>
+      </c>
+      <c r="G381" s="5" t="s">
         <v>1379</v>
       </c>
-      <c r="H381" s="48" t="s">
+      <c r="H381" s="5" t="s">
         <v>1393</v>
       </c>
-      <c r="I381" s="48" t="s">
+      <c r="I381" s="5" t="s">
         <v>1382</v>
       </c>
-      <c r="K381" s="48">
+      <c r="K381" s="5">
         <v>-31</v>
       </c>
-      <c r="L381" s="48">
-        <v>0</v>
-      </c>
-      <c r="M381" s="48">
-        <v>0</v>
-      </c>
-      <c r="N381" s="48" t="s">
+      <c r="L381" s="5">
+        <v>0</v>
+      </c>
+      <c r="M381" s="5">
+        <v>0</v>
+      </c>
+      <c r="N381" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="O381" s="48">
-        <v>0</v>
-      </c>
-      <c r="P381" s="48" t="s">
+      <c r="O381" s="5">
+        <v>0</v>
+      </c>
+      <c r="P381" s="5" t="s">
         <v>1384</v>
       </c>
-      <c r="Q381" s="49" t="s">
+      <c r="Q381" s="10" t="s">
         <v>1385</v>
       </c>
-      <c r="V381" s="48" t="s">
+      <c r="V381" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="W381" s="48">
+      <c r="W381" s="5">
         <v>9999999</v>
       </c>
-      <c r="X381" s="48">
+      <c r="X381" s="5">
         <v>1599523200</v>
       </c>
-      <c r="Y381" s="48">
+      <c r="Y381" s="5">
         <v>1600099199</v>
       </c>
-      <c r="Z381" s="48">
+      <c r="Z381" s="5">
         <v>43</v>
       </c>
-      <c r="AG381" s="48">
-        <v>1</v>
-      </c>
-      <c r="AH381" s="48">
-        <v>1</v>
-      </c>
-      <c r="AK381" s="48">
-        <v>1</v>
-      </c>
-      <c r="AL381" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="382" spans="1:38" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A382" s="48">
+      <c r="AG381" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH381" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK381" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL381" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A382" s="5">
         <v>381</v>
       </c>
-      <c r="B382" s="48">
+      <c r="B382" s="5">
         <v>10298</v>
       </c>
-      <c r="F382" s="48">
-        <v>1</v>
-      </c>
-      <c r="G382" s="48" t="s">
+      <c r="F382" s="5">
+        <v>1</v>
+      </c>
+      <c r="G382" s="5" t="s">
         <v>1378</v>
       </c>
-      <c r="H382" s="48" t="s">
+      <c r="H382" s="5" t="s">
         <v>1393</v>
       </c>
-      <c r="I382" s="48" t="s">
+      <c r="I382" s="5" t="s">
         <v>1348</v>
       </c>
-      <c r="K382" s="48">
+      <c r="K382" s="5">
         <v>-31</v>
       </c>
-      <c r="L382" s="48">
-        <v>0</v>
-      </c>
-      <c r="M382" s="48">
-        <v>0</v>
-      </c>
-      <c r="N382" s="48" t="s">
+      <c r="L382" s="5">
+        <v>0</v>
+      </c>
+      <c r="M382" s="5">
+        <v>0</v>
+      </c>
+      <c r="N382" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="O382" s="48">
+      <c r="O382" s="5">
         <v>1800</v>
       </c>
-      <c r="P382" s="48" t="s">
+      <c r="P382" s="5" t="s">
         <v>1383</v>
       </c>
-      <c r="Q382" s="49" t="s">
+      <c r="Q382" s="10" t="s">
         <v>1394</v>
       </c>
-      <c r="V382" s="48" t="s">
+      <c r="V382" s="5" t="s">
         <v>1377</v>
       </c>
-      <c r="W382" s="48">
+      <c r="W382" s="5">
         <v>9999999</v>
       </c>
-      <c r="X382" s="48">
+      <c r="X382" s="5">
         <v>1599523200</v>
       </c>
-      <c r="Y382" s="48">
+      <c r="Y382" s="5">
         <v>1600099199</v>
       </c>
-      <c r="Z382" s="48">
+      <c r="Z382" s="5">
         <v>43</v>
       </c>
-      <c r="AG382" s="48">
-        <v>1</v>
-      </c>
-      <c r="AH382" s="48">
-        <v>1</v>
-      </c>
-      <c r="AK382" s="48">
-        <v>1</v>
-      </c>
-      <c r="AL382" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="383" spans="1:38" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A383" s="48">
+      <c r="AG382" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH382" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK382" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL382" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A383" s="5">
         <v>382</v>
       </c>
-      <c r="B383" s="48">
+      <c r="B383" s="5">
         <v>10299</v>
       </c>
-      <c r="F383" s="48">
-        <v>1</v>
-      </c>
-      <c r="G383" s="48" t="s">
+      <c r="F383" s="5">
+        <v>1</v>
+      </c>
+      <c r="G383" s="5" t="s">
         <v>1379</v>
       </c>
-      <c r="H383" s="48" t="s">
+      <c r="H383" s="5" t="s">
         <v>1393</v>
       </c>
-      <c r="I383" s="48" t="s">
+      <c r="I383" s="5" t="s">
         <v>1395</v>
       </c>
-      <c r="K383" s="48">
+      <c r="K383" s="5">
         <v>-31</v>
       </c>
-      <c r="L383" s="48">
-        <v>0</v>
-      </c>
-      <c r="M383" s="48">
-        <v>0</v>
-      </c>
-      <c r="N383" s="48" t="s">
+      <c r="L383" s="5">
+        <v>0</v>
+      </c>
+      <c r="M383" s="5">
+        <v>0</v>
+      </c>
+      <c r="N383" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="O383" s="48">
+      <c r="O383" s="5">
         <v>4800</v>
       </c>
-      <c r="P383" s="48" t="s">
+      <c r="P383" s="5" t="s">
         <v>1384</v>
       </c>
-      <c r="Q383" s="49" t="s">
+      <c r="Q383" s="10" t="s">
         <v>1396</v>
       </c>
-      <c r="V383" s="48" t="s">
+      <c r="V383" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="W383" s="48">
+      <c r="W383" s="5">
         <v>9999999</v>
       </c>
-      <c r="X383" s="48">
+      <c r="X383" s="5">
         <v>1599523200</v>
       </c>
-      <c r="Y383" s="48">
+      <c r="Y383" s="5">
         <v>1600099199</v>
       </c>
-      <c r="Z383" s="48">
+      <c r="Z383" s="5">
         <v>43</v>
       </c>
-      <c r="AG383" s="48">
-        <v>1</v>
-      </c>
-      <c r="AH383" s="48">
-        <v>1</v>
-      </c>
-      <c r="AK383" s="48">
-        <v>1</v>
-      </c>
-      <c r="AL383" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="384" spans="1:38" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A384" s="48">
+      <c r="AG383" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH383" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK383" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL383" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A384" s="5">
         <v>383</v>
       </c>
-      <c r="B384" s="48">
+      <c r="B384" s="5">
         <v>10300</v>
       </c>
-      <c r="F384" s="48">
-        <v>1</v>
-      </c>
-      <c r="G384" s="48" t="s">
+      <c r="F384" s="5">
+        <v>1</v>
+      </c>
+      <c r="G384" s="5" t="s">
         <v>1378</v>
       </c>
-      <c r="H384" s="48" t="s">
+      <c r="H384" s="5" t="s">
         <v>1393</v>
       </c>
-      <c r="I384" s="48" t="s">
+      <c r="I384" s="5" t="s">
         <v>1397</v>
       </c>
-      <c r="K384" s="48">
+      <c r="K384" s="5">
         <v>-31</v>
       </c>
-      <c r="L384" s="48">
-        <v>0</v>
-      </c>
-      <c r="M384" s="48">
-        <v>0</v>
-      </c>
-      <c r="N384" s="48" t="s">
+      <c r="L384" s="5">
+        <v>0</v>
+      </c>
+      <c r="M384" s="5">
+        <v>0</v>
+      </c>
+      <c r="N384" s="5" t="s">
         <v>1374</v>
       </c>
-      <c r="O384" s="48">
+      <c r="O384" s="5">
         <v>9800</v>
       </c>
-      <c r="P384" s="48" t="s">
+      <c r="P384" s="5" t="s">
         <v>1384</v>
       </c>
-      <c r="Q384" s="49" t="s">
+      <c r="Q384" s="10" t="s">
         <v>766</v>
       </c>
-      <c r="V384" s="48" t="s">
+      <c r="V384" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="W384" s="48">
+      <c r="W384" s="5">
         <v>9999999</v>
       </c>
-      <c r="X384" s="48">
+      <c r="X384" s="5">
         <v>1599523200</v>
       </c>
-      <c r="Y384" s="48">
+      <c r="Y384" s="5">
         <v>1600099199</v>
       </c>
-      <c r="Z384" s="48">
+      <c r="Z384" s="5">
         <v>43</v>
       </c>
-      <c r="AG384" s="48">
-        <v>1</v>
-      </c>
-      <c r="AH384" s="48">
-        <v>1</v>
-      </c>
-      <c r="AK384" s="48">
-        <v>1</v>
-      </c>
-      <c r="AL384" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="385" spans="1:38" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A385" s="48">
+      <c r="AG384" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH384" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK384" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL384" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A385" s="5">
         <v>384</v>
       </c>
-      <c r="B385" s="48">
+      <c r="B385" s="5">
         <v>10301</v>
       </c>
-      <c r="F385" s="48">
-        <v>1</v>
-      </c>
-      <c r="G385" s="48" t="s">
+      <c r="F385" s="5">
+        <v>1</v>
+      </c>
+      <c r="G385" s="5" t="s">
         <v>1379</v>
       </c>
-      <c r="H385" s="48" t="s">
+      <c r="H385" s="5" t="s">
         <v>1393</v>
       </c>
-      <c r="I385" s="48" t="s">
+      <c r="I385" s="5" t="s">
         <v>1398</v>
       </c>
-      <c r="K385" s="48">
+      <c r="K385" s="5">
         <v>-31</v>
       </c>
-      <c r="L385" s="48">
-        <v>0</v>
-      </c>
-      <c r="M385" s="48">
-        <v>0</v>
-      </c>
-      <c r="N385" s="48" t="s">
+      <c r="L385" s="5">
+        <v>0</v>
+      </c>
+      <c r="M385" s="5">
+        <v>0</v>
+      </c>
+      <c r="N385" s="5" t="s">
         <v>1374</v>
       </c>
-      <c r="O385" s="48">
+      <c r="O385" s="5">
         <v>19800</v>
       </c>
-      <c r="P385" s="48" t="s">
+      <c r="P385" s="5" t="s">
         <v>1383</v>
       </c>
-      <c r="Q385" s="49" t="s">
+      <c r="Q385" s="10" t="s">
         <v>1399</v>
       </c>
-      <c r="V385" s="48" t="s">
+      <c r="V385" s="5" t="s">
         <v>1392</v>
       </c>
-      <c r="W385" s="48">
+      <c r="W385" s="5">
         <v>9999999</v>
       </c>
-      <c r="X385" s="48">
+      <c r="X385" s="5">
         <v>1599523200</v>
       </c>
-      <c r="Y385" s="48">
+      <c r="Y385" s="5">
         <v>1600099199</v>
       </c>
-      <c r="Z385" s="48">
+      <c r="Z385" s="5">
         <v>43</v>
       </c>
-      <c r="AG385" s="48">
-        <v>1</v>
-      </c>
-      <c r="AH385" s="48">
-        <v>1</v>
-      </c>
-      <c r="AK385" s="48">
-        <v>1</v>
-      </c>
-      <c r="AL385" s="48">
+      <c r="AG385" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH385" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK385" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL385" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:38" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A386" s="48">
+        <v>385</v>
+      </c>
+      <c r="B386" s="48">
+        <v>10302</v>
+      </c>
+      <c r="F386" s="48">
+        <v>1</v>
+      </c>
+      <c r="G386" s="48" t="s">
+        <v>1404</v>
+      </c>
+      <c r="H386" s="48" t="s">
+        <v>1405</v>
+      </c>
+      <c r="I386" s="48" t="s">
+        <v>1406</v>
+      </c>
+      <c r="K386" s="48">
+        <v>-31</v>
+      </c>
+      <c r="L386" s="48">
+        <v>0</v>
+      </c>
+      <c r="M386" s="48">
+        <v>0</v>
+      </c>
+      <c r="N386" s="48" t="s">
+        <v>484</v>
+      </c>
+      <c r="O386" s="48">
+        <v>1800</v>
+      </c>
+      <c r="P386" s="48" t="s">
+        <v>1407</v>
+      </c>
+      <c r="Q386" s="49" t="s">
+        <v>1408</v>
+      </c>
+      <c r="V386" s="48" t="s">
+        <v>538</v>
+      </c>
+      <c r="W386" s="48">
+        <v>9999999</v>
+      </c>
+      <c r="X386" s="48">
+        <v>1600128000</v>
+      </c>
+      <c r="Y386" s="48">
+        <v>1600703999</v>
+      </c>
+      <c r="Z386" s="48">
+        <v>44</v>
+      </c>
+      <c r="AG386" s="48">
+        <v>1</v>
+      </c>
+      <c r="AH386" s="48">
+        <v>1</v>
+      </c>
+      <c r="AK386" s="48">
+        <v>1</v>
+      </c>
+      <c r="AL386" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:38" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A387" s="48">
+        <v>386</v>
+      </c>
+      <c r="B387" s="48">
+        <v>10303</v>
+      </c>
+      <c r="F387" s="48">
+        <v>1</v>
+      </c>
+      <c r="G387" s="48" t="s">
+        <v>1409</v>
+      </c>
+      <c r="H387" s="48" t="s">
+        <v>1410</v>
+      </c>
+      <c r="I387" s="48" t="s">
+        <v>1411</v>
+      </c>
+      <c r="K387" s="48">
+        <v>-31</v>
+      </c>
+      <c r="L387" s="48">
+        <v>0</v>
+      </c>
+      <c r="M387" s="48">
+        <v>0</v>
+      </c>
+      <c r="N387" s="48" t="s">
+        <v>1412</v>
+      </c>
+      <c r="O387" s="48">
+        <v>3000</v>
+      </c>
+      <c r="P387" s="48" t="s">
+        <v>1413</v>
+      </c>
+      <c r="Q387" s="49" t="s">
+        <v>1414</v>
+      </c>
+      <c r="V387" s="48" t="s">
+        <v>538</v>
+      </c>
+      <c r="W387" s="48">
+        <v>9999999</v>
+      </c>
+      <c r="X387" s="48">
+        <v>1600128000</v>
+      </c>
+      <c r="Y387" s="48">
+        <v>1600703999</v>
+      </c>
+      <c r="Z387" s="48">
+        <v>44</v>
+      </c>
+      <c r="AG387" s="48">
+        <v>1</v>
+      </c>
+      <c r="AH387" s="48">
+        <v>1</v>
+      </c>
+      <c r="AK387" s="48">
+        <v>1</v>
+      </c>
+      <c r="AL387" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:38" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A388" s="48">
+        <v>387</v>
+      </c>
+      <c r="B388" s="48">
+        <v>10304</v>
+      </c>
+      <c r="F388" s="48">
+        <v>1</v>
+      </c>
+      <c r="G388" s="48" t="s">
+        <v>1415</v>
+      </c>
+      <c r="H388" s="48" t="s">
+        <v>1416</v>
+      </c>
+      <c r="I388" s="48" t="s">
+        <v>1417</v>
+      </c>
+      <c r="K388" s="48">
+        <v>-31</v>
+      </c>
+      <c r="L388" s="48">
+        <v>0</v>
+      </c>
+      <c r="M388" s="48">
+        <v>0</v>
+      </c>
+      <c r="N388" s="48" t="s">
+        <v>1418</v>
+      </c>
+      <c r="O388" s="48">
+        <v>4800</v>
+      </c>
+      <c r="P388" s="48" t="s">
+        <v>1419</v>
+      </c>
+      <c r="Q388" s="49" t="s">
+        <v>1420</v>
+      </c>
+      <c r="V388" s="48" t="s">
+        <v>1421</v>
+      </c>
+      <c r="W388" s="48">
+        <v>9999999</v>
+      </c>
+      <c r="X388" s="48">
+        <v>1600128000</v>
+      </c>
+      <c r="Y388" s="48">
+        <v>1600703999</v>
+      </c>
+      <c r="Z388" s="48">
+        <v>44</v>
+      </c>
+      <c r="AG388" s="48">
+        <v>1</v>
+      </c>
+      <c r="AH388" s="48">
+        <v>1</v>
+      </c>
+      <c r="AK388" s="48">
+        <v>1</v>
+      </c>
+      <c r="AL388" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:38" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A389" s="48">
+        <v>388</v>
+      </c>
+      <c r="B389" s="48">
+        <v>10305</v>
+      </c>
+      <c r="F389" s="48">
+        <v>1</v>
+      </c>
+      <c r="G389" s="48" t="s">
+        <v>1422</v>
+      </c>
+      <c r="H389" s="48" t="s">
+        <v>1423</v>
+      </c>
+      <c r="I389" s="48" t="s">
+        <v>1424</v>
+      </c>
+      <c r="K389" s="48">
+        <v>-31</v>
+      </c>
+      <c r="L389" s="48">
+        <v>0</v>
+      </c>
+      <c r="M389" s="48">
+        <v>0</v>
+      </c>
+      <c r="N389" s="48" t="s">
+        <v>1425</v>
+      </c>
+      <c r="O389" s="48">
+        <v>4800</v>
+      </c>
+      <c r="P389" s="48" t="s">
+        <v>1426</v>
+      </c>
+      <c r="Q389" s="49" t="s">
+        <v>1420</v>
+      </c>
+      <c r="V389" s="48" t="s">
+        <v>538</v>
+      </c>
+      <c r="W389" s="48">
+        <v>9999999</v>
+      </c>
+      <c r="X389" s="48">
+        <v>1600128000</v>
+      </c>
+      <c r="Y389" s="48">
+        <v>1600703999</v>
+      </c>
+      <c r="Z389" s="48">
+        <v>45</v>
+      </c>
+      <c r="AG389" s="48">
+        <v>1</v>
+      </c>
+      <c r="AH389" s="48">
+        <v>1</v>
+      </c>
+      <c r="AK389" s="48">
+        <v>1</v>
+      </c>
+      <c r="AL389" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:38" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A390" s="48">
+        <v>389</v>
+      </c>
+      <c r="B390" s="48">
+        <v>10306</v>
+      </c>
+      <c r="F390" s="48">
+        <v>1</v>
+      </c>
+      <c r="G390" s="48" t="s">
+        <v>1409</v>
+      </c>
+      <c r="H390" s="48" t="s">
+        <v>1234</v>
+      </c>
+      <c r="I390" s="48" t="s">
+        <v>1427</v>
+      </c>
+      <c r="K390" s="48">
+        <v>-31</v>
+      </c>
+      <c r="L390" s="48">
+        <v>0</v>
+      </c>
+      <c r="M390" s="48">
+        <v>0</v>
+      </c>
+      <c r="N390" s="48" t="s">
+        <v>484</v>
+      </c>
+      <c r="O390" s="48">
+        <v>9800</v>
+      </c>
+      <c r="P390" s="48" t="s">
+        <v>1428</v>
+      </c>
+      <c r="Q390" s="49" t="s">
+        <v>1429</v>
+      </c>
+      <c r="V390" s="48" t="s">
+        <v>538</v>
+      </c>
+      <c r="W390" s="48">
+        <v>9999999</v>
+      </c>
+      <c r="X390" s="48">
+        <v>1600128000</v>
+      </c>
+      <c r="Y390" s="48">
+        <v>1600703999</v>
+      </c>
+      <c r="Z390" s="48">
+        <v>45</v>
+      </c>
+      <c r="AG390" s="48">
+        <v>1</v>
+      </c>
+      <c r="AH390" s="48">
+        <v>1</v>
+      </c>
+      <c r="AK390" s="48">
+        <v>1</v>
+      </c>
+      <c r="AL390" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:38" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A391" s="48">
+        <v>390</v>
+      </c>
+      <c r="B391" s="48">
+        <v>10307</v>
+      </c>
+      <c r="F391" s="48">
+        <v>1</v>
+      </c>
+      <c r="G391" s="48" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H391" s="48" t="s">
+        <v>1423</v>
+      </c>
+      <c r="I391" s="48" t="s">
+        <v>1431</v>
+      </c>
+      <c r="K391" s="48">
+        <v>-31</v>
+      </c>
+      <c r="L391" s="48">
+        <v>0</v>
+      </c>
+      <c r="M391" s="48">
+        <v>0</v>
+      </c>
+      <c r="N391" s="48" t="s">
+        <v>484</v>
+      </c>
+      <c r="O391" s="48">
+        <v>19800</v>
+      </c>
+      <c r="P391" s="48" t="s">
+        <v>1432</v>
+      </c>
+      <c r="Q391" s="49" t="s">
+        <v>1433</v>
+      </c>
+      <c r="V391" s="48" t="s">
+        <v>538</v>
+      </c>
+      <c r="W391" s="48">
+        <v>9999999</v>
+      </c>
+      <c r="X391" s="48">
+        <v>1600128000</v>
+      </c>
+      <c r="Y391" s="48">
+        <v>1600703999</v>
+      </c>
+      <c r="Z391" s="48">
+        <v>45</v>
+      </c>
+      <c r="AG391" s="48">
+        <v>1</v>
+      </c>
+      <c r="AH391" s="48">
+        <v>1</v>
+      </c>
+      <c r="AK391" s="48">
+        <v>1</v>
+      </c>
+      <c r="AL391" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:38" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A392" s="48">
+        <v>391</v>
+      </c>
+      <c r="B392" s="48">
+        <v>10308</v>
+      </c>
+      <c r="F392" s="48">
+        <v>1</v>
+      </c>
+      <c r="G392" s="48" t="s">
+        <v>1404</v>
+      </c>
+      <c r="H392" s="48" t="s">
+        <v>1434</v>
+      </c>
+      <c r="I392" s="48" t="s">
+        <v>1435</v>
+      </c>
+      <c r="K392" s="48">
+        <v>-31</v>
+      </c>
+      <c r="L392" s="48">
+        <v>0</v>
+      </c>
+      <c r="M392" s="48">
+        <v>0</v>
+      </c>
+      <c r="N392" s="48" t="s">
+        <v>484</v>
+      </c>
+      <c r="O392" s="48">
+        <v>9800</v>
+      </c>
+      <c r="P392" s="48" t="s">
+        <v>1436</v>
+      </c>
+      <c r="Q392" s="49" t="s">
+        <v>1437</v>
+      </c>
+      <c r="V392" s="48" t="s">
+        <v>538</v>
+      </c>
+      <c r="W392" s="48">
+        <v>9999999</v>
+      </c>
+      <c r="X392" s="48">
+        <v>1600128000</v>
+      </c>
+      <c r="Y392" s="48">
+        <v>1600703999</v>
+      </c>
+      <c r="Z392" s="48">
+        <v>46</v>
+      </c>
+      <c r="AG392" s="48">
+        <v>1</v>
+      </c>
+      <c r="AH392" s="48">
+        <v>1</v>
+      </c>
+      <c r="AK392" s="48">
+        <v>1</v>
+      </c>
+      <c r="AL392" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:38" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A393" s="48">
+        <v>392</v>
+      </c>
+      <c r="B393" s="48">
+        <v>10309</v>
+      </c>
+      <c r="F393" s="48">
+        <v>1</v>
+      </c>
+      <c r="G393" s="48" t="s">
+        <v>1409</v>
+      </c>
+      <c r="H393" s="48" t="s">
+        <v>1438</v>
+      </c>
+      <c r="I393" s="48" t="s">
+        <v>1439</v>
+      </c>
+      <c r="K393" s="48">
+        <v>-31</v>
+      </c>
+      <c r="L393" s="48">
+        <v>0</v>
+      </c>
+      <c r="M393" s="48">
+        <v>0</v>
+      </c>
+      <c r="N393" s="48" t="s">
+        <v>484</v>
+      </c>
+      <c r="O393" s="48">
+        <v>19800</v>
+      </c>
+      <c r="P393" s="48" t="s">
+        <v>1440</v>
+      </c>
+      <c r="Q393" s="49" t="s">
+        <v>1433</v>
+      </c>
+      <c r="V393" s="48" t="s">
+        <v>538</v>
+      </c>
+      <c r="W393" s="48">
+        <v>9999999</v>
+      </c>
+      <c r="X393" s="48">
+        <v>1600128000</v>
+      </c>
+      <c r="Y393" s="48">
+        <v>1600703999</v>
+      </c>
+      <c r="Z393" s="48">
+        <v>46</v>
+      </c>
+      <c r="AG393" s="48">
+        <v>1</v>
+      </c>
+      <c r="AH393" s="48">
+        <v>1</v>
+      </c>
+      <c r="AK393" s="48">
+        <v>1</v>
+      </c>
+      <c r="AL393" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:38" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A394" s="48">
+        <v>393</v>
+      </c>
+      <c r="B394" s="48">
+        <v>10310</v>
+      </c>
+      <c r="F394" s="48">
+        <v>1</v>
+      </c>
+      <c r="G394" s="48" t="s">
+        <v>1415</v>
+      </c>
+      <c r="H394" s="48" t="s">
+        <v>1441</v>
+      </c>
+      <c r="I394" s="48" t="s">
+        <v>1442</v>
+      </c>
+      <c r="K394" s="48">
+        <v>-31</v>
+      </c>
+      <c r="L394" s="48">
+        <v>0</v>
+      </c>
+      <c r="M394" s="48">
+        <v>0</v>
+      </c>
+      <c r="N394" s="48" t="s">
+        <v>1443</v>
+      </c>
+      <c r="O394" s="48">
+        <v>49800</v>
+      </c>
+      <c r="P394" s="48" t="s">
+        <v>1444</v>
+      </c>
+      <c r="Q394" s="49" t="s">
+        <v>1445</v>
+      </c>
+      <c r="V394" s="48" t="s">
+        <v>538</v>
+      </c>
+      <c r="W394" s="48">
+        <v>9999999</v>
+      </c>
+      <c r="X394" s="48">
+        <v>1600128000</v>
+      </c>
+      <c r="Y394" s="48">
+        <v>1600703999</v>
+      </c>
+      <c r="Z394" s="48">
+        <v>46</v>
+      </c>
+      <c r="AG394" s="48">
+        <v>1</v>
+      </c>
+      <c r="AH394" s="48">
+        <v>1</v>
+      </c>
+      <c r="AK394" s="48">
+        <v>1</v>
+      </c>
+      <c r="AL394" s="48">
         <v>1</v>
       </c>
     </row>
@@ -33561,10 +34353,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -34168,31 +34960,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="50">
+    <row r="43" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="12">
         <v>42</v>
       </c>
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="18" t="s">
         <v>1400</v>
       </c>
-      <c r="C43" s="50">
-        <v>1</v>
-      </c>
-      <c r="D43" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="50">
+      <c r="C43" s="12">
+        <v>1</v>
+      </c>
+      <c r="D43" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="12">
         <v>43</v>
       </c>
-      <c r="B44" s="51" t="s">
+      <c r="B44" s="18" t="s">
         <v>1401</v>
       </c>
-      <c r="C44" s="50">
-        <v>1</v>
-      </c>
-      <c r="D44" s="50">
+      <c r="C44" s="12">
+        <v>1</v>
+      </c>
+      <c r="D44" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="50">
+        <v>44</v>
+      </c>
+      <c r="B45" s="51" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C45" s="50">
+        <v>1</v>
+      </c>
+      <c r="D45" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="50">
+        <v>45</v>
+      </c>
+      <c r="B46" s="51" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C46" s="50">
+        <v>1</v>
+      </c>
+      <c r="D46" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="50">
+        <v>46</v>
+      </c>
+      <c r="B47" s="51" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C47" s="50">
+        <v>1</v>
+      </c>
+      <c r="D47" s="50">
         <v>0</v>
       </c>
     </row>

--- a/config_vivo/shoping_config_vivo.xlsx
+++ b/config_vivo/shoping_config_vivo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3339" uniqueCount="1449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3339" uniqueCount="1451">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -2832,14 +2832,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>4800000,30</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800000,30</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>3800000,300000,1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -3684,9 +3676,6 @@
   </si>
   <si>
     <t>"480万金币","首次救济金增加88888金币",</t>
-  </si>
-  <si>
-    <t>"480万金币","每日领记牌器1天","每日领300000金币",</t>
   </si>
   <si>
     <t>"980万金币","核能风暴*1",</t>
@@ -6609,6 +6598,26 @@
   </si>
   <si>
     <t>{type="permission_class",class_value = "hlqjd_029_hlqjd_v8" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_lock",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_lock",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","锁定*5","每日领300000金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,5</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -7441,7 +7450,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -7492,7 +7501,7 @@
         <v>30</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>31</v>
@@ -7556,7 +7565,7 @@
         <v>45</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>46</v>
@@ -7586,14 +7595,14 @@
         <v>1</v>
       </c>
       <c r="T2" s="34" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="U2" s="34" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="V2" s="11"/>
       <c r="W2" s="34" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="X2" s="11" t="s">
         <v>49</v>
@@ -7602,7 +7611,7 @@
         <v>637</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="AC2" s="11">
         <v>1</v>
@@ -7638,7 +7647,7 @@
         <v>45</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>46</v>
@@ -7668,14 +7677,14 @@
         <v>2</v>
       </c>
       <c r="T3" s="34" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="U3" s="34" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="V3" s="11"/>
       <c r="W3" s="34" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="X3" s="11" t="s">
         <v>51</v>
@@ -7720,7 +7729,7 @@
         <v>45</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>46</v>
@@ -7750,14 +7759,14 @@
         <v>3</v>
       </c>
       <c r="T4" s="34" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="U4" s="34" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="V4" s="11"/>
       <c r="W4" s="34" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="X4" s="11" t="s">
         <v>52</v>
@@ -7802,7 +7811,7 @@
         <v>45</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>46</v>
@@ -7832,14 +7841,14 @@
         <v>4</v>
       </c>
       <c r="T5" s="34" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="U5" s="34" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="V5" s="11"/>
       <c r="W5" s="34" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="X5" s="11" t="s">
         <v>53</v>
@@ -7884,7 +7893,7 @@
         <v>45</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>46</v>
@@ -7914,14 +7923,14 @@
         <v>5</v>
       </c>
       <c r="T6" s="34" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="U6" s="34" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="V6" s="11"/>
       <c r="W6" s="34" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="X6" s="11" t="s">
         <v>54</v>
@@ -7966,7 +7975,7 @@
         <v>45</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>46</v>
@@ -7996,14 +8005,14 @@
         <v>7</v>
       </c>
       <c r="T7" s="34" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="U7" s="34" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="V7" s="11"/>
       <c r="W7" s="34" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="X7" s="11" t="s">
         <v>55</v>
@@ -8048,7 +8057,7 @@
         <v>45</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>46</v>
@@ -8078,14 +8087,14 @@
         <v>8</v>
       </c>
       <c r="T8" s="34" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="U8" s="34" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="V8" s="11"/>
       <c r="W8" s="34" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="X8" s="11" t="s">
         <v>56</v>
@@ -8130,7 +8139,7 @@
         <v>45</v>
       </c>
       <c r="J9" s="34" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="K9" s="11" t="s">
         <v>46</v>
@@ -8160,13 +8169,13 @@
         <v>9</v>
       </c>
       <c r="T9" s="34" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="U9" s="34" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="W9" s="34" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="X9" s="11" t="s">
         <v>57</v>
@@ -8211,7 +8220,7 @@
         <v>45</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>46</v>
@@ -8241,13 +8250,13 @@
         <v>10</v>
       </c>
       <c r="T10" s="34" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="U10" s="34" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="W10" s="34" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="X10" s="11" t="s">
         <v>58</v>
@@ -8294,7 +8303,7 @@
         <v>45</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>46</v>
@@ -8375,7 +8384,7 @@
         <v>45</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>46</v>
@@ -8456,7 +8465,7 @@
         <v>45</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>46</v>
@@ -8537,7 +8546,7 @@
         <v>45</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>46</v>
@@ -8618,7 +8627,7 @@
         <v>45</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>46</v>
@@ -8699,7 +8708,7 @@
         <v>45</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>46</v>
@@ -8729,7 +8738,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="U16" s="2">
         <v>66</v>
@@ -8773,7 +8782,7 @@
         <v>80</v>
       </c>
       <c r="J17" s="34" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>46</v>
@@ -8803,10 +8812,10 @@
         <v>1</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="W17" s="2" t="s">
         <v>48</v>
@@ -8847,7 +8856,7 @@
         <v>80</v>
       </c>
       <c r="J18" s="34" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>46</v>
@@ -8877,10 +8886,10 @@
         <v>2</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="W18" s="2" t="s">
         <v>48</v>
@@ -8921,7 +8930,7 @@
         <v>80</v>
       </c>
       <c r="J19" s="34" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>46</v>
@@ -8951,10 +8960,10 @@
         <v>3</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="W19" s="2" t="s">
         <v>48</v>
@@ -8995,7 +9004,7 @@
         <v>80</v>
       </c>
       <c r="J20" s="34" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>46</v>
@@ -9025,10 +9034,10 @@
         <v>4</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="W20" s="2" t="s">
         <v>48</v>
@@ -9069,7 +9078,7 @@
         <v>80</v>
       </c>
       <c r="J21" s="34" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>46</v>
@@ -9099,10 +9108,10 @@
         <v>5</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="W21" s="2" t="s">
         <v>48</v>
@@ -9143,7 +9152,7 @@
         <v>80</v>
       </c>
       <c r="J22" s="34" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>46</v>
@@ -9173,10 +9182,10 @@
         <v>6</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="W22" s="2" t="s">
         <v>48</v>
@@ -9217,7 +9226,7 @@
         <v>80</v>
       </c>
       <c r="J23" s="34" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>46</v>
@@ -9247,10 +9256,10 @@
         <v>7</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="W23" s="2" t="s">
         <v>48</v>
@@ -9289,25 +9298,25 @@
         <v>10189</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="H24" s="11">
         <v>19800</v>
       </c>
       <c r="I24" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="L24" s="2" t="s">
         <v>1164</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="M24" s="2" t="s">
         <v>1165</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>1166</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>1167</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>1168</v>
       </c>
       <c r="N24" s="2">
         <v>1</v>
@@ -9328,16 +9337,16 @@
         <v>6</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="W24" s="34" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="Y24" s="11" t="s">
         <v>645</v>
@@ -9388,11 +9397,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM394"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Q365" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="M66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q398" sqref="Q398"/>
+      <selection pane="bottomRight" activeCell="R85" sqref="R85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -9454,10 +9463,10 @@
         <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>85</v>
@@ -9744,7 +9753,7 @@
         <v>110</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="5">
@@ -9787,7 +9796,7 @@
         <v>112</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="AG5" s="5">
         <v>1</v>
@@ -9923,7 +9932,7 @@
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K8" s="5">
         <v>-6</v>
@@ -10196,7 +10205,7 @@
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="5" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="K13" s="5">
         <v>-8</v>
@@ -10307,7 +10316,7 @@
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="5" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="K15" s="5">
         <v>-8</v>
@@ -10364,7 +10373,7 @@
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="5" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="K16" s="5">
         <v>-8</v>
@@ -10610,7 +10619,7 @@
         <v>600</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="Q20" s="5" t="s">
         <v>666</v>
@@ -10645,11 +10654,11 @@
         <v>1</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="5" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="K21" s="5">
         <v>-11</v>
@@ -10709,7 +10718,7 @@
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="5" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="K22" s="5">
         <v>-10</v>
@@ -10765,11 +10774,11 @@
         <v>0</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="5" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="K23" s="5">
         <v>-13</v>
@@ -12467,7 +12476,7 @@
       </c>
       <c r="H54" s="8"/>
       <c r="I54" s="5" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="K54" s="5">
         <v>-13</v>
@@ -12488,7 +12497,7 @@
         <v>210</v>
       </c>
       <c r="Q54" s="5" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="V54" s="5" t="s">
         <v>529</v>
@@ -12574,11 +12583,11 @@
         <v>1</v>
       </c>
       <c r="G56" s="37" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="H56" s="37"/>
       <c r="I56" s="22" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="K56" s="22">
         <v>-18</v>
@@ -12635,7 +12644,7 @@
       </c>
       <c r="H57" s="8"/>
       <c r="I57" s="5" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="K57" s="5">
         <v>-19</v>
@@ -13123,10 +13132,10 @@
         <v>1</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="K66" s="5">
         <v>-4</v>
@@ -13468,7 +13477,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="K72" s="5">
         <v>-4</v>
@@ -13763,7 +13772,7 @@
         <v>238</v>
       </c>
       <c r="I77" s="19" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="K77" s="19">
         <v>-20</v>
@@ -13781,10 +13790,10 @@
         <v>100</v>
       </c>
       <c r="P77" s="19" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="Q77" s="19" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="V77" s="19" t="s">
         <v>528</v>
@@ -13819,7 +13828,7 @@
         <v>239</v>
       </c>
       <c r="I78" s="19" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="K78" s="19">
         <v>-20</v>
@@ -13858,10 +13867,10 @@
         <v>80</v>
       </c>
       <c r="AB78" s="19" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="AC78" s="40" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="AG78" s="19">
         <v>1</v>
@@ -13881,10 +13890,10 @@
         <v>1</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="K79" s="5">
         <v>-20</v>
@@ -13923,10 +13932,10 @@
         <v>80</v>
       </c>
       <c r="AB79" s="5" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="AC79" s="10" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="AG79" s="5">
         <v>1</v>
@@ -13946,10 +13955,10 @@
         <v>1</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="K80" s="5">
         <v>-20</v>
@@ -13991,10 +14000,10 @@
         <v>584</v>
       </c>
       <c r="AB80" s="5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="AC80" s="10" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="AG80" s="5">
         <v>1</v>
@@ -14017,7 +14026,7 @@
         <v>242</v>
       </c>
       <c r="I81" s="19" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="K81" s="19">
         <v>-20</v>
@@ -14056,7 +14065,7 @@
         <v>584</v>
       </c>
       <c r="AB81" s="19" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="AG81" s="19">
         <v>1</v>
@@ -14079,7 +14088,7 @@
         <v>243</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="K82" s="5">
         <v>-20</v>
@@ -14135,7 +14144,7 @@
         <v>245</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="K83" s="5">
         <v>-21</v>
@@ -14153,7 +14162,7 @@
         <v>4800</v>
       </c>
       <c r="P83" s="5" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="Q83" s="5" t="s">
         <v>700</v>
@@ -14191,7 +14200,7 @@
         <v>246</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="K84" s="5">
         <v>-22</v>
@@ -14209,7 +14218,7 @@
         <v>4800</v>
       </c>
       <c r="P84" s="5" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="Q84" s="5" t="s">
         <v>701</v>
@@ -14241,13 +14250,13 @@
         <v>10002</v>
       </c>
       <c r="F85" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="K85" s="5">
         <v>-23</v>
@@ -14265,10 +14274,10 @@
         <v>4800</v>
       </c>
       <c r="P85" s="5" t="s">
-        <v>240</v>
+        <v>1446</v>
       </c>
       <c r="Q85" s="5" t="s">
-        <v>702</v>
+        <v>1449</v>
       </c>
       <c r="V85" s="5" t="s">
         <v>530</v>
@@ -14297,13 +14306,13 @@
         <v>10003</v>
       </c>
       <c r="F86" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="K86" s="5">
         <v>-24</v>
@@ -14347,13 +14356,13 @@
         <v>10004</v>
       </c>
       <c r="F87" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="K87" s="5">
         <v>-25</v>
@@ -14371,10 +14380,10 @@
         <v>9600</v>
       </c>
       <c r="P87" s="5" t="s">
-        <v>240</v>
+        <v>1447</v>
       </c>
       <c r="Q87" s="5" t="s">
-        <v>703</v>
+        <v>1450</v>
       </c>
       <c r="V87" s="5" t="s">
         <v>530</v>
@@ -14409,7 +14418,7 @@
         <v>247</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="K88" s="5">
         <v>-22</v>
@@ -14430,7 +14439,7 @@
         <v>248</v>
       </c>
       <c r="Q88" s="5" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="V88" s="5" t="s">
         <v>529</v>
@@ -14465,7 +14474,7 @@
         <v>249</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="K89" s="5">
         <v>-22</v>
@@ -14486,7 +14495,7 @@
         <v>119</v>
       </c>
       <c r="Q89" s="5" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="V89" s="5" t="s">
         <v>529</v>
@@ -14521,7 +14530,7 @@
         <v>251</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="K90" s="5">
         <v>-22</v>
@@ -14542,7 +14551,7 @@
         <v>212</v>
       </c>
       <c r="Q90" s="5" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="V90" s="5" t="s">
         <v>529</v>
@@ -14577,7 +14586,7 @@
         <v>252</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="K91" s="5">
         <v>-22</v>
@@ -14633,7 +14642,7 @@
         <v>253</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="K92" s="5">
         <v>-22</v>
@@ -14651,10 +14660,10 @@
         <v>4800</v>
       </c>
       <c r="P92" s="5" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="Q92" s="5" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="V92" s="5" t="s">
         <v>529</v>
@@ -14689,7 +14698,7 @@
         <v>254</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="K93" s="5">
         <v>-22</v>
@@ -14710,7 +14719,7 @@
         <v>255</v>
       </c>
       <c r="Q93" s="5" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="V93" s="5" t="s">
         <v>529</v>
@@ -14763,7 +14772,7 @@
         <v>80</v>
       </c>
       <c r="Q94" s="5" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="V94" s="5" t="s">
         <v>528</v>
@@ -14798,7 +14807,7 @@
         <v>257</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="K95" s="5">
         <v>-23</v>
@@ -14819,7 +14828,7 @@
         <v>208</v>
       </c>
       <c r="Q95" s="7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="R95" s="7"/>
       <c r="T95" s="7"/>
@@ -14857,7 +14866,7 @@
         <v>258</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="K96" s="5">
         <v>-23</v>
@@ -14913,7 +14922,7 @@
         <v>259</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="K97" s="5">
         <v>-24</v>
@@ -14931,13 +14940,13 @@
         <v>4800</v>
       </c>
       <c r="P97" s="5" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="Q97" s="5" t="s">
         <v>260</v>
       </c>
       <c r="S97" s="5" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="T97" s="5" t="s">
         <v>261</v>
@@ -14975,7 +14984,7 @@
         <v>262</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="K98" s="5">
         <v>-24</v>
@@ -14993,13 +15002,13 @@
         <v>9800</v>
       </c>
       <c r="P98" s="5" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="Q98" s="5" t="s">
         <v>263</v>
       </c>
       <c r="S98" s="5" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="T98" s="5" t="s">
         <v>264</v>
@@ -15037,7 +15046,7 @@
         <v>265</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="K99" s="5">
         <v>-24</v>
@@ -15055,13 +15064,13 @@
         <v>19800</v>
       </c>
       <c r="P99" s="5" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="Q99" s="5" t="s">
         <v>266</v>
       </c>
       <c r="S99" s="5" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="T99" s="5" t="s">
         <v>267</v>
@@ -15099,7 +15108,7 @@
         <v>563</v>
       </c>
       <c r="I100" s="19" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="K100" s="19">
         <v>-25</v>
@@ -15120,7 +15129,7 @@
         <v>564</v>
       </c>
       <c r="Q100" s="19" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="V100" s="19" t="s">
         <v>529</v>
@@ -15162,7 +15171,7 @@
         <v>522</v>
       </c>
       <c r="I101" s="19" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="K101" s="19">
         <v>-25</v>
@@ -15183,7 +15192,7 @@
         <v>565</v>
       </c>
       <c r="Q101" s="19" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="V101" s="19" t="s">
         <v>529</v>
@@ -15225,7 +15234,7 @@
         <v>269</v>
       </c>
       <c r="I102" s="19" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K102" s="19">
         <v>-25</v>
@@ -15246,7 +15255,7 @@
         <v>565</v>
       </c>
       <c r="Q102" s="19" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="V102" s="19" t="s">
         <v>529</v>
@@ -15288,7 +15297,7 @@
         <v>563</v>
       </c>
       <c r="I103" s="19" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="K103" s="19">
         <v>-25</v>
@@ -15309,7 +15318,7 @@
         <v>565</v>
       </c>
       <c r="Q103" s="19" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="V103" s="19" t="s">
         <v>529</v>
@@ -15351,7 +15360,7 @@
         <v>523</v>
       </c>
       <c r="I104" s="19" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="K104" s="19">
         <v>-25</v>
@@ -15372,7 +15381,7 @@
         <v>565</v>
       </c>
       <c r="Q104" s="19" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="V104" s="19" t="s">
         <v>529</v>
@@ -15414,7 +15423,7 @@
         <v>69</v>
       </c>
       <c r="I105" s="19" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="K105" s="19">
         <v>-25</v>
@@ -15435,7 +15444,7 @@
         <v>564</v>
       </c>
       <c r="Q105" s="19" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="V105" s="19" t="s">
         <v>529</v>
@@ -15477,7 +15486,7 @@
         <v>563</v>
       </c>
       <c r="I106" s="19" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="K106" s="19">
         <v>-25</v>
@@ -15498,7 +15507,7 @@
         <v>565</v>
       </c>
       <c r="Q106" s="19" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="V106" s="19" t="s">
         <v>529</v>
@@ -15540,7 +15549,7 @@
         <v>269</v>
       </c>
       <c r="I107" s="19" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K107" s="19">
         <v>-25</v>
@@ -15561,7 +15570,7 @@
         <v>564</v>
       </c>
       <c r="Q107" s="19" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="V107" s="19" t="s">
         <v>529</v>
@@ -15603,7 +15612,7 @@
         <v>73</v>
       </c>
       <c r="I108" s="19" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="K108" s="19">
         <v>-25</v>
@@ -15624,7 +15633,7 @@
         <v>565</v>
       </c>
       <c r="Q108" s="19" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="V108" s="19" t="s">
         <v>529</v>
@@ -15723,7 +15732,7 @@
         <v>275</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="K110" s="5">
         <v>-26</v>
@@ -15741,13 +15750,13 @@
         <v>3800</v>
       </c>
       <c r="P110" s="5" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="Q110" s="5" t="s">
         <v>276</v>
       </c>
       <c r="S110" s="5" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="T110" s="5" t="s">
         <v>277</v>
@@ -15785,7 +15794,7 @@
         <v>278</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="K111" s="5">
         <v>-26</v>
@@ -15803,13 +15812,13 @@
         <v>8800</v>
       </c>
       <c r="P111" s="5" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="Q111" s="5" t="s">
         <v>279</v>
       </c>
       <c r="S111" s="5" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="T111" s="5" t="s">
         <v>280</v>
@@ -15847,7 +15856,7 @@
         <v>281</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="K112" s="5">
         <v>-26</v>
@@ -15865,13 +15874,13 @@
         <v>18800</v>
       </c>
       <c r="P112" s="5" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="Q112" s="5" t="s">
         <v>282</v>
       </c>
       <c r="S112" s="5" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="T112" s="5" t="s">
         <v>283</v>
@@ -15909,7 +15918,7 @@
         <v>284</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="K113" s="5">
         <v>-26</v>
@@ -15965,7 +15974,7 @@
         <v>287</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="K114" s="5">
         <v>-26</v>
@@ -16021,7 +16030,7 @@
         <v>289</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="K115" s="5">
         <v>-26</v>
@@ -16039,7 +16048,7 @@
         <v>9800</v>
       </c>
       <c r="P115" s="5" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="Q115" s="5" t="s">
         <v>290</v>
@@ -16077,7 +16086,7 @@
         <v>291</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="K116" s="5">
         <v>-27</v>
@@ -16095,13 +16104,13 @@
         <v>4800</v>
       </c>
       <c r="P116" s="5" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="Q116" s="5" t="s">
         <v>292</v>
       </c>
       <c r="S116" s="5" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="T116" s="5" t="s">
         <v>293</v>
@@ -16139,7 +16148,7 @@
         <v>294</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="K117" s="5">
         <v>-27</v>
@@ -16157,13 +16166,13 @@
         <v>9800</v>
       </c>
       <c r="P117" s="5" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="Q117" s="5" t="s">
         <v>263</v>
       </c>
       <c r="S117" s="5" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="T117" s="5" t="s">
         <v>264</v>
@@ -16201,7 +16210,7 @@
         <v>295</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="K118" s="5">
         <v>-28</v>
@@ -16257,7 +16266,7 @@
         <v>297</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="K119" s="5">
         <v>-28</v>
@@ -16313,7 +16322,7 @@
         <v>300</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="K120" s="5">
         <v>-28</v>
@@ -16369,7 +16378,7 @@
         <v>303</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="K121" s="5">
         <v>-28</v>
@@ -16428,7 +16437,7 @@
         <v>307</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="K122" s="5">
         <v>-28</v>
@@ -16487,7 +16496,7 @@
         <v>310</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="K123" s="5">
         <v>-28</v>
@@ -16546,7 +16555,7 @@
         <v>287</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="K124" s="5">
         <v>-28</v>
@@ -16602,7 +16611,7 @@
         <v>313</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="K125" s="5">
         <v>-28</v>
@@ -16658,7 +16667,7 @@
         <v>315</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="K126" s="5">
         <v>-28</v>
@@ -16714,7 +16723,7 @@
         <v>317</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="K127" s="5">
         <v>-29</v>
@@ -16797,7 +16806,7 @@
         <v>80</v>
       </c>
       <c r="Q128" s="5" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="V128" s="5" t="s">
         <v>528</v>
@@ -16832,7 +16841,7 @@
         <v>1</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="K129" s="5">
         <v>-11</v>
@@ -16853,7 +16862,7 @@
         <v>80</v>
       </c>
       <c r="Q129" s="5" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="V129" s="5" t="s">
         <v>528</v>
@@ -16888,7 +16897,7 @@
         <v>323</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="K130" s="5">
         <v>-28</v>
@@ -16950,7 +16959,7 @@
         <v>241</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="K131" s="5">
         <v>-28</v>
@@ -17012,7 +17021,7 @@
         <v>327</v>
       </c>
       <c r="I132" s="5" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="K132" s="5">
         <v>-28</v>
@@ -17074,7 +17083,7 @@
         <v>329</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="K133" s="5">
         <v>-28</v>
@@ -17095,7 +17104,7 @@
         <v>285</v>
       </c>
       <c r="Q133" s="5" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="V133" s="5" t="s">
         <v>531</v>
@@ -17136,7 +17145,7 @@
         <v>330</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="K134" s="5">
         <v>-28</v>
@@ -17157,7 +17166,7 @@
         <v>298</v>
       </c>
       <c r="Q134" s="5" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="V134" s="5" t="s">
         <v>531</v>
@@ -17198,7 +17207,7 @@
         <v>332</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="K135" s="5">
         <v>-28</v>
@@ -17219,7 +17228,7 @@
         <v>301</v>
       </c>
       <c r="Q135" s="5" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="V135" s="5" t="s">
         <v>531</v>
@@ -17261,7 +17270,7 @@
       </c>
       <c r="H136" s="8"/>
       <c r="I136" s="5" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="K136" s="5">
         <v>-28</v>
@@ -17282,7 +17291,7 @@
         <v>150</v>
       </c>
       <c r="Q136" s="5" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="V136" s="5" t="s">
         <v>531</v>
@@ -17321,7 +17330,7 @@
       </c>
       <c r="H137" s="8"/>
       <c r="I137" s="5" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="K137" s="5">
         <v>-28</v>
@@ -17342,7 +17351,7 @@
         <v>150</v>
       </c>
       <c r="Q137" s="5" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="V137" s="5" t="s">
         <v>531</v>
@@ -17381,7 +17390,7 @@
       </c>
       <c r="H138" s="8"/>
       <c r="I138" s="5" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="K138" s="5">
         <v>-28</v>
@@ -17402,7 +17411,7 @@
         <v>150</v>
       </c>
       <c r="Q138" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="V138" s="5" t="s">
         <v>531</v>
@@ -17437,11 +17446,11 @@
         <v>1</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="H139" s="8"/>
       <c r="I139" s="5" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="K139" s="5">
         <v>-28</v>
@@ -17462,7 +17471,7 @@
         <v>150</v>
       </c>
       <c r="Q139" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="V139" s="5" t="s">
         <v>531</v>
@@ -17497,11 +17506,11 @@
         <v>1</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="H140" s="8"/>
       <c r="I140" s="5" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="K140" s="5">
         <v>-28</v>
@@ -17522,7 +17531,7 @@
         <v>150</v>
       </c>
       <c r="Q140" s="5" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="V140" s="5" t="s">
         <v>531</v>
@@ -17561,7 +17570,7 @@
       </c>
       <c r="H141" s="8"/>
       <c r="I141" s="5" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="K141" s="5">
         <v>-28</v>
@@ -17582,7 +17591,7 @@
         <v>150</v>
       </c>
       <c r="Q141" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="V141" s="5" t="s">
         <v>531</v>
@@ -17620,7 +17629,7 @@
         <v>333</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="K142" s="5">
         <v>-28</v>
@@ -17682,7 +17691,7 @@
         <v>334</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="K143" s="5">
         <v>-28</v>
@@ -17744,7 +17753,7 @@
         <v>335</v>
       </c>
       <c r="I144" s="5" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="K144" s="5">
         <v>-28</v>
@@ -17810,7 +17819,7 @@
       </c>
       <c r="H145" s="22"/>
       <c r="I145" s="5" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="K145" s="5">
         <v>-28</v>
@@ -17831,13 +17840,13 @@
         <v>338</v>
       </c>
       <c r="Q145" s="5" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="S145" s="5" t="s">
         <v>80</v>
       </c>
       <c r="T145" s="5" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="V145" s="5" t="s">
         <v>529</v>
@@ -17876,7 +17885,7 @@
       </c>
       <c r="H146" s="22"/>
       <c r="I146" s="5" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="K146" s="5">
         <v>-28</v>
@@ -17897,13 +17906,13 @@
         <v>268</v>
       </c>
       <c r="Q146" s="5" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="S146" s="5" t="s">
         <v>150</v>
       </c>
       <c r="T146" s="5" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="V146" s="5" t="s">
         <v>529</v>
@@ -17942,7 +17951,7 @@
       </c>
       <c r="H147" s="22"/>
       <c r="I147" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="K147" s="5">
         <v>-28</v>
@@ -17963,13 +17972,13 @@
         <v>268</v>
       </c>
       <c r="Q147" s="5" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="S147" s="5" t="s">
         <v>150</v>
       </c>
       <c r="T147" s="5" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="V147" s="5" t="s">
         <v>529</v>
@@ -18008,7 +18017,7 @@
       </c>
       <c r="H148" s="22"/>
       <c r="I148" s="5" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="K148" s="5">
         <v>-28</v>
@@ -18029,13 +18038,13 @@
         <v>268</v>
       </c>
       <c r="Q148" s="5" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="S148" s="5" t="s">
         <v>150</v>
       </c>
       <c r="T148" s="5" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="V148" s="5" t="s">
         <v>529</v>
@@ -18074,7 +18083,7 @@
       </c>
       <c r="H149" s="22"/>
       <c r="I149" s="5" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="K149" s="5">
         <v>-28</v>
@@ -18095,13 +18104,13 @@
         <v>268</v>
       </c>
       <c r="Q149" s="5" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="S149" s="5" t="s">
         <v>150</v>
       </c>
       <c r="T149" s="5" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="V149" s="5" t="s">
         <v>529</v>
@@ -18136,7 +18145,7 @@
         <v>343</v>
       </c>
       <c r="I150" s="5" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="K150" s="5">
         <v>-28</v>
@@ -18198,7 +18207,7 @@
         <v>344</v>
       </c>
       <c r="I151" s="5" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="K151" s="5">
         <v>-28</v>
@@ -18260,7 +18269,7 @@
         <v>345</v>
       </c>
       <c r="I152" s="5" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="K152" s="5">
         <v>-28</v>
@@ -18319,10 +18328,10 @@
         <v>1</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="I153" s="5" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="K153" s="5">
         <v>-28</v>
@@ -18343,13 +18352,13 @@
         <v>338</v>
       </c>
       <c r="Q153" s="5" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="S153" s="5" t="s">
         <v>80</v>
       </c>
       <c r="T153" s="5" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="V153" s="5" t="s">
         <v>531</v>
@@ -18384,7 +18393,7 @@
         <v>346</v>
       </c>
       <c r="I154" s="5" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="K154" s="5">
         <v>-28</v>
@@ -18405,13 +18414,13 @@
         <v>338</v>
       </c>
       <c r="Q154" s="5" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="S154" s="5" t="s">
         <v>80</v>
       </c>
       <c r="T154" s="5" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="V154" s="5" t="s">
         <v>531</v>
@@ -18446,7 +18455,7 @@
         <v>347</v>
       </c>
       <c r="I155" s="5" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="K155" s="5">
         <v>-28</v>
@@ -18467,13 +18476,13 @@
         <v>338</v>
       </c>
       <c r="Q155" s="5" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="S155" s="5" t="s">
         <v>80</v>
       </c>
       <c r="T155" s="5" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="V155" s="5" t="s">
         <v>531</v>
@@ -18508,7 +18517,7 @@
         <v>348</v>
       </c>
       <c r="I156" s="5" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="K156" s="5">
         <v>-28</v>
@@ -18529,13 +18538,13 @@
         <v>338</v>
       </c>
       <c r="Q156" s="5" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="S156" s="5" t="s">
         <v>80</v>
       </c>
       <c r="T156" s="5" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="V156" s="5" t="s">
         <v>531</v>
@@ -18570,7 +18579,7 @@
         <v>349</v>
       </c>
       <c r="I157" s="5" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="K157" s="5">
         <v>-28</v>
@@ -18591,13 +18600,13 @@
         <v>338</v>
       </c>
       <c r="Q157" s="5" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="S157" s="5" t="s">
         <v>80</v>
       </c>
       <c r="T157" s="5" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="V157" s="5" t="s">
         <v>531</v>
@@ -18632,7 +18641,7 @@
         <v>350</v>
       </c>
       <c r="I158" s="5" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="K158" s="5">
         <v>-28</v>
@@ -18694,7 +18703,7 @@
         <v>352</v>
       </c>
       <c r="I159" s="5" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="K159" s="5">
         <v>-28</v>
@@ -18756,7 +18765,7 @@
         <v>354</v>
       </c>
       <c r="I160" s="5" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="K160" s="5">
         <v>-28</v>
@@ -18818,7 +18827,7 @@
         <v>356</v>
       </c>
       <c r="I161" s="5" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="K161" s="5">
         <v>-28</v>
@@ -18880,7 +18889,7 @@
         <v>357</v>
       </c>
       <c r="I162" s="5" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="K162" s="5">
         <v>-28</v>
@@ -18942,7 +18951,7 @@
         <v>358</v>
       </c>
       <c r="I163" s="5" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="K163" s="5">
         <v>-28</v>
@@ -19001,10 +19010,10 @@
         <v>1</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="I164" s="5" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="J164" s="5">
         <v>21032</v>
@@ -19028,7 +19037,7 @@
         <v>210</v>
       </c>
       <c r="Q164" s="10" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="V164" s="5" t="s">
         <v>528</v>
@@ -19069,7 +19078,7 @@
         <v>359</v>
       </c>
       <c r="I165" s="5" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="K165" s="5">
         <v>-28</v>
@@ -19131,7 +19140,7 @@
         <v>360</v>
       </c>
       <c r="I166" s="5" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="K166" s="5">
         <v>-28</v>
@@ -19193,7 +19202,7 @@
         <v>361</v>
       </c>
       <c r="I167" s="5" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="K167" s="5">
         <v>-28</v>
@@ -19255,7 +19264,7 @@
         <v>362</v>
       </c>
       <c r="I168" s="19" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="K168" s="19">
         <v>-28</v>
@@ -19273,10 +19282,10 @@
         <v>600</v>
       </c>
       <c r="P168" s="19" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="Q168" s="19" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="V168" s="19" t="s">
         <v>528</v>
@@ -19317,10 +19326,10 @@
         <v>1</v>
       </c>
       <c r="G169" s="19" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="I169" s="19" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="K169" s="19">
         <v>-28</v>
@@ -19338,10 +19347,10 @@
         <v>3000</v>
       </c>
       <c r="P169" s="19" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="Q169" s="19" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="V169" s="19" t="s">
         <v>603</v>
@@ -19382,7 +19391,7 @@
         <v>363</v>
       </c>
       <c r="I170" s="19" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="K170" s="19">
         <v>-28</v>
@@ -19400,10 +19409,10 @@
         <v>19800</v>
       </c>
       <c r="P170" s="19" t="s">
+        <v>1080</v>
+      </c>
+      <c r="Q170" s="19" t="s">
         <v>1083</v>
-      </c>
-      <c r="Q170" s="19" t="s">
-        <v>1086</v>
       </c>
       <c r="V170" s="19" t="s">
         <v>603</v>
@@ -19441,13 +19450,13 @@
         <v>1</v>
       </c>
       <c r="G171" s="19" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="H171" s="19" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="I171" s="19" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="K171" s="19">
         <v>-28</v>
@@ -19465,10 +19474,10 @@
         <v>100</v>
       </c>
       <c r="P171" s="19" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="Q171" s="19" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="V171" s="19" t="s">
         <v>570</v>
@@ -19509,13 +19518,13 @@
         <v>1</v>
       </c>
       <c r="G172" s="19" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="H172" s="19" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="I172" s="19" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="K172" s="19">
         <v>-28</v>
@@ -19533,10 +19542,10 @@
         <v>300</v>
       </c>
       <c r="P172" s="19" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="Q172" s="19" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="V172" s="19" t="s">
         <v>531</v>
@@ -19577,13 +19586,13 @@
         <v>1</v>
       </c>
       <c r="G173" s="19" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="H173" s="19" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="I173" s="19" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="K173" s="19">
         <v>-28</v>
@@ -19601,10 +19610,10 @@
         <v>600</v>
       </c>
       <c r="P173" s="19" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="Q173" s="19" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="V173" s="19" t="s">
         <v>531</v>
@@ -19645,13 +19654,13 @@
         <v>1</v>
       </c>
       <c r="G174" s="19" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="H174" s="19" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="I174" s="19" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="K174" s="19">
         <v>-28</v>
@@ -19669,10 +19678,10 @@
         <v>600</v>
       </c>
       <c r="P174" s="19" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="Q174" s="19" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="V174" s="19" t="s">
         <v>531</v>
@@ -19713,13 +19722,13 @@
         <v>1</v>
       </c>
       <c r="G175" s="19" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="H175" s="19" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="I175" s="19" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="K175" s="19">
         <v>-28</v>
@@ -19737,10 +19746,10 @@
         <v>1000</v>
       </c>
       <c r="P175" s="19" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="Q175" s="19" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="V175" s="19" t="s">
         <v>531</v>
@@ -19781,13 +19790,13 @@
         <v>1</v>
       </c>
       <c r="G176" s="19" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="H176" s="19" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="I176" s="19" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="K176" s="19">
         <v>-28</v>
@@ -19805,10 +19814,10 @@
         <v>1800</v>
       </c>
       <c r="P176" s="19" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="Q176" s="19" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="V176" s="19" t="s">
         <v>531</v>
@@ -19849,13 +19858,13 @@
         <v>1</v>
       </c>
       <c r="G177" s="19" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="H177" s="19" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="I177" s="19" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="K177" s="19">
         <v>-28</v>
@@ -19873,10 +19882,10 @@
         <v>1800</v>
       </c>
       <c r="P177" s="19" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="Q177" s="19" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="V177" s="19" t="s">
         <v>531</v>
@@ -19917,13 +19926,13 @@
         <v>1</v>
       </c>
       <c r="G178" s="19" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="H178" s="19" t="s">
         <v>492</v>
       </c>
       <c r="I178" s="19" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="K178" s="19">
         <v>-28</v>
@@ -19941,10 +19950,10 @@
         <v>4800</v>
       </c>
       <c r="P178" s="19" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="Q178" s="19" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="V178" s="19" t="s">
         <v>531</v>
@@ -19985,13 +19994,13 @@
         <v>1</v>
       </c>
       <c r="G179" s="19" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="H179" s="19" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="I179" s="19" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="K179" s="19">
         <v>-28</v>
@@ -20009,10 +20018,10 @@
         <v>9800</v>
       </c>
       <c r="P179" s="19" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="Q179" s="19" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="V179" s="19" t="s">
         <v>531</v>
@@ -20053,13 +20062,13 @@
         <v>1</v>
       </c>
       <c r="G180" s="19" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="H180" s="19" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="I180" s="19" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="K180" s="19">
         <v>-28</v>
@@ -20077,10 +20086,10 @@
         <v>4800</v>
       </c>
       <c r="P180" s="19" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="Q180" s="19" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="V180" s="19" t="s">
         <v>531</v>
@@ -20121,13 +20130,13 @@
         <v>1</v>
       </c>
       <c r="G181" s="19" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="H181" s="19" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="I181" s="19" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="K181" s="19">
         <v>-28</v>
@@ -20145,10 +20154,10 @@
         <v>9800</v>
       </c>
       <c r="P181" s="19" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="Q181" s="19" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="V181" s="19" t="s">
         <v>531</v>
@@ -20189,13 +20198,13 @@
         <v>1</v>
       </c>
       <c r="G182" s="19" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="H182" s="19" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="I182" s="19" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="K182" s="19">
         <v>-28</v>
@@ -20213,10 +20222,10 @@
         <v>19800</v>
       </c>
       <c r="P182" s="19" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="Q182" s="19" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="V182" s="19" t="s">
         <v>531</v>
@@ -20257,13 +20266,13 @@
         <v>1</v>
       </c>
       <c r="G183" s="19" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="H183" s="19" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="I183" s="19" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="K183" s="19">
         <v>-28</v>
@@ -20281,10 +20290,10 @@
         <v>9800</v>
       </c>
       <c r="P183" s="19" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="Q183" s="19" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="V183" s="19" t="s">
         <v>531</v>
@@ -20325,13 +20334,13 @@
         <v>1</v>
       </c>
       <c r="G184" s="19" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="H184" s="19" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="I184" s="19" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="K184" s="19">
         <v>-28</v>
@@ -20349,10 +20358,10 @@
         <v>19800</v>
       </c>
       <c r="P184" s="19" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="Q184" s="19" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="V184" s="19" t="s">
         <v>531</v>
@@ -20393,13 +20402,13 @@
         <v>1</v>
       </c>
       <c r="G185" s="19" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="H185" s="19" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="I185" s="19" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="K185" s="19">
         <v>-28</v>
@@ -20417,10 +20426,10 @@
         <v>49800</v>
       </c>
       <c r="P185" s="19" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="Q185" s="19" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="V185" s="19" t="s">
         <v>531</v>
@@ -20464,7 +20473,7 @@
         <v>317</v>
       </c>
       <c r="I186" s="5" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="K186" s="5">
         <v>-29</v>
@@ -20485,13 +20494,13 @@
         <v>450</v>
       </c>
       <c r="Q186" s="5" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="S186" s="5" t="s">
         <v>320</v>
       </c>
       <c r="T186" s="5" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="V186" s="5" t="s">
         <v>528</v>
@@ -20526,7 +20535,7 @@
         <v>364</v>
       </c>
       <c r="I187" s="5" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="K187" s="5">
         <v>-28</v>
@@ -20591,7 +20600,7 @@
         <v>366</v>
       </c>
       <c r="I188" s="5" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="K188" s="5">
         <v>-28</v>
@@ -20656,7 +20665,7 @@
         <v>368</v>
       </c>
       <c r="I189" s="5" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="K189" s="5">
         <v>-28</v>
@@ -20721,7 +20730,7 @@
         <v>370</v>
       </c>
       <c r="I190" s="5" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="K190" s="5">
         <v>-28</v>
@@ -20786,7 +20795,7 @@
         <v>372</v>
       </c>
       <c r="I191" s="5" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K191" s="5">
         <v>-28</v>
@@ -20851,7 +20860,7 @@
         <v>374</v>
       </c>
       <c r="I192" s="5" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="K192" s="5">
         <v>-28</v>
@@ -20916,7 +20925,7 @@
         <v>376</v>
       </c>
       <c r="I193" s="5" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="K193" s="5">
         <v>-28</v>
@@ -20981,7 +20990,7 @@
         <v>378</v>
       </c>
       <c r="I194" s="5" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="K194" s="5">
         <v>-28</v>
@@ -21046,7 +21055,7 @@
         <v>380</v>
       </c>
       <c r="I195" s="5" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="K195" s="5">
         <v>-28</v>
@@ -21111,7 +21120,7 @@
         <v>382</v>
       </c>
       <c r="I196" s="5" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="K196" s="5">
         <v>-28</v>
@@ -21176,7 +21185,7 @@
         <v>384</v>
       </c>
       <c r="I197" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="K197" s="5">
         <v>-28</v>
@@ -21241,7 +21250,7 @@
         <v>386</v>
       </c>
       <c r="I198" s="5" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="K198" s="5">
         <v>-28</v>
@@ -21306,7 +21315,7 @@
         <v>388</v>
       </c>
       <c r="I199" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="K199" s="5">
         <v>-28</v>
@@ -21371,7 +21380,7 @@
         <v>389</v>
       </c>
       <c r="I200" s="5" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="K200" s="5">
         <v>-28</v>
@@ -21436,7 +21445,7 @@
         <v>390</v>
       </c>
       <c r="I201" s="5" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K201" s="5">
         <v>-28</v>
@@ -21501,7 +21510,7 @@
         <v>364</v>
       </c>
       <c r="I202" s="5" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="K202" s="5">
         <v>-28</v>
@@ -21566,7 +21575,7 @@
         <v>366</v>
       </c>
       <c r="I203" s="5" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="K203" s="5">
         <v>-28</v>
@@ -21631,7 +21640,7 @@
         <v>368</v>
       </c>
       <c r="I204" s="5" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="K204" s="5">
         <v>-28</v>
@@ -21696,7 +21705,7 @@
         <v>370</v>
       </c>
       <c r="I205" s="5" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="K205" s="5">
         <v>-28</v>
@@ -21761,7 +21770,7 @@
         <v>372</v>
       </c>
       <c r="I206" s="5" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K206" s="5">
         <v>-28</v>
@@ -21826,7 +21835,7 @@
         <v>374</v>
       </c>
       <c r="I207" s="5" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="K207" s="5">
         <v>-28</v>
@@ -21891,7 +21900,7 @@
         <v>376</v>
       </c>
       <c r="I208" s="5" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="K208" s="5">
         <v>-28</v>
@@ -21956,7 +21965,7 @@
         <v>378</v>
       </c>
       <c r="I209" s="5" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="K209" s="5">
         <v>-28</v>
@@ -22021,7 +22030,7 @@
         <v>380</v>
       </c>
       <c r="I210" s="5" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="K210" s="5">
         <v>-28</v>
@@ -22086,7 +22095,7 @@
         <v>382</v>
       </c>
       <c r="I211" s="5" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="K211" s="5">
         <v>-28</v>
@@ -22151,7 +22160,7 @@
         <v>384</v>
       </c>
       <c r="I212" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="K212" s="5">
         <v>-28</v>
@@ -22216,7 +22225,7 @@
         <v>386</v>
       </c>
       <c r="I213" s="5" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="K213" s="5">
         <v>-28</v>
@@ -22281,7 +22290,7 @@
         <v>388</v>
       </c>
       <c r="I214" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="K214" s="5">
         <v>-28</v>
@@ -22346,7 +22355,7 @@
         <v>389</v>
       </c>
       <c r="I215" s="5" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="K215" s="5">
         <v>-28</v>
@@ -22411,7 +22420,7 @@
         <v>390</v>
       </c>
       <c r="I216" s="5" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K216" s="5">
         <v>-28</v>
@@ -22476,7 +22485,7 @@
         <v>364</v>
       </c>
       <c r="I217" s="5" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="K217" s="5">
         <v>-28</v>
@@ -22541,7 +22550,7 @@
         <v>366</v>
       </c>
       <c r="I218" s="5" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="K218" s="5">
         <v>-28</v>
@@ -22606,7 +22615,7 @@
         <v>368</v>
       </c>
       <c r="I219" s="5" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="K219" s="5">
         <v>-28</v>
@@ -22671,7 +22680,7 @@
         <v>370</v>
       </c>
       <c r="I220" s="5" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="K220" s="5">
         <v>-28</v>
@@ -22736,7 +22745,7 @@
         <v>372</v>
       </c>
       <c r="I221" s="5" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K221" s="5">
         <v>-28</v>
@@ -22801,7 +22810,7 @@
         <v>374</v>
       </c>
       <c r="I222" s="5" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="K222" s="5">
         <v>-28</v>
@@ -22866,7 +22875,7 @@
         <v>376</v>
       </c>
       <c r="I223" s="5" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="K223" s="5">
         <v>-28</v>
@@ -22931,7 +22940,7 @@
         <v>378</v>
       </c>
       <c r="I224" s="5" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="K224" s="5">
         <v>-28</v>
@@ -22996,7 +23005,7 @@
         <v>380</v>
       </c>
       <c r="I225" s="5" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="K225" s="5">
         <v>-28</v>
@@ -23061,7 +23070,7 @@
         <v>382</v>
       </c>
       <c r="I226" s="5" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="K226" s="5">
         <v>-28</v>
@@ -23126,7 +23135,7 @@
         <v>384</v>
       </c>
       <c r="I227" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="K227" s="5">
         <v>-28</v>
@@ -23191,7 +23200,7 @@
         <v>386</v>
       </c>
       <c r="I228" s="5" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="K228" s="5">
         <v>-28</v>
@@ -23256,7 +23265,7 @@
         <v>388</v>
       </c>
       <c r="I229" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="K229" s="5">
         <v>-28</v>
@@ -23321,7 +23330,7 @@
         <v>389</v>
       </c>
       <c r="I230" s="5" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="K230" s="5">
         <v>-28</v>
@@ -23386,7 +23395,7 @@
         <v>390</v>
       </c>
       <c r="I231" s="5" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K231" s="5">
         <v>-28</v>
@@ -23451,7 +23460,7 @@
         <v>364</v>
       </c>
       <c r="I232" s="5" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="K232" s="5">
         <v>-28</v>
@@ -23516,7 +23525,7 @@
         <v>366</v>
       </c>
       <c r="I233" s="5" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="K233" s="5">
         <v>-28</v>
@@ -23581,7 +23590,7 @@
         <v>368</v>
       </c>
       <c r="I234" s="5" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="K234" s="5">
         <v>-28</v>
@@ -23646,7 +23655,7 @@
         <v>370</v>
       </c>
       <c r="I235" s="5" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="K235" s="5">
         <v>-28</v>
@@ -23711,7 +23720,7 @@
         <v>372</v>
       </c>
       <c r="I236" s="5" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K236" s="5">
         <v>-28</v>
@@ -23776,7 +23785,7 @@
         <v>374</v>
       </c>
       <c r="I237" s="5" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="K237" s="5">
         <v>-28</v>
@@ -23841,7 +23850,7 @@
         <v>376</v>
       </c>
       <c r="I238" s="5" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="K238" s="5">
         <v>-28</v>
@@ -23906,7 +23915,7 @@
         <v>378</v>
       </c>
       <c r="I239" s="5" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="K239" s="5">
         <v>-28</v>
@@ -23971,7 +23980,7 @@
         <v>380</v>
       </c>
       <c r="I240" s="5" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="K240" s="5">
         <v>-28</v>
@@ -24036,7 +24045,7 @@
         <v>382</v>
       </c>
       <c r="I241" s="5" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="K241" s="5">
         <v>-28</v>
@@ -24101,7 +24110,7 @@
         <v>384</v>
       </c>
       <c r="I242" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="K242" s="5">
         <v>-28</v>
@@ -24166,7 +24175,7 @@
         <v>386</v>
       </c>
       <c r="I243" s="5" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="K243" s="5">
         <v>-28</v>
@@ -24231,7 +24240,7 @@
         <v>388</v>
       </c>
       <c r="I244" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="K244" s="5">
         <v>-28</v>
@@ -24296,7 +24305,7 @@
         <v>389</v>
       </c>
       <c r="I245" s="5" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="K245" s="5">
         <v>-28</v>
@@ -24361,7 +24370,7 @@
         <v>390</v>
       </c>
       <c r="I246" s="5" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K246" s="5">
         <v>-28</v>
@@ -24423,11 +24432,11 @@
         <v>1</v>
       </c>
       <c r="G247" s="8" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="H247" s="8"/>
       <c r="I247" s="5" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="K247" s="5">
         <v>-28</v>
@@ -24448,7 +24457,7 @@
         <v>150</v>
       </c>
       <c r="Q247" s="5" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="V247" s="5" t="s">
         <v>531</v>
@@ -24493,7 +24502,7 @@
       </c>
       <c r="H248" s="8"/>
       <c r="I248" s="5" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="K248" s="5">
         <v>-28</v>
@@ -24514,7 +24523,7 @@
         <v>150</v>
       </c>
       <c r="Q248" s="5" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="V248" s="5" t="s">
         <v>531</v>
@@ -24559,7 +24568,7 @@
       </c>
       <c r="H249" s="8"/>
       <c r="I249" s="5" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="K249" s="5">
         <v>-28</v>
@@ -24580,7 +24589,7 @@
         <v>150</v>
       </c>
       <c r="Q249" s="5" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="V249" s="5" t="s">
         <v>531</v>
@@ -24625,7 +24634,7 @@
       </c>
       <c r="H250" s="43"/>
       <c r="I250" s="19" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="K250" s="19">
         <v>-28</v>
@@ -24646,7 +24655,7 @@
         <v>448</v>
       </c>
       <c r="Q250" s="19" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="V250" s="19" t="s">
         <v>528</v>
@@ -24687,7 +24696,7 @@
         <v>317</v>
       </c>
       <c r="I251" s="5" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="K251" s="5">
         <v>-29</v>
@@ -24705,16 +24714,16 @@
         <v>600</v>
       </c>
       <c r="P251" s="5" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="Q251" s="5" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="S251" s="5" t="s">
         <v>320</v>
       </c>
       <c r="T251" s="5" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="V251" s="5" t="s">
         <v>528</v>
@@ -24755,7 +24764,7 @@
         <v>470</v>
       </c>
       <c r="I252" s="5" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="K252" s="5">
         <v>-30</v>
@@ -24776,7 +24785,7 @@
         <v>448</v>
       </c>
       <c r="Q252" s="5" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="V252" s="5" t="s">
         <v>603</v>
@@ -24817,7 +24826,7 @@
         <v>471</v>
       </c>
       <c r="I253" s="5" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="K253" s="5">
         <v>-30</v>
@@ -24838,7 +24847,7 @@
         <v>488</v>
       </c>
       <c r="Q253" s="5" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="V253" s="5" t="s">
         <v>531</v>
@@ -24876,10 +24885,10 @@
         <v>1</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="I254" s="5" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="K254" s="5">
         <v>-31</v>
@@ -24900,7 +24909,7 @@
         <v>487</v>
       </c>
       <c r="Q254" s="5" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="V254" s="5" t="s">
         <v>531</v>
@@ -24944,7 +24953,7 @@
         <v>482</v>
       </c>
       <c r="I255" s="5" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="K255" s="5">
         <v>-31</v>
@@ -24965,7 +24974,7 @@
         <v>469</v>
       </c>
       <c r="Q255" s="5" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="V255" s="5" t="s">
         <v>531</v>
@@ -25009,7 +25018,7 @@
         <v>483</v>
       </c>
       <c r="I256" s="5" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="K256" s="5">
         <v>-31</v>
@@ -25030,7 +25039,7 @@
         <v>497</v>
       </c>
       <c r="Q256" s="5" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="V256" s="5" t="s">
         <v>531</v>
@@ -25071,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="I257" s="5" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="K257" s="5">
         <v>-31</v>
@@ -25095,13 +25104,13 @@
         <v>582</v>
       </c>
       <c r="Q257" s="5" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="S257" s="5" t="s">
         <v>490</v>
       </c>
       <c r="T257" s="5" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="V257" s="5" t="s">
         <v>528</v>
@@ -25142,7 +25151,7 @@
         <v>519</v>
       </c>
       <c r="I258" s="5" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="K258" s="5">
         <v>-31</v>
@@ -25207,7 +25216,7 @@
         <v>366</v>
       </c>
       <c r="I259" s="5" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="K259" s="5">
         <v>-31</v>
@@ -25272,7 +25281,7 @@
         <v>368</v>
       </c>
       <c r="I260" s="5" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="K260" s="5">
         <v>-31</v>
@@ -25337,7 +25346,7 @@
         <v>370</v>
       </c>
       <c r="I261" s="5" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="K261" s="5">
         <v>-31</v>
@@ -25402,7 +25411,7 @@
         <v>372</v>
       </c>
       <c r="I262" s="5" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="K262" s="5">
         <v>-31</v>
@@ -25467,7 +25476,7 @@
         <v>374</v>
       </c>
       <c r="I263" s="5" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="K263" s="5">
         <v>-31</v>
@@ -25532,7 +25541,7 @@
         <v>491</v>
       </c>
       <c r="I264" s="5" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="K264" s="5">
         <v>-31</v>
@@ -25594,10 +25603,10 @@
         <v>0</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="I265" s="5" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="K265" s="5">
         <v>-31</v>
@@ -25662,7 +25671,7 @@
         <v>493</v>
       </c>
       <c r="I266" s="5" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="K266" s="5">
         <v>-31</v>
@@ -25727,7 +25736,7 @@
         <v>494</v>
       </c>
       <c r="I267" s="5" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="K267" s="5">
         <v>-31</v>
@@ -25792,7 +25801,7 @@
         <v>495</v>
       </c>
       <c r="I268" s="5" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="K268" s="5">
         <v>-31</v>
@@ -25854,10 +25863,10 @@
         <v>0</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="I269" s="5" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="K269" s="5">
         <v>-31</v>
@@ -25922,7 +25931,7 @@
         <v>388</v>
       </c>
       <c r="I270" s="5" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="K270" s="5">
         <v>-31</v>
@@ -25987,7 +25996,7 @@
         <v>389</v>
       </c>
       <c r="I271" s="5" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="K271" s="5">
         <v>-31</v>
@@ -26052,7 +26061,7 @@
         <v>390</v>
       </c>
       <c r="I272" s="5" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="K272" s="5">
         <v>-31</v>
@@ -26138,7 +26147,7 @@
         <v>80</v>
       </c>
       <c r="Q273" s="5" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="V273" s="5" t="s">
         <v>528</v>
@@ -26176,7 +26185,7 @@
       </c>
       <c r="H274" s="5"/>
       <c r="I274" s="5" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="J274" s="5"/>
       <c r="K274" s="5">
@@ -26198,7 +26207,7 @@
         <v>527</v>
       </c>
       <c r="Q274" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="R274" s="5"/>
       <c r="S274" s="5"/>
@@ -26249,7 +26258,7 @@
         <v>532</v>
       </c>
       <c r="I275" s="5" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="K275" s="5">
         <v>-31</v>
@@ -26270,7 +26279,7 @@
         <v>562</v>
       </c>
       <c r="Q275" s="5" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="V275" s="5" t="s">
         <v>528</v>
@@ -26314,7 +26323,7 @@
         <v>533</v>
       </c>
       <c r="I276" s="5" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="K276" s="5">
         <v>-31</v>
@@ -26335,7 +26344,7 @@
         <v>541</v>
       </c>
       <c r="Q276" s="5" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="V276" s="5" t="s">
         <v>531</v>
@@ -26376,10 +26385,10 @@
         <v>0</v>
       </c>
       <c r="G277" s="5" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="I277" s="5" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="K277" s="5">
         <v>-31</v>
@@ -26400,7 +26409,7 @@
         <v>541</v>
       </c>
       <c r="Q277" s="5" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="V277" s="5" t="s">
         <v>538</v>
@@ -26441,10 +26450,10 @@
         <v>0</v>
       </c>
       <c r="G278" s="5" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="I278" s="5" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="K278" s="5">
         <v>-31</v>
@@ -26465,7 +26474,7 @@
         <v>541</v>
       </c>
       <c r="Q278" s="5" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="V278" s="5" t="s">
         <v>539</v>
@@ -26506,10 +26515,10 @@
         <v>0</v>
       </c>
       <c r="G279" s="5" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="I279" s="5" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="K279" s="5">
         <v>-31</v>
@@ -26530,7 +26539,7 @@
         <v>541</v>
       </c>
       <c r="Q279" s="5" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="V279" s="5" t="s">
         <v>540</v>
@@ -26571,10 +26580,10 @@
         <v>0</v>
       </c>
       <c r="G280" s="5" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="I280" s="5" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="K280" s="5">
         <v>-31</v>
@@ -26595,7 +26604,7 @@
         <v>541</v>
       </c>
       <c r="Q280" s="5" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="V280" s="5" t="s">
         <v>528</v>
@@ -26639,7 +26648,7 @@
         <v>534</v>
       </c>
       <c r="I281" s="5" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="K281" s="5">
         <v>-31</v>
@@ -26660,7 +26669,7 @@
         <v>541</v>
       </c>
       <c r="Q281" s="5" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="V281" s="5" t="s">
         <v>531</v>
@@ -26704,7 +26713,7 @@
         <v>535</v>
       </c>
       <c r="I282" s="5" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="K282" s="5">
         <v>-31</v>
@@ -26725,7 +26734,7 @@
         <v>541</v>
       </c>
       <c r="Q282" s="5" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="V282" s="5" t="s">
         <v>538</v>
@@ -26769,7 +26778,7 @@
         <v>536</v>
       </c>
       <c r="I283" s="5" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="K283" s="5">
         <v>-31</v>
@@ -26790,7 +26799,7 @@
         <v>541</v>
       </c>
       <c r="Q283" s="5" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="V283" s="5" t="s">
         <v>539</v>
@@ -26834,7 +26843,7 @@
         <v>537</v>
       </c>
       <c r="I284" s="5" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="K284" s="5">
         <v>-31</v>
@@ -26855,7 +26864,7 @@
         <v>541</v>
       </c>
       <c r="Q284" s="5" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="V284" s="5" t="s">
         <v>540</v>
@@ -26920,7 +26929,7 @@
         <v>541</v>
       </c>
       <c r="Q285" s="5" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="V285" s="5" t="s">
         <v>531</v>
@@ -26982,7 +26991,7 @@
         <v>541</v>
       </c>
       <c r="Q286" s="5" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="V286" s="5" t="s">
         <v>531</v>
@@ -27044,7 +27053,7 @@
         <v>541</v>
       </c>
       <c r="Q287" s="5" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="V287" s="5" t="s">
         <v>531</v>
@@ -27106,7 +27115,7 @@
         <v>541</v>
       </c>
       <c r="Q288" s="5" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="V288" s="5" t="s">
         <v>531</v>
@@ -27168,7 +27177,7 @@
         <v>541</v>
       </c>
       <c r="Q289" s="5" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="V289" s="5" t="s">
         <v>531</v>
@@ -27230,7 +27239,7 @@
         <v>541</v>
       </c>
       <c r="Q290" s="5" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="V290" s="5" t="s">
         <v>531</v>
@@ -27292,7 +27301,7 @@
         <v>541</v>
       </c>
       <c r="Q291" s="5" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="V291" s="5" t="s">
         <v>531</v>
@@ -27354,7 +27363,7 @@
         <v>541</v>
       </c>
       <c r="Q292" s="5" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="V292" s="5" t="s">
         <v>531</v>
@@ -27416,7 +27425,7 @@
         <v>590</v>
       </c>
       <c r="Q293" s="5" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="V293" s="5" t="s">
         <v>531</v>
@@ -27457,7 +27466,7 @@
         <v>604</v>
       </c>
       <c r="I294" s="5" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="K294" s="5">
         <v>-31</v>
@@ -27478,7 +27487,7 @@
         <v>581</v>
       </c>
       <c r="Q294" s="5" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="V294" s="5" t="s">
         <v>531</v>
@@ -27519,7 +27528,7 @@
         <v>605</v>
       </c>
       <c r="I295" s="5" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="K295" s="5">
         <v>-31</v>
@@ -27540,7 +27549,7 @@
         <v>581</v>
       </c>
       <c r="Q295" s="5" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="V295" s="5" t="s">
         <v>531</v>
@@ -27581,7 +27590,7 @@
         <v>606</v>
       </c>
       <c r="I296" s="5" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="K296" s="5">
         <v>-31</v>
@@ -27602,7 +27611,7 @@
         <v>581</v>
       </c>
       <c r="Q296" s="5" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="V296" s="5" t="s">
         <v>531</v>
@@ -27643,7 +27652,7 @@
         <v>607</v>
       </c>
       <c r="I297" s="5" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="K297" s="5">
         <v>-31</v>
@@ -27664,7 +27673,7 @@
         <v>581</v>
       </c>
       <c r="Q297" s="5" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="V297" s="5" t="s">
         <v>531</v>
@@ -27705,7 +27714,7 @@
         <v>608</v>
       </c>
       <c r="I298" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="K298" s="5">
         <v>-31</v>
@@ -27726,7 +27735,7 @@
         <v>580</v>
       </c>
       <c r="Q298" s="5" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="V298" s="5" t="s">
         <v>531</v>
@@ -27767,7 +27776,7 @@
         <v>609</v>
       </c>
       <c r="I299" s="5" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K299" s="5">
         <v>-31</v>
@@ -27788,7 +27797,7 @@
         <v>579</v>
       </c>
       <c r="Q299" s="5" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="V299" s="5" t="s">
         <v>531</v>
@@ -27829,7 +27838,7 @@
         <v>610</v>
       </c>
       <c r="I300" s="5" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="K300" s="5">
         <v>-31</v>
@@ -27850,7 +27859,7 @@
         <v>579</v>
       </c>
       <c r="Q300" s="5" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="V300" s="5" t="s">
         <v>531</v>
@@ -27891,7 +27900,7 @@
         <v>611</v>
       </c>
       <c r="I301" s="5" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="K301" s="5">
         <v>-31</v>
@@ -27912,7 +27921,7 @@
         <v>579</v>
       </c>
       <c r="Q301" s="5" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="V301" s="5" t="s">
         <v>531</v>
@@ -27953,7 +27962,7 @@
         <v>612</v>
       </c>
       <c r="I302" s="5" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="K302" s="5">
         <v>-31</v>
@@ -27974,7 +27983,7 @@
         <v>579</v>
       </c>
       <c r="Q302" s="5" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="V302" s="5" t="s">
         <v>531</v>
@@ -28015,7 +28024,7 @@
         <v>613</v>
       </c>
       <c r="I303" s="5" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="K303" s="5">
         <v>-31</v>
@@ -28036,7 +28045,7 @@
         <v>579</v>
       </c>
       <c r="Q303" s="5" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="V303" s="5" t="s">
         <v>531</v>
@@ -28077,7 +28086,7 @@
         <v>614</v>
       </c>
       <c r="I304" s="5" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="K304" s="5">
         <v>-31</v>
@@ -28098,7 +28107,7 @@
         <v>579</v>
       </c>
       <c r="Q304" s="5" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="V304" s="5" t="s">
         <v>531</v>
@@ -28139,7 +28148,7 @@
         <v>615</v>
       </c>
       <c r="I305" s="5" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="K305" s="5">
         <v>-31</v>
@@ -28160,7 +28169,7 @@
         <v>579</v>
       </c>
       <c r="Q305" s="5" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="V305" s="5" t="s">
         <v>531</v>
@@ -28201,7 +28210,7 @@
         <v>616</v>
       </c>
       <c r="I306" s="5" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="K306" s="5">
         <v>-31</v>
@@ -28222,7 +28231,7 @@
         <v>579</v>
       </c>
       <c r="Q306" s="5" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="V306" s="5" t="s">
         <v>531</v>
@@ -28263,7 +28272,7 @@
         <v>617</v>
       </c>
       <c r="I307" s="5" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="K307" s="5">
         <v>-31</v>
@@ -28284,7 +28293,7 @@
         <v>579</v>
       </c>
       <c r="Q307" s="5" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="V307" s="5" t="s">
         <v>531</v>
@@ -28325,7 +28334,7 @@
         <v>618</v>
       </c>
       <c r="I308" s="5" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="K308" s="5">
         <v>-31</v>
@@ -28346,7 +28355,7 @@
         <v>586</v>
       </c>
       <c r="Q308" s="5" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="V308" s="5" t="s">
         <v>531</v>
@@ -28387,7 +28396,7 @@
         <v>619</v>
       </c>
       <c r="I309" s="5" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="K309" s="5">
         <v>-31</v>
@@ -28408,7 +28417,7 @@
         <v>591</v>
       </c>
       <c r="Q309" s="5" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="V309" s="5" t="s">
         <v>531</v>
@@ -28446,10 +28455,10 @@
         <v>0</v>
       </c>
       <c r="G310" s="5" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="I310" s="5" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="K310" s="5">
         <v>-31</v>
@@ -28470,7 +28479,7 @@
         <v>592</v>
       </c>
       <c r="Q310" s="5" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="V310" s="5" t="s">
         <v>531</v>
@@ -28508,10 +28517,10 @@
         <v>0</v>
       </c>
       <c r="G311" s="5" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="I311" s="5" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="K311" s="5">
         <v>-31</v>
@@ -28532,7 +28541,7 @@
         <v>593</v>
       </c>
       <c r="Q311" s="5" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="V311" s="5" t="s">
         <v>531</v>
@@ -28570,10 +28579,10 @@
         <v>0</v>
       </c>
       <c r="G312" s="5" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="I312" s="5" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="K312" s="5">
         <v>-31</v>
@@ -28594,7 +28603,7 @@
         <v>593</v>
       </c>
       <c r="Q312" s="5" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="V312" s="5" t="s">
         <v>600</v>
@@ -28632,10 +28641,10 @@
         <v>0</v>
       </c>
       <c r="G313" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="I313" s="5" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="K313" s="5">
         <v>-31</v>
@@ -28656,7 +28665,7 @@
         <v>593</v>
       </c>
       <c r="Q313" s="5" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="V313" s="5" t="s">
         <v>601</v>
@@ -28694,10 +28703,10 @@
         <v>0</v>
       </c>
       <c r="G314" s="5" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="I314" s="5" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="K314" s="5">
         <v>-31</v>
@@ -28718,7 +28727,7 @@
         <v>592</v>
       </c>
       <c r="Q314" s="5" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="V314" s="5" t="s">
         <v>602</v>
@@ -28756,10 +28765,10 @@
         <v>0</v>
       </c>
       <c r="G315" s="5" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="I315" s="5" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="K315" s="5">
         <v>-31</v>
@@ -28780,7 +28789,7 @@
         <v>593</v>
       </c>
       <c r="Q315" s="5" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="V315" s="5" t="s">
         <v>603</v>
@@ -29007,7 +29016,7 @@
         <v>623</v>
       </c>
       <c r="I319" s="5" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="K319" s="5">
         <v>-23</v>
@@ -29028,7 +29037,7 @@
         <v>624</v>
       </c>
       <c r="Q319" s="5" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="V319" s="5" t="s">
         <v>530</v>
@@ -29060,10 +29069,10 @@
         <v>1</v>
       </c>
       <c r="G320" s="5" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="I320" s="5" t="s">
-        <v>942</v>
+        <v>1448</v>
       </c>
       <c r="K320" s="5">
         <v>-25</v>
@@ -29084,7 +29093,7 @@
         <v>625</v>
       </c>
       <c r="Q320" s="5" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="V320" s="5" t="s">
         <v>530</v>
@@ -29116,10 +29125,10 @@
         <v>1</v>
       </c>
       <c r="G321" s="5" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="I321" s="5" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="K321" s="5">
         <v>-23</v>
@@ -29140,7 +29149,7 @@
         <v>627</v>
       </c>
       <c r="Q321" s="5" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="V321" s="5" t="s">
         <v>528</v>
@@ -29178,7 +29187,7 @@
         <v>1</v>
       </c>
       <c r="G322" s="5" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="I322" s="5" t="s">
         <v>628</v>
@@ -29243,11 +29252,11 @@
         <v>1</v>
       </c>
       <c r="G323" s="19" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="H323" s="19"/>
       <c r="I323" s="19" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="J323" s="19"/>
       <c r="K323" s="19">
@@ -29266,10 +29275,10 @@
         <v>600</v>
       </c>
       <c r="P323" s="19" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="Q323" s="19" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="R323" s="19"/>
       <c r="S323" s="19"/>
@@ -29326,11 +29335,11 @@
         <v>1</v>
       </c>
       <c r="G324" s="19" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="H324" s="19"/>
       <c r="I324" s="19" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="J324" s="19"/>
       <c r="K324" s="19">
@@ -29349,10 +29358,10 @@
         <v>4800</v>
       </c>
       <c r="P324" s="19" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="Q324" s="19" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="R324" s="19"/>
       <c r="S324" s="19"/>
@@ -29409,11 +29418,11 @@
         <v>1</v>
       </c>
       <c r="G325" s="19" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="H325" s="19"/>
       <c r="I325" s="19" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="J325" s="19"/>
       <c r="K325" s="19">
@@ -29432,10 +29441,10 @@
         <v>9800</v>
       </c>
       <c r="P325" s="19" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="Q325" s="19" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="R325" s="19"/>
       <c r="S325" s="19"/>
@@ -29489,10 +29498,10 @@
         <v>1</v>
       </c>
       <c r="G326" s="41" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="I326" s="41" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="K326" s="41">
         <v>-4</v>
@@ -29504,13 +29513,13 @@
         <v>0</v>
       </c>
       <c r="N326" s="41" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="O326" s="41">
         <v>100</v>
       </c>
       <c r="V326" s="41" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="W326" s="41">
         <v>9999999</v>
@@ -29522,13 +29531,13 @@
         <v>2552233600</v>
       </c>
       <c r="AA326" s="41" t="s">
+        <v>1031</v>
+      </c>
+      <c r="AB326" s="41" t="s">
+        <v>1033</v>
+      </c>
+      <c r="AC326" s="42" t="s">
         <v>1034</v>
-      </c>
-      <c r="AB326" s="41" t="s">
-        <v>1036</v>
-      </c>
-      <c r="AC326" s="42" t="s">
-        <v>1037</v>
       </c>
       <c r="AG326" s="41">
         <v>1</v>
@@ -29548,10 +29557,10 @@
         <v>1</v>
       </c>
       <c r="G327" s="44" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="I327" s="44" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="K327" s="44">
         <v>-31</v>
@@ -29563,19 +29572,19 @@
         <v>0</v>
       </c>
       <c r="N327" s="44" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="O327" s="44">
         <v>9900</v>
       </c>
       <c r="P327" s="44" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="Q327" s="44" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="V327" s="44" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="W327" s="44">
         <v>99999999</v>
@@ -29613,11 +29622,11 @@
         <v>1</v>
       </c>
       <c r="G328" s="44" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="H328" s="44"/>
       <c r="I328" s="44" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="J328" s="44"/>
       <c r="K328" s="44">
@@ -29630,23 +29639,23 @@
         <v>0</v>
       </c>
       <c r="N328" s="44" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="O328" s="44">
         <v>600</v>
       </c>
       <c r="P328" s="44" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="Q328" s="44" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="R328" s="44"/>
       <c r="S328" s="44"/>
       <c r="T328" s="44"/>
       <c r="U328" s="44"/>
       <c r="V328" s="44" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="W328" s="44">
         <v>99999999</v>
@@ -29695,11 +29704,11 @@
         <v>1</v>
       </c>
       <c r="G329" s="44" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="H329" s="44"/>
       <c r="I329" s="44" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="J329" s="44"/>
       <c r="K329" s="44">
@@ -29712,23 +29721,23 @@
         <v>0</v>
       </c>
       <c r="N329" s="44" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="O329" s="44">
         <v>2800</v>
       </c>
       <c r="P329" s="44" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="Q329" s="44" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="R329" s="44"/>
       <c r="S329" s="44"/>
       <c r="T329" s="44"/>
       <c r="U329" s="44"/>
       <c r="V329" s="44" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="W329" s="44">
         <v>99999999</v>
@@ -29777,11 +29786,11 @@
         <v>1</v>
       </c>
       <c r="G330" s="44" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="H330" s="44"/>
       <c r="I330" s="44" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="J330" s="44"/>
       <c r="K330" s="44">
@@ -29794,23 +29803,23 @@
         <v>0</v>
       </c>
       <c r="N330" s="44" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="O330" s="44">
         <v>4800</v>
       </c>
       <c r="P330" s="44" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="Q330" s="44" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="R330" s="44"/>
       <c r="S330" s="44"/>
       <c r="T330" s="44"/>
       <c r="U330" s="44"/>
       <c r="V330" s="44" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="W330" s="44">
         <v>99999999</v>
@@ -29859,11 +29868,11 @@
         <v>1</v>
       </c>
       <c r="G331" s="44" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="H331" s="44"/>
       <c r="I331" s="44" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="J331" s="44"/>
       <c r="K331" s="44">
@@ -29876,23 +29885,23 @@
         <v>0</v>
       </c>
       <c r="N331" s="44" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="O331" s="44">
         <v>9900</v>
       </c>
       <c r="P331" s="44" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="Q331" s="44" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="R331" s="44"/>
       <c r="S331" s="44"/>
       <c r="T331" s="44"/>
       <c r="U331" s="44"/>
       <c r="V331" s="44" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="W331" s="44">
         <v>99999999</v>
@@ -29941,11 +29950,11 @@
         <v>1</v>
       </c>
       <c r="G332" s="44" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="H332" s="44"/>
       <c r="I332" s="44" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="J332" s="44"/>
       <c r="K332" s="44">
@@ -29958,23 +29967,23 @@
         <v>0</v>
       </c>
       <c r="N332" s="44" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="O332" s="44">
         <v>19800</v>
       </c>
       <c r="P332" s="44" t="s">
+        <v>1062</v>
+      </c>
+      <c r="Q332" s="44" t="s">
         <v>1065</v>
-      </c>
-      <c r="Q332" s="44" t="s">
-        <v>1068</v>
       </c>
       <c r="R332" s="44"/>
       <c r="S332" s="44"/>
       <c r="T332" s="44"/>
       <c r="U332" s="44"/>
       <c r="V332" s="44" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="W332" s="44">
         <v>99999999</v>
@@ -30023,11 +30032,11 @@
         <v>1</v>
       </c>
       <c r="G333" s="44" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="H333" s="44"/>
       <c r="I333" s="44" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="J333" s="44"/>
       <c r="K333" s="44">
@@ -30040,23 +30049,23 @@
         <v>0</v>
       </c>
       <c r="N333" s="44" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="O333" s="44">
         <v>29800</v>
       </c>
       <c r="P333" s="44" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="Q333" s="44" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="R333" s="44"/>
       <c r="S333" s="44"/>
       <c r="T333" s="44"/>
       <c r="U333" s="44"/>
       <c r="V333" s="44" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="W333" s="44">
         <v>99999999</v>
@@ -30105,11 +30114,11 @@
         <v>1</v>
       </c>
       <c r="G334" s="44" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="H334" s="44"/>
       <c r="I334" s="44" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="J334" s="44"/>
       <c r="K334" s="44">
@@ -30122,23 +30131,23 @@
         <v>0</v>
       </c>
       <c r="N334" s="44" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="O334" s="44">
         <v>39800</v>
       </c>
       <c r="P334" s="44" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="Q334" s="44" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="R334" s="44"/>
       <c r="S334" s="44"/>
       <c r="T334" s="44"/>
       <c r="U334" s="44"/>
       <c r="V334" s="44" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="W334" s="44">
         <v>99999999</v>
@@ -30187,11 +30196,11 @@
         <v>1</v>
       </c>
       <c r="G335" s="44" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="H335" s="44"/>
       <c r="I335" s="44" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="J335" s="44"/>
       <c r="K335" s="44">
@@ -30204,23 +30213,23 @@
         <v>0</v>
       </c>
       <c r="N335" s="44" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="O335" s="44">
         <v>49800</v>
       </c>
       <c r="P335" s="44" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="Q335" s="44" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="R335" s="44"/>
       <c r="S335" s="44"/>
       <c r="T335" s="44"/>
       <c r="U335" s="44"/>
       <c r="V335" s="44" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="W335" s="44">
         <v>99999999</v>
@@ -30269,11 +30278,11 @@
         <v>1</v>
       </c>
       <c r="G336" s="44" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="H336" s="44"/>
       <c r="I336" s="44" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="J336" s="44"/>
       <c r="K336" s="44">
@@ -30286,23 +30295,23 @@
         <v>0</v>
       </c>
       <c r="N336" s="44" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="O336" s="44">
         <v>59800</v>
       </c>
       <c r="P336" s="44" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="Q336" s="44" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="R336" s="44"/>
       <c r="S336" s="44"/>
       <c r="T336" s="44"/>
       <c r="U336" s="44"/>
       <c r="V336" s="44" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="W336" s="44">
         <v>99999999</v>
@@ -30351,11 +30360,11 @@
         <v>1</v>
       </c>
       <c r="G337" s="44" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="H337" s="44"/>
       <c r="I337" s="44" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="J337" s="44"/>
       <c r="K337" s="44">
@@ -30368,23 +30377,23 @@
         <v>0</v>
       </c>
       <c r="N337" s="44" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="O337" s="44">
         <v>69800</v>
       </c>
       <c r="P337" s="44" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="Q337" s="44" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="R337" s="44"/>
       <c r="S337" s="44"/>
       <c r="T337" s="44"/>
       <c r="U337" s="44"/>
       <c r="V337" s="44" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="W337" s="44">
         <v>99999999</v>
@@ -30430,10 +30439,10 @@
         <v>1</v>
       </c>
       <c r="G338" s="19" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="I338" s="19" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="K338" s="19">
         <v>-31</v>
@@ -30451,10 +30460,10 @@
         <v>19800</v>
       </c>
       <c r="P338" s="19" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="Q338" s="19" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="V338" s="19" t="s">
         <v>528</v>
@@ -30469,10 +30478,10 @@
         <v>2552233600</v>
       </c>
       <c r="AA338" s="19" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="AB338" s="19" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="AG338" s="19">
         <v>1</v>
@@ -30505,7 +30514,7 @@
       </c>
       <c r="H339" s="19"/>
       <c r="I339" s="19" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="J339" s="19"/>
       <c r="K339" s="19">
@@ -30524,10 +30533,10 @@
         <v>30000</v>
       </c>
       <c r="P339" s="19" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="Q339" s="19" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="R339" s="19"/>
       <c r="S339" s="19"/>
@@ -30547,10 +30556,10 @@
       </c>
       <c r="Z339" s="19"/>
       <c r="AA339" s="19" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="AB339" s="19" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="AC339" s="19"/>
       <c r="AD339" s="19"/>
@@ -30585,11 +30594,11 @@
         <v>1</v>
       </c>
       <c r="G340" s="19" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="H340" s="19"/>
       <c r="I340" s="19" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="J340" s="19"/>
       <c r="K340" s="19">
@@ -30608,10 +30617,10 @@
         <v>78000</v>
       </c>
       <c r="P340" s="19" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="Q340" s="19" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="R340" s="19"/>
       <c r="S340" s="19"/>
@@ -30631,10 +30640,10 @@
       </c>
       <c r="Z340" s="19"/>
       <c r="AA340" s="19" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="AB340" s="19" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="AC340" s="19"/>
       <c r="AD340" s="19"/>
@@ -30666,11 +30675,11 @@
         <v>1</v>
       </c>
       <c r="G341" s="6" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="H341" s="6"/>
       <c r="I341" s="5" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="K341" s="5">
         <v>-31</v>
@@ -30682,19 +30691,19 @@
         <v>0</v>
       </c>
       <c r="N341" s="5" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="O341" s="5">
         <v>600</v>
       </c>
       <c r="P341" s="5" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="Q341" s="10" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="V341" s="5" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="W341" s="5">
         <v>9999999</v>
@@ -30709,10 +30718,10 @@
         <v>26</v>
       </c>
       <c r="AA341" s="5" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="AB341" s="5" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="AG341" s="5">
         <v>1</v>
@@ -30738,10 +30747,10 @@
         <v>1</v>
       </c>
       <c r="G342" s="6" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="I342" s="5" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="K342" s="5">
         <v>-31</v>
@@ -30753,19 +30762,19 @@
         <v>0</v>
       </c>
       <c r="N342" s="5" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="O342" s="5">
         <v>600</v>
       </c>
       <c r="P342" s="5" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="Q342" s="10" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="V342" s="5" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="W342" s="5">
         <v>9999999</v>
@@ -30780,10 +30789,10 @@
         <v>27</v>
       </c>
       <c r="AA342" s="5" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="AB342" s="5" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="AG342" s="5">
         <v>1</v>
@@ -30809,10 +30818,10 @@
         <v>1</v>
       </c>
       <c r="G343" s="6" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="I343" s="5" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="K343" s="5">
         <v>-31</v>
@@ -30824,19 +30833,19 @@
         <v>0</v>
       </c>
       <c r="N343" s="5" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="O343" s="5">
         <v>600</v>
       </c>
       <c r="P343" s="5" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="Q343" s="10" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="V343" s="5" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="W343" s="5">
         <v>9999999</v>
@@ -30851,10 +30860,10 @@
         <v>28</v>
       </c>
       <c r="AA343" s="5" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="AB343" s="5" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="AG343" s="5">
         <v>1</v>
@@ -30880,10 +30889,10 @@
         <v>1</v>
       </c>
       <c r="G344" s="6" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="I344" s="5" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="K344" s="5">
         <v>-31</v>
@@ -30895,19 +30904,19 @@
         <v>0</v>
       </c>
       <c r="N344" s="5" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="O344" s="5">
         <v>4800</v>
       </c>
       <c r="P344" s="5" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="Q344" s="10" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="V344" s="5" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="W344" s="5">
         <v>9999999</v>
@@ -30922,10 +30931,10 @@
         <v>29</v>
       </c>
       <c r="AA344" s="5" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="AB344" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="AG344" s="5">
         <v>1</v>
@@ -30951,10 +30960,10 @@
         <v>1</v>
       </c>
       <c r="G345" s="6" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="I345" s="5" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="K345" s="5">
         <v>-31</v>
@@ -30966,19 +30975,19 @@
         <v>0</v>
       </c>
       <c r="N345" s="5" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="O345" s="5">
         <v>4800</v>
       </c>
       <c r="P345" s="5" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="Q345" s="10" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="V345" s="5" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="W345" s="5">
         <v>9999999</v>
@@ -30993,10 +31002,10 @@
         <v>30</v>
       </c>
       <c r="AA345" s="5" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="AB345" s="5" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="AG345" s="5">
         <v>1</v>
@@ -31022,10 +31031,10 @@
         <v>1</v>
       </c>
       <c r="G346" s="6" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="I346" s="5" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="K346" s="5">
         <v>-31</v>
@@ -31037,19 +31046,19 @@
         <v>0</v>
       </c>
       <c r="N346" s="5" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="O346" s="5">
         <v>4800</v>
       </c>
       <c r="P346" s="5" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="Q346" s="10" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="V346" s="5" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="W346" s="5">
         <v>9999999</v>
@@ -31064,10 +31073,10 @@
         <v>31</v>
       </c>
       <c r="AA346" s="5" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="AB346" s="5" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="AG346" s="5">
         <v>1</v>
@@ -31093,10 +31102,10 @@
         <v>1</v>
       </c>
       <c r="G347" s="6" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="I347" s="5" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="K347" s="5">
         <v>-31</v>
@@ -31108,19 +31117,19 @@
         <v>0</v>
       </c>
       <c r="N347" s="5" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="O347" s="5">
         <v>9800</v>
       </c>
       <c r="P347" s="5" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="Q347" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="V347" s="5" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="W347" s="5">
         <v>9999999</v>
@@ -31135,10 +31144,10 @@
         <v>32</v>
       </c>
       <c r="AA347" s="5" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="AB347" s="5" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="AG347" s="5">
         <v>1</v>
@@ -31164,10 +31173,10 @@
         <v>1</v>
       </c>
       <c r="G348" s="6" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="I348" s="5" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="K348" s="5">
         <v>-31</v>
@@ -31179,19 +31188,19 @@
         <v>0</v>
       </c>
       <c r="N348" s="5" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="O348" s="5">
         <v>9800</v>
       </c>
       <c r="P348" s="5" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="Q348" s="10" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="V348" s="5" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="W348" s="5">
         <v>9999999</v>
@@ -31206,10 +31215,10 @@
         <v>33</v>
       </c>
       <c r="AA348" s="5" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="AB348" s="5" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="AG348" s="5">
         <v>1</v>
@@ -31235,10 +31244,10 @@
         <v>1</v>
       </c>
       <c r="G349" s="6" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="I349" s="5" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="K349" s="5">
         <v>-31</v>
@@ -31256,13 +31265,13 @@
         <v>9800</v>
       </c>
       <c r="P349" s="5" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="Q349" s="10" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="V349" s="5" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="W349" s="5">
         <v>9999999</v>
@@ -31277,10 +31286,10 @@
         <v>34</v>
       </c>
       <c r="AA349" s="5" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="AB349" s="5" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="AG349" s="5">
         <v>1</v>
@@ -31306,10 +31315,10 @@
         <v>1</v>
       </c>
       <c r="G350" s="6" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="I350" s="5" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="K350" s="5">
         <v>-31</v>
@@ -31327,13 +31336,13 @@
         <v>19800</v>
       </c>
       <c r="P350" s="5" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="Q350" s="10" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="V350" s="5" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="W350" s="5">
         <v>9999999</v>
@@ -31351,7 +31360,7 @@
         <v>448</v>
       </c>
       <c r="AB350" s="5" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="AG350" s="5">
         <v>1</v>
@@ -31377,10 +31386,10 @@
         <v>1</v>
       </c>
       <c r="G351" s="6" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="I351" s="5" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="K351" s="5">
         <v>-31</v>
@@ -31392,19 +31401,19 @@
         <v>0</v>
       </c>
       <c r="N351" s="5" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="O351" s="5">
         <v>19800</v>
       </c>
       <c r="P351" s="5" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="Q351" s="10" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="V351" s="5" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="W351" s="5">
         <v>9999999</v>
@@ -31422,7 +31431,7 @@
         <v>448</v>
       </c>
       <c r="AB351" s="5" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="AG351" s="5">
         <v>1</v>
@@ -31448,10 +31457,10 @@
         <v>1</v>
       </c>
       <c r="G352" s="6" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="I352" s="5" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="K352" s="5">
         <v>-31</v>
@@ -31469,10 +31478,10 @@
         <v>19800</v>
       </c>
       <c r="P352" s="5" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="Q352" s="10" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="V352" s="5" t="s">
         <v>570</v>
@@ -31490,10 +31499,10 @@
         <v>37</v>
       </c>
       <c r="AA352" s="5" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="AB352" s="5" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="AG352" s="5">
         <v>1</v>
@@ -31519,13 +31528,13 @@
         <v>0</v>
       </c>
       <c r="G353" s="5" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="H353" s="5" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="I353" s="5" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="K353" s="5">
         <v>-31</v>
@@ -31543,13 +31552,13 @@
         <v>600</v>
       </c>
       <c r="P353" s="5" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="Q353" s="10" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="V353" s="5" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="W353" s="5">
         <v>9999999</v>
@@ -31587,13 +31596,13 @@
         <v>0</v>
       </c>
       <c r="G354" s="5" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="H354" s="5" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="I354" s="5" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="K354" s="5">
         <v>-31</v>
@@ -31605,19 +31614,19 @@
         <v>0</v>
       </c>
       <c r="N354" s="5" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="O354" s="5">
         <v>1200</v>
       </c>
       <c r="P354" s="5" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="Q354" s="10" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="V354" s="5" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="W354" s="5">
         <v>9999999</v>
@@ -31655,13 +31664,13 @@
         <v>0</v>
       </c>
       <c r="G355" s="5" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="H355" s="5" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="I355" s="5" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="K355" s="5">
         <v>-31</v>
@@ -31673,16 +31682,16 @@
         <v>0</v>
       </c>
       <c r="N355" s="5" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="O355" s="5">
         <v>1800</v>
       </c>
       <c r="P355" s="5" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="Q355" s="10" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="V355" s="5" t="s">
         <v>600</v>
@@ -31723,13 +31732,13 @@
         <v>0</v>
       </c>
       <c r="G356" s="5" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="H356" s="5" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="I356" s="5" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="K356" s="5">
         <v>-31</v>
@@ -31747,13 +31756,13 @@
         <v>4800</v>
       </c>
       <c r="P356" s="5" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="Q356" s="10" t="s">
         <v>274</v>
       </c>
       <c r="V356" s="5" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="W356" s="5">
         <v>9999999</v>
@@ -31791,13 +31800,13 @@
         <v>0</v>
       </c>
       <c r="G357" s="5" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="H357" s="5" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="I357" s="5" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="K357" s="5">
         <v>-31</v>
@@ -31809,19 +31818,19 @@
         <v>0</v>
       </c>
       <c r="N357" s="5" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="O357" s="5">
         <v>9800</v>
       </c>
       <c r="P357" s="5" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="Q357" s="10" t="s">
         <v>274</v>
       </c>
       <c r="V357" s="5" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="W357" s="5">
         <v>9999999</v>
@@ -31859,13 +31868,13 @@
         <v>0</v>
       </c>
       <c r="G358" s="5" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="H358" s="5" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="I358" s="5" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="K358" s="5">
         <v>-31</v>
@@ -31877,13 +31886,13 @@
         <v>0</v>
       </c>
       <c r="N358" s="5" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="O358" s="5">
         <v>19800</v>
       </c>
       <c r="P358" s="5" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="Q358" s="10" t="s">
         <v>274</v>
@@ -31927,13 +31936,13 @@
         <v>0</v>
       </c>
       <c r="G359" s="5" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="H359" s="5" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="I359" s="5" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="K359" s="5">
         <v>-31</v>
@@ -31945,19 +31954,19 @@
         <v>0</v>
       </c>
       <c r="N359" s="5" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="O359" s="5">
         <v>9800</v>
       </c>
       <c r="P359" s="5" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="Q359" s="10" t="s">
         <v>274</v>
       </c>
       <c r="V359" s="5" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="W359" s="5">
         <v>9999999</v>
@@ -31995,13 +32004,13 @@
         <v>0</v>
       </c>
       <c r="G360" s="5" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="H360" s="5" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="I360" s="5" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="K360" s="5">
         <v>-31</v>
@@ -32013,19 +32022,19 @@
         <v>0</v>
       </c>
       <c r="N360" s="5" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="O360" s="5">
         <v>19800</v>
       </c>
       <c r="P360" s="5" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="Q360" s="10" t="s">
         <v>274</v>
       </c>
       <c r="V360" s="5" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="W360" s="5">
         <v>9999999</v>
@@ -32063,13 +32072,13 @@
         <v>0</v>
       </c>
       <c r="G361" s="5" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="H361" s="5" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="I361" s="5" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="K361" s="5">
         <v>-31</v>
@@ -32081,19 +32090,19 @@
         <v>0</v>
       </c>
       <c r="N361" s="5" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="O361" s="5">
         <v>49800</v>
       </c>
       <c r="P361" s="5" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="Q361" s="10" t="s">
         <v>274</v>
       </c>
       <c r="V361" s="5" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="W361" s="5">
         <v>9999999</v>
@@ -32131,13 +32140,13 @@
         <v>0</v>
       </c>
       <c r="G362" s="5" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="H362" s="5" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="I362" s="5" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="K362" s="5">
         <v>-31</v>
@@ -32155,10 +32164,10 @@
         <v>1800</v>
       </c>
       <c r="P362" s="5" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="Q362" s="10" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="V362" s="5" t="s">
         <v>570</v>
@@ -32176,10 +32185,10 @@
         <v>38</v>
       </c>
       <c r="AA362" s="5" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="AB362" s="5" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="AG362" s="5">
         <v>1</v>
@@ -32205,13 +32214,13 @@
         <v>0</v>
       </c>
       <c r="G363" s="5" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="H363" s="5" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="I363" s="5" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="K363" s="5">
         <v>-31</v>
@@ -32223,19 +32232,19 @@
         <v>0</v>
       </c>
       <c r="N363" s="5" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="O363" s="5">
         <v>19800</v>
       </c>
       <c r="P363" s="5" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="Q363" s="10" t="s">
         <v>274</v>
       </c>
       <c r="V363" s="5" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="W363" s="5">
         <v>9999999</v>
@@ -32250,10 +32259,10 @@
         <v>39</v>
       </c>
       <c r="AA363" s="5" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="AB363" s="5" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="AG363" s="5">
         <v>1</v>
@@ -32279,13 +32288,13 @@
         <v>0</v>
       </c>
       <c r="G364" s="5" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="H364" s="5" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="I364" s="5" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="K364" s="5">
         <v>-31</v>
@@ -32297,19 +32306,19 @@
         <v>0</v>
       </c>
       <c r="N364" s="5" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="O364" s="5">
         <v>49800</v>
       </c>
       <c r="P364" s="5" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="Q364" s="10" t="s">
         <v>274</v>
       </c>
       <c r="V364" s="5" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="W364" s="5">
         <v>9999999</v>
@@ -32324,10 +32333,10 @@
         <v>40</v>
       </c>
       <c r="AA364" s="5" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="AB364" s="5" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="AG364" s="5">
         <v>1</v>
@@ -32353,10 +32362,10 @@
         <v>1</v>
       </c>
       <c r="G365" s="5" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="I365" s="5" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="K365" s="5">
         <v>-31</v>
@@ -32368,16 +32377,16 @@
         <v>0</v>
       </c>
       <c r="N365" s="5" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="O365" s="5">
         <v>131400</v>
       </c>
       <c r="P365" s="5" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="Q365" s="10" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="V365" s="5" t="s">
         <v>570</v>
@@ -32418,10 +32427,10 @@
         <v>1</v>
       </c>
       <c r="G366" s="5" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="I366" s="5" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="K366" s="5">
         <v>-31</v>
@@ -32433,16 +32442,16 @@
         <v>0</v>
       </c>
       <c r="N366" s="5" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="O366" s="5">
         <v>52000</v>
       </c>
       <c r="P366" s="5" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="Q366" s="10" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="V366" s="5" t="s">
         <v>570</v>
@@ -32483,10 +32492,10 @@
         <v>1</v>
       </c>
       <c r="G367" s="5" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="I367" s="5" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="K367" s="5">
         <v>-31</v>
@@ -32498,19 +32507,19 @@
         <v>0</v>
       </c>
       <c r="N367" s="5" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="O367" s="5">
         <v>25800</v>
       </c>
       <c r="P367" s="5" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="Q367" s="10" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="V367" s="5" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="W367" s="5">
         <v>9999999</v>
@@ -32548,10 +32557,10 @@
         <v>1</v>
       </c>
       <c r="G368" s="5" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="I368" s="5" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="K368" s="5">
         <v>-31</v>
@@ -32563,16 +32572,16 @@
         <v>0</v>
       </c>
       <c r="N368" s="5" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="O368" s="5">
         <v>14700</v>
       </c>
       <c r="P368" s="5" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="Q368" s="10" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="V368" s="5" t="s">
         <v>570</v>
@@ -32613,10 +32622,10 @@
         <v>1</v>
       </c>
       <c r="G369" s="5" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="I369" s="5" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="K369" s="5">
         <v>-31</v>
@@ -32634,13 +32643,13 @@
         <v>5200</v>
       </c>
       <c r="P369" s="5" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="Q369" s="10" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="V369" s="5" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="W369" s="5">
         <v>9999999</v>
@@ -32678,10 +32687,10 @@
         <v>1</v>
       </c>
       <c r="G370" s="5" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="I370" s="5" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="K370" s="5">
         <v>-31</v>
@@ -32699,10 +32708,10 @@
         <v>1800</v>
       </c>
       <c r="P370" s="5" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="Q370" s="10" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="V370" s="5" t="s">
         <v>570</v>
@@ -32740,10 +32749,10 @@
         <v>1</v>
       </c>
       <c r="G371" s="5" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="I371" s="5" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="K371" s="5">
         <v>-31</v>
@@ -32761,10 +32770,10 @@
         <v>4800</v>
       </c>
       <c r="P371" s="5" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="Q371" s="10" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="V371" s="5" t="s">
         <v>601</v>
@@ -32802,10 +32811,10 @@
         <v>1</v>
       </c>
       <c r="G372" s="5" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="I372" s="5" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="K372" s="5">
         <v>-31</v>
@@ -32823,10 +32832,10 @@
         <v>9800</v>
       </c>
       <c r="P372" s="5" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="Q372" s="10" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="V372" s="5" t="s">
         <v>539</v>
@@ -32864,10 +32873,10 @@
         <v>1</v>
       </c>
       <c r="G373" s="5" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="I373" s="5" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="K373" s="5">
         <v>-31</v>
@@ -32885,13 +32894,13 @@
         <v>19800</v>
       </c>
       <c r="P373" s="5" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="Q373" s="10" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="V373" s="5" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="W373" s="5">
         <v>9999999</v>
@@ -32926,13 +32935,13 @@
         <v>1</v>
       </c>
       <c r="G374" s="5" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="H374" s="5" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="I374" s="5" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="K374" s="5">
         <v>-31</v>
@@ -32944,7 +32953,7 @@
         <v>0</v>
       </c>
       <c r="N374" s="5" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="O374" s="5">
         <v>300</v>
@@ -32953,7 +32962,7 @@
         <v>527</v>
       </c>
       <c r="Q374" s="10" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="V374" s="5" t="s">
         <v>570</v>
@@ -32994,13 +33003,13 @@
         <v>1</v>
       </c>
       <c r="G375" s="5" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="H375" s="5" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="I375" s="5" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="K375" s="5">
         <v>-31</v>
@@ -33012,19 +33021,19 @@
         <v>0</v>
       </c>
       <c r="N375" s="5" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="O375" s="5">
         <v>300</v>
       </c>
       <c r="P375" s="5" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="Q375" s="10" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="V375" s="5" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="W375" s="5">
         <v>9999999</v>
@@ -33062,13 +33071,13 @@
         <v>1</v>
       </c>
       <c r="G376" s="5" t="s">
+        <v>1376</v>
+      </c>
+      <c r="H376" s="5" t="s">
+        <v>1378</v>
+      </c>
+      <c r="I376" s="5" t="s">
         <v>1379</v>
-      </c>
-      <c r="H376" s="5" t="s">
-        <v>1381</v>
-      </c>
-      <c r="I376" s="5" t="s">
-        <v>1382</v>
       </c>
       <c r="K376" s="5">
         <v>-31</v>
@@ -33080,19 +33089,19 @@
         <v>0</v>
       </c>
       <c r="N376" s="5" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="O376" s="5">
         <v>0</v>
       </c>
       <c r="P376" s="5" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="Q376" s="10" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="V376" s="5" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="W376" s="5">
         <v>9999999</v>
@@ -33130,13 +33139,13 @@
         <v>1</v>
       </c>
       <c r="G377" s="5" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="H377" s="5" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="I377" s="5" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="K377" s="5">
         <v>-31</v>
@@ -33148,19 +33157,19 @@
         <v>0</v>
       </c>
       <c r="N377" s="5" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="O377" s="5">
         <v>300</v>
       </c>
       <c r="P377" s="5" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="Q377" s="10" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="V377" s="5" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="W377" s="5">
         <v>9999999</v>
@@ -33198,13 +33207,13 @@
         <v>1</v>
       </c>
       <c r="G378" s="5" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="H378" s="5" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="I378" s="5" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="K378" s="5">
         <v>-31</v>
@@ -33222,13 +33231,13 @@
         <v>600</v>
       </c>
       <c r="P378" s="5" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="Q378" s="10" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V378" s="5" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="W378" s="5">
         <v>9999999</v>
@@ -33266,13 +33275,13 @@
         <v>1</v>
       </c>
       <c r="G379" s="5" t="s">
+        <v>1375</v>
+      </c>
+      <c r="H379" s="5" t="s">
         <v>1378</v>
       </c>
-      <c r="H379" s="5" t="s">
-        <v>1381</v>
-      </c>
       <c r="I379" s="5" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="K379" s="5">
         <v>-31</v>
@@ -33284,19 +33293,19 @@
         <v>0</v>
       </c>
       <c r="N379" s="5" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="O379" s="5">
         <v>1800</v>
       </c>
       <c r="P379" s="5" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="Q379" s="10" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="V379" s="5" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="W379" s="5">
         <v>9999999</v>
@@ -33334,13 +33343,13 @@
         <v>1</v>
       </c>
       <c r="G380" s="5" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="H380" s="5" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="I380" s="5" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="K380" s="5">
         <v>-31</v>
@@ -33352,19 +33361,19 @@
         <v>0</v>
       </c>
       <c r="N380" s="5" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="O380" s="5">
         <v>4800</v>
       </c>
       <c r="P380" s="5" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="Q380" s="10" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="V380" s="5" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="W380" s="5">
         <v>9999999</v>
@@ -33402,13 +33411,13 @@
         <v>1</v>
       </c>
       <c r="G381" s="5" t="s">
+        <v>1376</v>
+      </c>
+      <c r="H381" s="5" t="s">
+        <v>1390</v>
+      </c>
+      <c r="I381" s="5" t="s">
         <v>1379</v>
-      </c>
-      <c r="H381" s="5" t="s">
-        <v>1393</v>
-      </c>
-      <c r="I381" s="5" t="s">
-        <v>1382</v>
       </c>
       <c r="K381" s="5">
         <v>-31</v>
@@ -33426,10 +33435,10 @@
         <v>0</v>
       </c>
       <c r="P381" s="5" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="Q381" s="10" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="V381" s="5" t="s">
         <v>572</v>
@@ -33470,13 +33479,13 @@
         <v>1</v>
       </c>
       <c r="G382" s="5" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="H382" s="5" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="I382" s="5" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="K382" s="5">
         <v>-31</v>
@@ -33494,13 +33503,13 @@
         <v>1800</v>
       </c>
       <c r="P382" s="5" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="Q382" s="10" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="V382" s="5" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="W382" s="5">
         <v>9999999</v>
@@ -33538,13 +33547,13 @@
         <v>1</v>
       </c>
       <c r="G383" s="5" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="H383" s="5" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="I383" s="5" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="K383" s="5">
         <v>-31</v>
@@ -33562,10 +33571,10 @@
         <v>4800</v>
       </c>
       <c r="P383" s="5" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="Q383" s="10" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="V383" s="5" t="s">
         <v>538</v>
@@ -33606,13 +33615,13 @@
         <v>1</v>
       </c>
       <c r="G384" s="5" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="H384" s="5" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="I384" s="5" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="K384" s="5">
         <v>-31</v>
@@ -33624,16 +33633,16 @@
         <v>0</v>
       </c>
       <c r="N384" s="5" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="O384" s="5">
         <v>9800</v>
       </c>
       <c r="P384" s="5" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="Q384" s="10" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="V384" s="5" t="s">
         <v>539</v>
@@ -33674,13 +33683,13 @@
         <v>1</v>
       </c>
       <c r="G385" s="5" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="H385" s="5" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="I385" s="5" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="K385" s="5">
         <v>-31</v>
@@ -33692,19 +33701,19 @@
         <v>0</v>
       </c>
       <c r="N385" s="5" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="O385" s="5">
         <v>19800</v>
       </c>
       <c r="P385" s="5" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="Q385" s="10" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="V385" s="5" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="W385" s="5">
         <v>9999999</v>
@@ -33742,13 +33751,13 @@
         <v>1</v>
       </c>
       <c r="G386" s="48" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="H386" s="48" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="I386" s="48" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="K386" s="48">
         <v>-31</v>
@@ -33766,10 +33775,10 @@
         <v>1800</v>
       </c>
       <c r="P386" s="48" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="Q386" s="49" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="V386" s="48" t="s">
         <v>538</v>
@@ -33810,13 +33819,13 @@
         <v>1</v>
       </c>
       <c r="G387" s="48" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="H387" s="48" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="I387" s="48" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="K387" s="48">
         <v>-31</v>
@@ -33828,16 +33837,16 @@
         <v>0</v>
       </c>
       <c r="N387" s="48" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="O387" s="48">
         <v>3000</v>
       </c>
       <c r="P387" s="48" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="Q387" s="49" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="V387" s="48" t="s">
         <v>538</v>
@@ -33878,13 +33887,13 @@
         <v>1</v>
       </c>
       <c r="G388" s="48" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="H388" s="48" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="I388" s="48" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="K388" s="48">
         <v>-31</v>
@@ -33896,19 +33905,19 @@
         <v>0</v>
       </c>
       <c r="N388" s="48" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="O388" s="48">
         <v>4800</v>
       </c>
       <c r="P388" s="48" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="Q388" s="49" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="V388" s="48" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="W388" s="48">
         <v>9999999</v>
@@ -33946,13 +33955,13 @@
         <v>1</v>
       </c>
       <c r="G389" s="48" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="H389" s="48" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="I389" s="48" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="K389" s="48">
         <v>-31</v>
@@ -33964,16 +33973,16 @@
         <v>0</v>
       </c>
       <c r="N389" s="48" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="O389" s="48">
         <v>4800</v>
       </c>
       <c r="P389" s="48" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="Q389" s="49" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="V389" s="48" t="s">
         <v>538</v>
@@ -34014,13 +34023,13 @@
         <v>1</v>
       </c>
       <c r="G390" s="48" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="H390" s="48" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="I390" s="48" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="K390" s="48">
         <v>-31</v>
@@ -34038,10 +34047,10 @@
         <v>9800</v>
       </c>
       <c r="P390" s="48" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="Q390" s="49" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="V390" s="48" t="s">
         <v>538</v>
@@ -34082,13 +34091,13 @@
         <v>1</v>
       </c>
       <c r="G391" s="48" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="H391" s="48" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="I391" s="48" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="K391" s="48">
         <v>-31</v>
@@ -34106,10 +34115,10 @@
         <v>19800</v>
       </c>
       <c r="P391" s="48" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="Q391" s="49" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="V391" s="48" t="s">
         <v>538</v>
@@ -34150,13 +34159,13 @@
         <v>1</v>
       </c>
       <c r="G392" s="48" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="H392" s="48" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="I392" s="48" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="K392" s="48">
         <v>-31</v>
@@ -34174,10 +34183,10 @@
         <v>9800</v>
       </c>
       <c r="P392" s="48" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="Q392" s="49" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="V392" s="48" t="s">
         <v>538</v>
@@ -34218,13 +34227,13 @@
         <v>1</v>
       </c>
       <c r="G393" s="48" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="H393" s="48" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="I393" s="48" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="K393" s="48">
         <v>-31</v>
@@ -34242,10 +34251,10 @@
         <v>19800</v>
       </c>
       <c r="P393" s="48" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="Q393" s="49" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="V393" s="48" t="s">
         <v>538</v>
@@ -34286,13 +34295,13 @@
         <v>1</v>
       </c>
       <c r="G394" s="48" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="H394" s="48" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="I394" s="48" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="K394" s="48">
         <v>-31</v>
@@ -34304,16 +34313,16 @@
         <v>0</v>
       </c>
       <c r="N394" s="48" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="O394" s="48">
         <v>49800</v>
       </c>
       <c r="P394" s="48" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="Q394" s="49" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="V394" s="48" t="s">
         <v>538</v>
@@ -34355,7 +34364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
@@ -34371,7 +34380,7 @@
         <v>392</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>393</v>
@@ -34388,7 +34397,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -34405,7 +34414,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -34419,7 +34428,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -34433,7 +34442,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -34559,7 +34568,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -34587,7 +34596,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -34741,7 +34750,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="C27" s="12">
         <v>1</v>
@@ -34755,7 +34764,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="C28" s="12">
         <v>1</v>
@@ -34769,7 +34778,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="C29" s="12">
         <v>1</v>
@@ -34783,7 +34792,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="C30" s="12">
         <v>1</v>
@@ -34797,7 +34806,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="C31" s="12">
         <v>1</v>
@@ -34811,7 +34820,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="C32" s="12">
         <v>1</v>
@@ -34825,7 +34834,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="C33" s="12">
         <v>1</v>
@@ -34839,7 +34848,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="C34" s="12">
         <v>1</v>
@@ -34853,7 +34862,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="C35" s="12">
         <v>1</v>
@@ -34867,7 +34876,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="C36" s="12">
         <v>1</v>
@@ -34881,7 +34890,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="C37" s="12">
         <v>1</v>
@@ -34895,7 +34904,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="C38" s="12">
         <v>1</v>
@@ -34909,7 +34918,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="C39" s="12">
         <v>1</v>
@@ -34923,7 +34932,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="C40" s="12">
         <v>1</v>
@@ -34937,7 +34946,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="C41" s="12">
         <v>1</v>
@@ -34951,7 +34960,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="C42" s="12">
         <v>1</v>
@@ -34965,7 +34974,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="C43" s="12">
         <v>1</v>
@@ -34979,7 +34988,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="C44" s="12">
         <v>1</v>
@@ -34993,7 +35002,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="51" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="C45" s="50">
         <v>1</v>
@@ -35007,7 +35016,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="51" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="C46" s="50">
         <v>1</v>
@@ -35021,7 +35030,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="51" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="C47" s="50">
         <v>1</v>
@@ -35093,10 +35102,10 @@
         <v>406</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>22</v>
@@ -35153,7 +35162,7 @@
         <v>42</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -35197,16 +35206,16 @@
         <v>3</v>
       </c>
       <c r="P2" s="34" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="R2" s="34" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="S2" s="11" t="s">
         <v>49</v>
       </c>
       <c r="T2" s="34" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="U2" s="11" t="s">
         <v>409</v>
@@ -35262,16 +35271,16 @@
         <v>4</v>
       </c>
       <c r="P3" s="34" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="R3" s="34" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="S3" s="11" t="s">
         <v>51</v>
       </c>
       <c r="T3" s="34" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="U3" s="11" t="s">
         <v>409</v>
@@ -35327,10 +35336,10 @@
         <v>5</v>
       </c>
       <c r="P4" s="34" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="R4" s="34" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="S4" s="11" t="s">
         <v>52</v>
@@ -35392,16 +35401,16 @@
         <v>6</v>
       </c>
       <c r="P5" s="34" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="R5" s="34" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="S5" s="11" t="s">
         <v>53</v>
       </c>
       <c r="T5" s="34" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="U5" s="11" t="s">
         <v>409</v>
@@ -35457,10 +35466,10 @@
         <v>7</v>
       </c>
       <c r="P6" s="34" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="R6" s="34" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="S6" s="11" t="s">
         <v>54</v>
@@ -35522,10 +35531,10 @@
         <v>9</v>
       </c>
       <c r="P7" s="34" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="R7" s="34" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="S7" s="11" t="s">
         <v>55</v>
@@ -35584,16 +35593,16 @@
         <v>0</v>
       </c>
       <c r="P8" s="34" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="R8" s="34" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="S8" s="11" t="s">
         <v>49</v>
       </c>
       <c r="T8" s="34" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="U8" s="11" t="s">
         <v>409</v>
@@ -35648,7 +35657,7 @@
         <v>2</v>
       </c>
       <c r="P9" s="36" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="Q9" s="35"/>
       <c r="R9" s="35"/>
@@ -35672,7 +35681,7 @@
       <c r="Z9" s="35"/>
       <c r="AA9" s="35"/>
       <c r="AB9" s="36" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -35718,7 +35727,7 @@
         <v>1</v>
       </c>
       <c r="P10" s="36" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="Q10" s="35"/>
       <c r="R10" s="35"/>
@@ -35742,7 +35751,7 @@
       <c r="Z10" s="35"/>
       <c r="AA10" s="35"/>
       <c r="AB10" s="36" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="11" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -35786,10 +35795,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="34" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="R11" s="34" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="S11" s="23" t="s">
         <v>51</v>
@@ -35815,7 +35824,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="D12" s="11">
         <v>109</v>
@@ -35851,10 +35860,10 @@
         <v>9</v>
       </c>
       <c r="P12" s="34" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="R12" s="34" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="S12" s="11" t="s">
         <v>56</v>
@@ -35916,10 +35925,10 @@
         <v>10</v>
       </c>
       <c r="P13" s="34" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="R13" s="34" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="S13" s="11" t="s">
         <v>411</v>
@@ -35981,10 +35990,10 @@
         <v>11</v>
       </c>
       <c r="P14" s="34" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="R14" s="34" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="S14" s="11" t="s">
         <v>412</v>
@@ -36017,7 +36026,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="G15" s="35">
         <v>100</v>
@@ -36047,7 +36056,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="36" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="Q15" s="35"/>
       <c r="R15" s="36"/>
@@ -36055,7 +36064,7 @@
         <v>100</v>
       </c>
       <c r="T15" s="36" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="U15" s="35" t="s">
         <v>409</v>
@@ -36071,7 +36080,7 @@
       <c r="Z15" s="35"/>
       <c r="AA15" s="35"/>
       <c r="AB15" s="36" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="16" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -36118,17 +36127,17 @@
         <v>3</v>
       </c>
       <c r="P16" s="34" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="Q16" s="12"/>
       <c r="R16" s="34" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="S16" s="11" t="s">
         <v>63</v>
       </c>
       <c r="T16" s="34" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="U16" s="11" t="s">
         <v>409</v>
@@ -36183,11 +36192,11 @@
         <v>4</v>
       </c>
       <c r="P17" s="34" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="Q17" s="12"/>
       <c r="R17" s="34" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="S17" s="11" t="s">
         <v>66</v>
@@ -36248,11 +36257,11 @@
         <v>5</v>
       </c>
       <c r="P18" s="34" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="Q18" s="12"/>
       <c r="R18" s="34" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="S18" s="11" t="s">
         <v>69</v>
@@ -36313,11 +36322,11 @@
         <v>6</v>
       </c>
       <c r="P19" s="34" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="Q19" s="12"/>
       <c r="R19" s="34" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="S19" s="11" t="s">
         <v>73</v>
@@ -36378,10 +36387,10 @@
         <v>7</v>
       </c>
       <c r="P20" s="34" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="R20" s="34" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="S20" s="11" t="s">
         <v>77</v>
@@ -36442,11 +36451,11 @@
         <v>0</v>
       </c>
       <c r="P21" s="34" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="Q21" s="11"/>
       <c r="R21" s="34" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="S21" s="11" t="s">
         <v>79</v>
@@ -36512,7 +36521,7 @@
         <v>2</v>
       </c>
       <c r="P22" s="36" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="Q22" s="35"/>
       <c r="R22" s="36"/>
@@ -36520,7 +36529,7 @@
         <v>5000</v>
       </c>
       <c r="T22" s="36" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="U22" s="35" t="s">
         <v>409</v>
@@ -36580,7 +36589,7 @@
         <v>1</v>
       </c>
       <c r="P23" s="36" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="Q23" s="35"/>
       <c r="R23" s="36"/>
@@ -36650,7 +36659,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="36" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="Q24" s="35"/>
       <c r="R24" s="36"/>
@@ -36658,7 +36667,7 @@
         <v>100</v>
       </c>
       <c r="T24" s="36" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="U24" s="35" t="s">
         <v>409</v>
@@ -36674,7 +36683,7 @@
       <c r="Z24" s="35"/>
       <c r="AA24" s="35"/>
       <c r="AB24" s="36" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="25" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -36694,7 +36703,7 @@
         <v>111</v>
       </c>
       <c r="F25" s="34" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="G25" s="11">
         <v>19800</v>
@@ -36721,10 +36730,10 @@
         <v>8</v>
       </c>
       <c r="P25" s="34" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="R25" s="34" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="S25" s="34" t="s">
         <v>525</v>
@@ -37182,7 +37191,7 @@
         <v>80</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="L8" s="12">
         <v>57</v>
@@ -37200,7 +37209,7 @@
         <v>438</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="S8" s="12" t="s">
         <v>423</v>
@@ -37375,7 +37384,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>473</v>
@@ -37422,7 +37431,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>473</v>
@@ -37469,7 +37478,7 @@
         <v>21</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>477</v>

--- a/config_vivo/shoping_config_vivo.xlsx
+++ b/config_vivo/shoping_config_vivo.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3339" uniqueCount="1451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3339" uniqueCount="1453">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -2341,10 +2341,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","prop_web_chip_huafei",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"jing_bi",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2804,10 +2800,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>600000,20,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>1200000,3,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2816,10 +2808,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>4800000,200,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>10600000,6,1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -3240,10 +3228,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>{108888,200000,7,200001,300000,3},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>{208888,300000,7,300001,350000,3},</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -3252,14 +3236,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>{300000,400000,95,400000,500000,5},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000,1200000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>200000,2400000</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -3382,9 +3358,6 @@
   </si>
   <si>
     <t>随机金币活动</t>
-  </si>
-  <si>
-    <t>"60万金币","10万-120万随机金币","话费碎片*20"</t>
   </si>
   <si>
     <t>"120万金币","20万-240万随机金币","记牌器3天"</t>
@@ -4286,14 +4259,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"10万金币","5福利券","锁定*1"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000,5,1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>prop_3d_fish_summon_fish</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6618,6 +6583,50 @@
   </si>
   <si>
     <t>4800000,5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10万金币","5福利券","锁定*1"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,5,1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万金币","10万-120万随机金币","话费碎片*20"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_web_chip_huafei",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{108888,200000,7,200001,300000,3},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,1200000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_web_chip_huafei",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,200,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{300000,400000,95,400000,500000,5},</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -7261,7 +7270,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -7288,10 +7297,10 @@
         <v>10</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H2" s="12">
         <v>0</v>
@@ -7318,10 +7327,10 @@
         <v>12</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H3" s="12">
         <v>1</v>
@@ -7348,10 +7357,10 @@
         <v>14</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H4" s="12">
         <v>0</v>
@@ -7450,7 +7459,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1107</v>
+        <v>1098</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -7501,7 +7510,7 @@
         <v>30</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>1128</v>
+        <v>1119</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>31</v>
@@ -7565,7 +7574,7 @@
         <v>45</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>1108</v>
+        <v>1099</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>46</v>
@@ -7595,23 +7604,23 @@
         <v>1</v>
       </c>
       <c r="T2" s="34" t="s">
-        <v>1129</v>
+        <v>1120</v>
       </c>
       <c r="U2" s="34" t="s">
-        <v>1109</v>
+        <v>1100</v>
       </c>
       <c r="V2" s="11"/>
       <c r="W2" s="34" t="s">
-        <v>1130</v>
+        <v>1121</v>
       </c>
       <c r="X2" s="11" t="s">
         <v>49</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>1131</v>
+        <v>1122</v>
       </c>
       <c r="AC2" s="11">
         <v>1</v>
@@ -7647,7 +7656,7 @@
         <v>45</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>1110</v>
+        <v>1101</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>46</v>
@@ -7677,20 +7686,20 @@
         <v>2</v>
       </c>
       <c r="T3" s="34" t="s">
-        <v>1132</v>
+        <v>1123</v>
       </c>
       <c r="U3" s="34" t="s">
-        <v>1111</v>
+        <v>1102</v>
       </c>
       <c r="V3" s="11"/>
       <c r="W3" s="34" t="s">
-        <v>1130</v>
+        <v>1121</v>
       </c>
       <c r="X3" s="11" t="s">
         <v>51</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="Z3" s="2" t="s">
         <v>50</v>
@@ -7729,7 +7738,7 @@
         <v>45</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>1112</v>
+        <v>1103</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>46</v>
@@ -7759,20 +7768,20 @@
         <v>3</v>
       </c>
       <c r="T4" s="34" t="s">
-        <v>1133</v>
+        <v>1124</v>
       </c>
       <c r="U4" s="34" t="s">
-        <v>1134</v>
+        <v>1125</v>
       </c>
       <c r="V4" s="11"/>
       <c r="W4" s="34" t="s">
-        <v>1130</v>
+        <v>1121</v>
       </c>
       <c r="X4" s="11" t="s">
         <v>52</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="Z4" s="2" t="s">
         <v>50</v>
@@ -7811,7 +7820,7 @@
         <v>45</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>1113</v>
+        <v>1104</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>46</v>
@@ -7841,20 +7850,20 @@
         <v>4</v>
       </c>
       <c r="T5" s="34" t="s">
-        <v>1114</v>
+        <v>1105</v>
       </c>
       <c r="U5" s="34" t="s">
-        <v>1135</v>
+        <v>1126</v>
       </c>
       <c r="V5" s="11"/>
       <c r="W5" s="34" t="s">
-        <v>1130</v>
+        <v>1121</v>
       </c>
       <c r="X5" s="11" t="s">
         <v>53</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="Z5" s="2" t="s">
         <v>50</v>
@@ -7893,7 +7902,7 @@
         <v>45</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>1115</v>
+        <v>1106</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>46</v>
@@ -7923,20 +7932,20 @@
         <v>5</v>
       </c>
       <c r="T6" s="34" t="s">
-        <v>1136</v>
+        <v>1127</v>
       </c>
       <c r="U6" s="34" t="s">
-        <v>1136</v>
+        <v>1127</v>
       </c>
       <c r="V6" s="11"/>
       <c r="W6" s="34" t="s">
-        <v>1130</v>
+        <v>1121</v>
       </c>
       <c r="X6" s="11" t="s">
         <v>54</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="Z6" s="2" t="s">
         <v>50</v>
@@ -7975,7 +7984,7 @@
         <v>45</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>1116</v>
+        <v>1107</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>46</v>
@@ -8005,20 +8014,20 @@
         <v>7</v>
       </c>
       <c r="T7" s="34" t="s">
-        <v>1117</v>
+        <v>1108</v>
       </c>
       <c r="U7" s="34" t="s">
-        <v>1137</v>
+        <v>1128</v>
       </c>
       <c r="V7" s="11"/>
       <c r="W7" s="34" t="s">
-        <v>1130</v>
+        <v>1121</v>
       </c>
       <c r="X7" s="11" t="s">
         <v>55</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="Z7" s="2" t="s">
         <v>50</v>
@@ -8057,7 +8066,7 @@
         <v>45</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>1118</v>
+        <v>1109</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>46</v>
@@ -8087,20 +8096,20 @@
         <v>8</v>
       </c>
       <c r="T8" s="34" t="s">
-        <v>1138</v>
+        <v>1129</v>
       </c>
       <c r="U8" s="34" t="s">
-        <v>1139</v>
+        <v>1130</v>
       </c>
       <c r="V8" s="11"/>
       <c r="W8" s="34" t="s">
-        <v>1130</v>
+        <v>1121</v>
       </c>
       <c r="X8" s="11" t="s">
         <v>56</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="Z8" s="2" t="s">
         <v>50</v>
@@ -8139,7 +8148,7 @@
         <v>45</v>
       </c>
       <c r="J9" s="34" t="s">
-        <v>1126</v>
+        <v>1117</v>
       </c>
       <c r="K9" s="11" t="s">
         <v>46</v>
@@ -8169,19 +8178,19 @@
         <v>9</v>
       </c>
       <c r="T9" s="34" t="s">
-        <v>1140</v>
+        <v>1131</v>
       </c>
       <c r="U9" s="34" t="s">
-        <v>1140</v>
+        <v>1131</v>
       </c>
       <c r="W9" s="34" t="s">
-        <v>1141</v>
+        <v>1132</v>
       </c>
       <c r="X9" s="11" t="s">
         <v>57</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="Z9" s="2" t="s">
         <v>50</v>
@@ -8220,7 +8229,7 @@
         <v>45</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>1142</v>
+        <v>1133</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>46</v>
@@ -8250,19 +8259,19 @@
         <v>10</v>
       </c>
       <c r="T10" s="34" t="s">
-        <v>1143</v>
+        <v>1134</v>
       </c>
       <c r="U10" s="34" t="s">
-        <v>1143</v>
+        <v>1134</v>
       </c>
       <c r="W10" s="34" t="s">
-        <v>1141</v>
+        <v>1132</v>
       </c>
       <c r="X10" s="11" t="s">
         <v>58</v>
       </c>
       <c r="Y10" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="Z10" s="11" t="s">
         <v>50</v>
@@ -8303,7 +8312,7 @@
         <v>45</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>1120</v>
+        <v>1111</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>46</v>
@@ -8345,7 +8354,7 @@
         <v>63</v>
       </c>
       <c r="Y11" s="34" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="Z11" s="11" t="s">
         <v>50</v>
@@ -8384,7 +8393,7 @@
         <v>45</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>1121</v>
+        <v>1112</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>46</v>
@@ -8426,7 +8435,7 @@
         <v>66</v>
       </c>
       <c r="Y12" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="Z12" s="11" t="s">
         <v>50</v>
@@ -8465,7 +8474,7 @@
         <v>45</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>1122</v>
+        <v>1113</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>46</v>
@@ -8507,7 +8516,7 @@
         <v>69</v>
       </c>
       <c r="Y13" s="11" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="Z13" s="11" t="s">
         <v>50</v>
@@ -8546,7 +8555,7 @@
         <v>45</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>1123</v>
+        <v>1114</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>46</v>
@@ -8588,7 +8597,7 @@
         <v>73</v>
       </c>
       <c r="Y14" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="Z14" s="11" t="s">
         <v>50</v>
@@ -8627,7 +8636,7 @@
         <v>45</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>1124</v>
+        <v>1115</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>46</v>
@@ -8669,7 +8678,7 @@
         <v>77</v>
       </c>
       <c r="Y15" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="Z15" s="11" t="s">
         <v>50</v>
@@ -8708,7 +8717,7 @@
         <v>45</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>1127</v>
+        <v>1118</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>46</v>
@@ -8738,7 +8747,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>1144</v>
+        <v>1135</v>
       </c>
       <c r="U16" s="2">
         <v>66</v>
@@ -8750,7 +8759,7 @@
         <v>79</v>
       </c>
       <c r="Y16" s="34" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="Z16" s="11" t="s">
         <v>50</v>
@@ -8782,7 +8791,7 @@
         <v>80</v>
       </c>
       <c r="J17" s="34" t="s">
-        <v>1145</v>
+        <v>1136</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>46</v>
@@ -8812,10 +8821,10 @@
         <v>1</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>1146</v>
+        <v>1137</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>1146</v>
+        <v>1137</v>
       </c>
       <c r="W17" s="2" t="s">
         <v>48</v>
@@ -8824,7 +8833,7 @@
         <v>49</v>
       </c>
       <c r="Y17" s="34" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="Z17" s="11" t="s">
         <v>50</v>
@@ -8856,7 +8865,7 @@
         <v>80</v>
       </c>
       <c r="J18" s="34" t="s">
-        <v>1147</v>
+        <v>1138</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>46</v>
@@ -8886,10 +8895,10 @@
         <v>2</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>1148</v>
+        <v>1139</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>1148</v>
+        <v>1139</v>
       </c>
       <c r="W18" s="2" t="s">
         <v>48</v>
@@ -8898,7 +8907,7 @@
         <v>51</v>
       </c>
       <c r="Y18" s="11" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="Z18" s="11" t="s">
         <v>50</v>
@@ -8930,7 +8939,7 @@
         <v>80</v>
       </c>
       <c r="J19" s="34" t="s">
-        <v>1149</v>
+        <v>1140</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>46</v>
@@ -8960,10 +8969,10 @@
         <v>3</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>1125</v>
+        <v>1116</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>1150</v>
+        <v>1141</v>
       </c>
       <c r="W19" s="2" t="s">
         <v>48</v>
@@ -8972,7 +8981,7 @@
         <v>52</v>
       </c>
       <c r="Y19" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="Z19" s="11" t="s">
         <v>50</v>
@@ -9004,7 +9013,7 @@
         <v>80</v>
       </c>
       <c r="J20" s="34" t="s">
-        <v>1151</v>
+        <v>1142</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>46</v>
@@ -9034,10 +9043,10 @@
         <v>4</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>1152</v>
+        <v>1143</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>1153</v>
+        <v>1144</v>
       </c>
       <c r="W20" s="2" t="s">
         <v>48</v>
@@ -9046,7 +9055,7 @@
         <v>53</v>
       </c>
       <c r="Y20" s="11" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="Z20" s="11" t="s">
         <v>50</v>
@@ -9078,7 +9087,7 @@
         <v>80</v>
       </c>
       <c r="J21" s="34" t="s">
-        <v>1154</v>
+        <v>1145</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>46</v>
@@ -9108,10 +9117,10 @@
         <v>5</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>1155</v>
+        <v>1146</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>1155</v>
+        <v>1146</v>
       </c>
       <c r="W21" s="2" t="s">
         <v>48</v>
@@ -9120,7 +9129,7 @@
         <v>54</v>
       </c>
       <c r="Y21" s="11" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="Z21" s="11" t="s">
         <v>50</v>
@@ -9152,7 +9161,7 @@
         <v>80</v>
       </c>
       <c r="J22" s="34" t="s">
-        <v>1156</v>
+        <v>1147</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>46</v>
@@ -9182,10 +9191,10 @@
         <v>6</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>1157</v>
+        <v>1148</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>1157</v>
+        <v>1148</v>
       </c>
       <c r="W22" s="2" t="s">
         <v>48</v>
@@ -9194,7 +9203,7 @@
         <v>81</v>
       </c>
       <c r="Y22" s="11" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="Z22" s="11" t="s">
         <v>50</v>
@@ -9226,7 +9235,7 @@
         <v>80</v>
       </c>
       <c r="J23" s="34" t="s">
-        <v>1158</v>
+        <v>1149</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>46</v>
@@ -9256,10 +9265,10 @@
         <v>7</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>1159</v>
+        <v>1150</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>1159</v>
+        <v>1150</v>
       </c>
       <c r="W23" s="2" t="s">
         <v>48</v>
@@ -9268,7 +9277,7 @@
         <v>56</v>
       </c>
       <c r="Y23" s="11" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="Z23" s="11" t="s">
         <v>50</v>
@@ -9298,25 +9307,25 @@
         <v>10189</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>1160</v>
+        <v>1151</v>
       </c>
       <c r="H24" s="11">
         <v>19800</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>1161</v>
+        <v>1152</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>1162</v>
+        <v>1153</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>1163</v>
+        <v>1154</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>1164</v>
+        <v>1155</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>1165</v>
+        <v>1156</v>
       </c>
       <c r="N24" s="2">
         <v>1</v>
@@ -9337,19 +9346,19 @@
         <v>6</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>1166</v>
+        <v>1157</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>1166</v>
+        <v>1157</v>
       </c>
       <c r="W24" s="34" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="Y24" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="Z24" s="11" t="s">
         <v>50</v>
@@ -9398,10 +9407,10 @@
   <dimension ref="A1:AM394"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="M66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="K66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R85" sqref="R85"/>
+      <selection pane="bottomRight" activeCell="M88" sqref="M88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -9463,10 +9472,10 @@
         <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1247</v>
+        <v>1238</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1272</v>
+        <v>1263</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>85</v>
@@ -9753,7 +9762,7 @@
         <v>110</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="5">
@@ -9775,7 +9784,7 @@
         <v>80</v>
       </c>
       <c r="Q5" s="14" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="R5" s="7"/>
       <c r="T5" s="7"/>
@@ -9796,7 +9805,7 @@
         <v>112</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>1089</v>
+        <v>1080</v>
       </c>
       <c r="AG5" s="5">
         <v>1</v>
@@ -9932,7 +9941,7 @@
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="5" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="K8" s="5">
         <v>-6</v>
@@ -9953,7 +9962,7 @@
         <v>119</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="V8" s="5" t="s">
         <v>528</v>
@@ -10205,7 +10214,7 @@
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="5" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="K13" s="5">
         <v>-8</v>
@@ -10226,7 +10235,7 @@
         <v>132</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="V13" s="5" t="s">
         <v>528</v>
@@ -10283,7 +10292,7 @@
         <v>133</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="W14" s="5">
         <v>99999</v>
@@ -10316,7 +10325,7 @@
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="5" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="K15" s="5">
         <v>-8</v>
@@ -10373,7 +10382,7 @@
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="5" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="K16" s="5">
         <v>-8</v>
@@ -10397,7 +10406,7 @@
         <v>137</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="W16" s="5">
         <v>99999</v>
@@ -10619,10 +10628,10 @@
         <v>600</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>999</v>
+        <v>992</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="V20" s="5" t="s">
         <v>529</v>
@@ -10654,11 +10663,11 @@
         <v>1</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="5" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="K21" s="5">
         <v>-11</v>
@@ -10679,7 +10688,7 @@
         <v>150</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="V21" s="5" t="s">
         <v>529</v>
@@ -10718,7 +10727,7 @@
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="5" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="K22" s="5">
         <v>-10</v>
@@ -10739,7 +10748,7 @@
         <v>150</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="V22" s="5" t="s">
         <v>529</v>
@@ -10774,11 +10783,11 @@
         <v>0</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="5" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="K23" s="5">
         <v>-13</v>
@@ -10802,7 +10811,7 @@
         <v>152</v>
       </c>
       <c r="V23" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="W23" s="5">
         <v>999999</v>
@@ -10859,7 +10868,7 @@
         <v>152</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="W24" s="5">
         <v>999999</v>
@@ -10967,7 +10976,7 @@
         <v>80</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="V26" s="5" t="s">
         <v>528</v>
@@ -11021,7 +11030,7 @@
         <v>80</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="V27" s="5" t="s">
         <v>528</v>
@@ -11075,7 +11084,7 @@
         <v>80</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="V28" s="5" t="s">
         <v>528</v>
@@ -11129,7 +11138,7 @@
         <v>80</v>
       </c>
       <c r="Q29" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="V29" s="5" t="s">
         <v>528</v>
@@ -11183,7 +11192,7 @@
         <v>80</v>
       </c>
       <c r="Q30" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="V30" s="5" t="s">
         <v>528</v>
@@ -11237,7 +11246,7 @@
         <v>80</v>
       </c>
       <c r="Q31" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="V31" s="5" t="s">
         <v>528</v>
@@ -11291,7 +11300,7 @@
         <v>80</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="V32" s="5" t="s">
         <v>528</v>
@@ -11345,7 +11354,7 @@
         <v>80</v>
       </c>
       <c r="Q33" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="V33" s="5" t="s">
         <v>528</v>
@@ -11399,7 +11408,7 @@
         <v>80</v>
       </c>
       <c r="Q34" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="V34" s="5" t="s">
         <v>528</v>
@@ -11453,7 +11462,7 @@
         <v>80</v>
       </c>
       <c r="Q35" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="V35" s="5" t="s">
         <v>528</v>
@@ -11507,7 +11516,7 @@
         <v>80</v>
       </c>
       <c r="Q36" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="V36" s="5" t="s">
         <v>528</v>
@@ -11561,7 +11570,7 @@
         <v>80</v>
       </c>
       <c r="Q37" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="V37" s="5" t="s">
         <v>528</v>
@@ -11615,7 +11624,7 @@
         <v>80</v>
       </c>
       <c r="Q38" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="V38" s="5" t="s">
         <v>528</v>
@@ -11669,7 +11678,7 @@
         <v>80</v>
       </c>
       <c r="Q39" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="V39" s="5" t="s">
         <v>528</v>
@@ -11723,7 +11732,7 @@
         <v>80</v>
       </c>
       <c r="Q40" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="V40" s="5" t="s">
         <v>528</v>
@@ -11777,7 +11786,7 @@
         <v>80</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="V41" s="5" t="s">
         <v>528</v>
@@ -11831,7 +11840,7 @@
         <v>80</v>
       </c>
       <c r="Q42" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="V42" s="5" t="s">
         <v>528</v>
@@ -11885,7 +11894,7 @@
         <v>80</v>
       </c>
       <c r="Q43" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="V43" s="5" t="s">
         <v>528</v>
@@ -11939,7 +11948,7 @@
         <v>80</v>
       </c>
       <c r="Q44" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="V44" s="5" t="s">
         <v>528</v>
@@ -11993,7 +12002,7 @@
         <v>80</v>
       </c>
       <c r="Q45" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="V45" s="5" t="s">
         <v>528</v>
@@ -12047,7 +12056,7 @@
         <v>80</v>
       </c>
       <c r="Q46" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="V46" s="5" t="s">
         <v>528</v>
@@ -12101,7 +12110,7 @@
         <v>80</v>
       </c>
       <c r="Q47" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="V47" s="5" t="s">
         <v>528</v>
@@ -12155,7 +12164,7 @@
         <v>80</v>
       </c>
       <c r="Q48" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="V48" s="5" t="s">
         <v>528</v>
@@ -12209,7 +12218,7 @@
         <v>80</v>
       </c>
       <c r="Q49" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="V49" s="5" t="s">
         <v>528</v>
@@ -12263,7 +12272,7 @@
         <v>80</v>
       </c>
       <c r="Q50" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="V50" s="5" t="s">
         <v>528</v>
@@ -12319,7 +12328,7 @@
         <v>208</v>
       </c>
       <c r="Q51" s="14" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="R51" s="7"/>
       <c r="T51" s="7"/>
@@ -12378,7 +12387,7 @@
         <v>208</v>
       </c>
       <c r="Q52" s="14" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="R52" s="7"/>
       <c r="T52" s="7"/>
@@ -12437,7 +12446,7 @@
         <v>208</v>
       </c>
       <c r="Q53" s="14" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="R53" s="7"/>
       <c r="T53" s="7"/>
@@ -12476,7 +12485,7 @@
       </c>
       <c r="H54" s="8"/>
       <c r="I54" s="5" t="s">
-        <v>1000</v>
+        <v>993</v>
       </c>
       <c r="K54" s="5">
         <v>-13</v>
@@ -12497,7 +12506,7 @@
         <v>210</v>
       </c>
       <c r="Q54" s="5" t="s">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="V54" s="5" t="s">
         <v>529</v>
@@ -12551,7 +12560,7 @@
         <v>212</v>
       </c>
       <c r="Q55" s="5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="V55" s="5" t="s">
         <v>529</v>
@@ -12583,11 +12592,11 @@
         <v>1</v>
       </c>
       <c r="G56" s="37" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="H56" s="37"/>
       <c r="I56" s="22" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="K56" s="22">
         <v>-18</v>
@@ -12608,7 +12617,7 @@
         <v>213</v>
       </c>
       <c r="Q56" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="V56" s="22" t="s">
         <v>528</v>
@@ -12644,7 +12653,7 @@
       </c>
       <c r="H57" s="8"/>
       <c r="I57" s="5" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="K57" s="5">
         <v>-19</v>
@@ -12665,7 +12674,7 @@
         <v>215</v>
       </c>
       <c r="Q57" s="5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="V57" s="5" t="s">
         <v>529</v>
@@ -12719,7 +12728,7 @@
         <v>80</v>
       </c>
       <c r="Q58" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="V58" s="5" t="s">
         <v>528</v>
@@ -12773,7 +12782,7 @@
         <v>80</v>
       </c>
       <c r="Q59" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="V59" s="5" t="s">
         <v>528</v>
@@ -12827,7 +12836,7 @@
         <v>80</v>
       </c>
       <c r="Q60" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="V60" s="5" t="s">
         <v>528</v>
@@ -12881,7 +12890,7 @@
         <v>80</v>
       </c>
       <c r="Q61" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="V61" s="5" t="s">
         <v>528</v>
@@ -12935,7 +12944,7 @@
         <v>80</v>
       </c>
       <c r="Q62" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="V62" s="5" t="s">
         <v>528</v>
@@ -12989,7 +12998,7 @@
         <v>80</v>
       </c>
       <c r="Q63" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="V63" s="5" t="s">
         <v>528</v>
@@ -13043,7 +13052,7 @@
         <v>80</v>
       </c>
       <c r="Q64" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="V64" s="5" t="s">
         <v>528</v>
@@ -13097,7 +13106,7 @@
         <v>80</v>
       </c>
       <c r="Q65" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="V65" s="5" t="s">
         <v>528</v>
@@ -13132,10 +13141,10 @@
         <v>1</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>1248</v>
+        <v>1239</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="K66" s="5">
         <v>-4</v>
@@ -13168,10 +13177,10 @@
         <v>80</v>
       </c>
       <c r="AB66" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="AC66" s="10" t="s">
         <v>688</v>
-      </c>
-      <c r="AC66" s="10" t="s">
-        <v>689</v>
       </c>
       <c r="AG66" s="5">
         <v>1</v>
@@ -13215,7 +13224,7 @@
         <v>80</v>
       </c>
       <c r="Q67" s="5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V67" s="5" t="s">
         <v>528</v>
@@ -13271,7 +13280,7 @@
         <v>80</v>
       </c>
       <c r="Q68" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="V68" s="5" t="s">
         <v>528</v>
@@ -13327,7 +13336,7 @@
         <v>80</v>
       </c>
       <c r="Q69" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="V69" s="5" t="s">
         <v>528</v>
@@ -13383,7 +13392,7 @@
         <v>80</v>
       </c>
       <c r="Q70" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="V70" s="5" t="s">
         <v>528</v>
@@ -13439,7 +13448,7 @@
         <v>80</v>
       </c>
       <c r="Q71" s="5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="V71" s="5" t="s">
         <v>528</v>
@@ -13477,7 +13486,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K72" s="5">
         <v>-4</v>
@@ -13772,7 +13781,7 @@
         <v>238</v>
       </c>
       <c r="I77" s="19" t="s">
-        <v>1084</v>
+        <v>1442</v>
       </c>
       <c r="K77" s="19">
         <v>-20</v>
@@ -13790,10 +13799,10 @@
         <v>100</v>
       </c>
       <c r="P77" s="19" t="s">
-        <v>988</v>
-      </c>
-      <c r="Q77" s="19" t="s">
-        <v>1085</v>
+        <v>981</v>
+      </c>
+      <c r="Q77" s="40" t="s">
+        <v>1443</v>
       </c>
       <c r="V77" s="19" t="s">
         <v>528</v>
@@ -13828,7 +13837,7 @@
         <v>239</v>
       </c>
       <c r="I78" s="19" t="s">
-        <v>842</v>
+        <v>1444</v>
       </c>
       <c r="K78" s="19">
         <v>-20</v>
@@ -13843,13 +13852,13 @@
         <v>103</v>
       </c>
       <c r="O78" s="19">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="P78" s="19" t="s">
-        <v>583</v>
-      </c>
-      <c r="Q78" s="19" t="s">
-        <v>695</v>
+        <v>1445</v>
+      </c>
+      <c r="Q78" s="40" t="s">
+        <v>1446</v>
       </c>
       <c r="V78" s="19" t="s">
         <v>528</v>
@@ -13867,10 +13876,10 @@
         <v>80</v>
       </c>
       <c r="AB78" s="19" t="s">
-        <v>804</v>
+        <v>1447</v>
       </c>
       <c r="AC78" s="40" t="s">
-        <v>808</v>
+        <v>1448</v>
       </c>
       <c r="AG78" s="19">
         <v>1</v>
@@ -13890,10 +13899,10 @@
         <v>1</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>1249</v>
+        <v>1240</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="K79" s="5">
         <v>-20</v>
@@ -13914,7 +13923,7 @@
         <v>240</v>
       </c>
       <c r="Q79" s="5" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="V79" s="5" t="s">
         <v>528</v>
@@ -13932,10 +13941,10 @@
         <v>80</v>
       </c>
       <c r="AB79" s="5" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="AC79" s="10" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="AG79" s="5">
         <v>1</v>
@@ -13955,10 +13964,10 @@
         <v>1</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="K80" s="5">
         <v>-20</v>
@@ -13979,7 +13988,7 @@
         <v>240</v>
       </c>
       <c r="Q80" s="5" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="V80" s="5" t="s">
         <v>528</v>
@@ -13997,13 +14006,13 @@
         <v>16</v>
       </c>
       <c r="AA80" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AB80" s="5" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="AC80" s="10" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="AG80" s="5">
         <v>1</v>
@@ -14026,7 +14035,7 @@
         <v>242</v>
       </c>
       <c r="I81" s="19" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="K81" s="19">
         <v>-20</v>
@@ -14044,10 +14053,10 @@
         <v>4800</v>
       </c>
       <c r="P81" s="19" t="s">
-        <v>490</v>
-      </c>
-      <c r="Q81" s="19" t="s">
-        <v>698</v>
+        <v>1449</v>
+      </c>
+      <c r="Q81" s="40" t="s">
+        <v>1450</v>
       </c>
       <c r="V81" s="19" t="s">
         <v>528</v>
@@ -14062,10 +14071,10 @@
         <v>2552233600</v>
       </c>
       <c r="AA81" s="19" t="s">
-        <v>584</v>
+        <v>1451</v>
       </c>
       <c r="AB81" s="19" t="s">
-        <v>807</v>
+        <v>1452</v>
       </c>
       <c r="AG81" s="19">
         <v>1</v>
@@ -14088,7 +14097,7 @@
         <v>243</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="K82" s="5">
         <v>-20</v>
@@ -14109,7 +14118,7 @@
         <v>244</v>
       </c>
       <c r="Q82" s="5" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="V82" s="5" t="s">
         <v>528</v>
@@ -14144,7 +14153,7 @@
         <v>245</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="K83" s="5">
         <v>-21</v>
@@ -14162,10 +14171,10 @@
         <v>4800</v>
       </c>
       <c r="P83" s="5" t="s">
-        <v>989</v>
+        <v>982</v>
       </c>
       <c r="Q83" s="5" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="V83" s="5" t="s">
         <v>529</v>
@@ -14200,7 +14209,7 @@
         <v>246</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="K84" s="5">
         <v>-22</v>
@@ -14218,10 +14227,10 @@
         <v>4800</v>
       </c>
       <c r="P84" s="5" t="s">
-        <v>989</v>
+        <v>982</v>
       </c>
       <c r="Q84" s="5" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="V84" s="5" t="s">
         <v>529</v>
@@ -14253,10 +14262,10 @@
         <v>0</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="K85" s="5">
         <v>-23</v>
@@ -14274,10 +14283,10 @@
         <v>4800</v>
       </c>
       <c r="P85" s="5" t="s">
-        <v>1446</v>
+        <v>1437</v>
       </c>
       <c r="Q85" s="5" t="s">
-        <v>1449</v>
+        <v>1440</v>
       </c>
       <c r="V85" s="5" t="s">
         <v>530</v>
@@ -14309,10 +14318,10 @@
         <v>0</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="K86" s="5">
         <v>-24</v>
@@ -14330,7 +14339,7 @@
         <v>4800</v>
       </c>
       <c r="V86" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="W86" s="5">
         <v>99999999</v>
@@ -14359,10 +14368,10 @@
         <v>0</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="K87" s="5">
         <v>-25</v>
@@ -14380,10 +14389,10 @@
         <v>9600</v>
       </c>
       <c r="P87" s="5" t="s">
-        <v>1447</v>
+        <v>1438</v>
       </c>
       <c r="Q87" s="5" t="s">
-        <v>1450</v>
+        <v>1441</v>
       </c>
       <c r="V87" s="5" t="s">
         <v>530</v>
@@ -14418,7 +14427,7 @@
         <v>247</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="K88" s="5">
         <v>-22</v>
@@ -14439,7 +14448,7 @@
         <v>248</v>
       </c>
       <c r="Q88" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="V88" s="5" t="s">
         <v>529</v>
@@ -14474,7 +14483,7 @@
         <v>249</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="K89" s="5">
         <v>-22</v>
@@ -14495,7 +14504,7 @@
         <v>119</v>
       </c>
       <c r="Q89" s="5" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="V89" s="5" t="s">
         <v>529</v>
@@ -14530,7 +14539,7 @@
         <v>251</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="K90" s="5">
         <v>-22</v>
@@ -14551,7 +14560,7 @@
         <v>212</v>
       </c>
       <c r="Q90" s="5" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="V90" s="5" t="s">
         <v>529</v>
@@ -14586,7 +14595,7 @@
         <v>252</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="K91" s="5">
         <v>-22</v>
@@ -14642,7 +14651,7 @@
         <v>253</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="K92" s="5">
         <v>-22</v>
@@ -14660,10 +14669,10 @@
         <v>4800</v>
       </c>
       <c r="P92" s="5" t="s">
-        <v>989</v>
+        <v>982</v>
       </c>
       <c r="Q92" s="5" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="V92" s="5" t="s">
         <v>529</v>
@@ -14698,7 +14707,7 @@
         <v>254</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="K93" s="5">
         <v>-22</v>
@@ -14719,7 +14728,7 @@
         <v>255</v>
       </c>
       <c r="Q93" s="5" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="V93" s="5" t="s">
         <v>529</v>
@@ -14772,7 +14781,7 @@
         <v>80</v>
       </c>
       <c r="Q94" s="5" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="V94" s="5" t="s">
         <v>528</v>
@@ -14807,7 +14816,7 @@
         <v>257</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="K95" s="5">
         <v>-23</v>
@@ -14828,7 +14837,7 @@
         <v>208</v>
       </c>
       <c r="Q95" s="7" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="R95" s="7"/>
       <c r="T95" s="7"/>
@@ -14866,7 +14875,7 @@
         <v>258</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="K96" s="5">
         <v>-23</v>
@@ -14922,7 +14931,7 @@
         <v>259</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="K97" s="5">
         <v>-24</v>
@@ -14940,13 +14949,13 @@
         <v>4800</v>
       </c>
       <c r="P97" s="5" t="s">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="Q97" s="5" t="s">
         <v>260</v>
       </c>
       <c r="S97" s="5" t="s">
-        <v>991</v>
+        <v>984</v>
       </c>
       <c r="T97" s="5" t="s">
         <v>261</v>
@@ -14984,7 +14993,7 @@
         <v>262</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="K98" s="5">
         <v>-24</v>
@@ -15002,13 +15011,13 @@
         <v>9800</v>
       </c>
       <c r="P98" s="5" t="s">
-        <v>992</v>
+        <v>985</v>
       </c>
       <c r="Q98" s="5" t="s">
         <v>263</v>
       </c>
       <c r="S98" s="5" t="s">
-        <v>993</v>
+        <v>986</v>
       </c>
       <c r="T98" s="5" t="s">
         <v>264</v>
@@ -15046,7 +15055,7 @@
         <v>265</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="K99" s="5">
         <v>-24</v>
@@ -15064,13 +15073,13 @@
         <v>19800</v>
       </c>
       <c r="P99" s="5" t="s">
-        <v>994</v>
+        <v>987</v>
       </c>
       <c r="Q99" s="5" t="s">
         <v>266</v>
       </c>
       <c r="S99" s="5" t="s">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="T99" s="5" t="s">
         <v>267</v>
@@ -15108,7 +15117,7 @@
         <v>563</v>
       </c>
       <c r="I100" s="19" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="K100" s="19">
         <v>-25</v>
@@ -15129,7 +15138,7 @@
         <v>564</v>
       </c>
       <c r="Q100" s="19" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="V100" s="19" t="s">
         <v>529</v>
@@ -15171,7 +15180,7 @@
         <v>522</v>
       </c>
       <c r="I101" s="19" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="K101" s="19">
         <v>-25</v>
@@ -15192,7 +15201,7 @@
         <v>565</v>
       </c>
       <c r="Q101" s="19" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="V101" s="19" t="s">
         <v>529</v>
@@ -15234,7 +15243,7 @@
         <v>269</v>
       </c>
       <c r="I102" s="19" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="K102" s="19">
         <v>-25</v>
@@ -15255,7 +15264,7 @@
         <v>565</v>
       </c>
       <c r="Q102" s="19" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="V102" s="19" t="s">
         <v>529</v>
@@ -15297,7 +15306,7 @@
         <v>563</v>
       </c>
       <c r="I103" s="19" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="K103" s="19">
         <v>-25</v>
@@ -15318,7 +15327,7 @@
         <v>565</v>
       </c>
       <c r="Q103" s="19" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="V103" s="19" t="s">
         <v>529</v>
@@ -15360,7 +15369,7 @@
         <v>523</v>
       </c>
       <c r="I104" s="19" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="K104" s="19">
         <v>-25</v>
@@ -15381,7 +15390,7 @@
         <v>565</v>
       </c>
       <c r="Q104" s="19" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="V104" s="19" t="s">
         <v>529</v>
@@ -15423,7 +15432,7 @@
         <v>69</v>
       </c>
       <c r="I105" s="19" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="K105" s="19">
         <v>-25</v>
@@ -15444,7 +15453,7 @@
         <v>564</v>
       </c>
       <c r="Q105" s="19" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="V105" s="19" t="s">
         <v>529</v>
@@ -15486,7 +15495,7 @@
         <v>563</v>
       </c>
       <c r="I106" s="19" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="K106" s="19">
         <v>-25</v>
@@ -15507,7 +15516,7 @@
         <v>565</v>
       </c>
       <c r="Q106" s="19" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="V106" s="19" t="s">
         <v>529</v>
@@ -15549,7 +15558,7 @@
         <v>269</v>
       </c>
       <c r="I107" s="19" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="K107" s="19">
         <v>-25</v>
@@ -15570,7 +15579,7 @@
         <v>564</v>
       </c>
       <c r="Q107" s="19" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="V107" s="19" t="s">
         <v>529</v>
@@ -15612,7 +15621,7 @@
         <v>73</v>
       </c>
       <c r="I108" s="19" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="K108" s="19">
         <v>-25</v>
@@ -15633,7 +15642,7 @@
         <v>565</v>
       </c>
       <c r="Q108" s="19" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="V108" s="19" t="s">
         <v>529</v>
@@ -15700,7 +15709,7 @@
       </c>
       <c r="R109" s="7"/>
       <c r="V109" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="W109" s="5">
         <v>99999999</v>
@@ -15732,7 +15741,7 @@
         <v>275</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="K110" s="5">
         <v>-26</v>
@@ -15750,13 +15759,13 @@
         <v>3800</v>
       </c>
       <c r="P110" s="5" t="s">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="Q110" s="5" t="s">
         <v>276</v>
       </c>
       <c r="S110" s="5" t="s">
-        <v>997</v>
+        <v>990</v>
       </c>
       <c r="T110" s="5" t="s">
         <v>277</v>
@@ -15794,7 +15803,7 @@
         <v>278</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
       <c r="K111" s="5">
         <v>-26</v>
@@ -15812,13 +15821,13 @@
         <v>8800</v>
       </c>
       <c r="P111" s="5" t="s">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="Q111" s="5" t="s">
         <v>279</v>
       </c>
       <c r="S111" s="5" t="s">
-        <v>991</v>
+        <v>984</v>
       </c>
       <c r="T111" s="5" t="s">
         <v>280</v>
@@ -15856,7 +15865,7 @@
         <v>281</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="K112" s="5">
         <v>-26</v>
@@ -15874,13 +15883,13 @@
         <v>18800</v>
       </c>
       <c r="P112" s="5" t="s">
-        <v>992</v>
+        <v>985</v>
       </c>
       <c r="Q112" s="5" t="s">
         <v>282</v>
       </c>
       <c r="S112" s="5" t="s">
-        <v>993</v>
+        <v>986</v>
       </c>
       <c r="T112" s="5" t="s">
         <v>283</v>
@@ -15918,7 +15927,7 @@
         <v>284</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="K113" s="5">
         <v>-26</v>
@@ -15974,7 +15983,7 @@
         <v>287</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="K114" s="5">
         <v>-26</v>
@@ -16030,7 +16039,7 @@
         <v>289</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="K115" s="5">
         <v>-26</v>
@@ -16048,7 +16057,7 @@
         <v>9800</v>
       </c>
       <c r="P115" s="5" t="s">
-        <v>989</v>
+        <v>982</v>
       </c>
       <c r="Q115" s="5" t="s">
         <v>290</v>
@@ -16086,7 +16095,7 @@
         <v>291</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="K116" s="5">
         <v>-27</v>
@@ -16104,13 +16113,13 @@
         <v>4800</v>
       </c>
       <c r="P116" s="5" t="s">
-        <v>989</v>
+        <v>982</v>
       </c>
       <c r="Q116" s="5" t="s">
         <v>292</v>
       </c>
       <c r="S116" s="5" t="s">
-        <v>998</v>
+        <v>991</v>
       </c>
       <c r="T116" s="5" t="s">
         <v>293</v>
@@ -16148,7 +16157,7 @@
         <v>294</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="K117" s="5">
         <v>-27</v>
@@ -16166,13 +16175,13 @@
         <v>9800</v>
       </c>
       <c r="P117" s="5" t="s">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="Q117" s="5" t="s">
         <v>263</v>
       </c>
       <c r="S117" s="5" t="s">
-        <v>991</v>
+        <v>984</v>
       </c>
       <c r="T117" s="5" t="s">
         <v>264</v>
@@ -16210,7 +16219,7 @@
         <v>295</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="K118" s="5">
         <v>-28</v>
@@ -16266,7 +16275,7 @@
         <v>297</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="K119" s="5">
         <v>-28</v>
@@ -16322,7 +16331,7 @@
         <v>300</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="K120" s="5">
         <v>-28</v>
@@ -16378,7 +16387,7 @@
         <v>303</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="K121" s="5">
         <v>-28</v>
@@ -16437,7 +16446,7 @@
         <v>307</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="K122" s="5">
         <v>-28</v>
@@ -16496,7 +16505,7 @@
         <v>310</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="K123" s="5">
         <v>-28</v>
@@ -16555,7 +16564,7 @@
         <v>287</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="K124" s="5">
         <v>-28</v>
@@ -16611,7 +16620,7 @@
         <v>313</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="K125" s="5">
         <v>-28</v>
@@ -16667,7 +16676,7 @@
         <v>315</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="K126" s="5">
         <v>-28</v>
@@ -16723,7 +16732,7 @@
         <v>317</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="K127" s="5">
         <v>-29</v>
@@ -16806,7 +16815,7 @@
         <v>80</v>
       </c>
       <c r="Q128" s="5" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="V128" s="5" t="s">
         <v>528</v>
@@ -16841,7 +16850,7 @@
         <v>1</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>1250</v>
+        <v>1241</v>
       </c>
       <c r="K129" s="5">
         <v>-11</v>
@@ -16862,7 +16871,7 @@
         <v>80</v>
       </c>
       <c r="Q129" s="5" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="V129" s="5" t="s">
         <v>528</v>
@@ -16897,7 +16906,7 @@
         <v>323</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="K130" s="5">
         <v>-28</v>
@@ -16959,7 +16968,7 @@
         <v>241</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="K131" s="5">
         <v>-28</v>
@@ -17021,7 +17030,7 @@
         <v>327</v>
       </c>
       <c r="I132" s="5" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="K132" s="5">
         <v>-28</v>
@@ -17083,7 +17092,7 @@
         <v>329</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="K133" s="5">
         <v>-28</v>
@@ -17104,7 +17113,7 @@
         <v>285</v>
       </c>
       <c r="Q133" s="5" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="V133" s="5" t="s">
         <v>531</v>
@@ -17145,7 +17154,7 @@
         <v>330</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
       <c r="K134" s="5">
         <v>-28</v>
@@ -17166,7 +17175,7 @@
         <v>298</v>
       </c>
       <c r="Q134" s="5" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="V134" s="5" t="s">
         <v>531</v>
@@ -17207,7 +17216,7 @@
         <v>332</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="K135" s="5">
         <v>-28</v>
@@ -17228,7 +17237,7 @@
         <v>301</v>
       </c>
       <c r="Q135" s="5" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="V135" s="5" t="s">
         <v>531</v>
@@ -17270,7 +17279,7 @@
       </c>
       <c r="H136" s="8"/>
       <c r="I136" s="5" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="K136" s="5">
         <v>-28</v>
@@ -17291,7 +17300,7 @@
         <v>150</v>
       </c>
       <c r="Q136" s="5" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="V136" s="5" t="s">
         <v>531</v>
@@ -17330,7 +17339,7 @@
       </c>
       <c r="H137" s="8"/>
       <c r="I137" s="5" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="K137" s="5">
         <v>-28</v>
@@ -17351,7 +17360,7 @@
         <v>150</v>
       </c>
       <c r="Q137" s="5" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="V137" s="5" t="s">
         <v>531</v>
@@ -17390,7 +17399,7 @@
       </c>
       <c r="H138" s="8"/>
       <c r="I138" s="5" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="K138" s="5">
         <v>-28</v>
@@ -17411,7 +17420,7 @@
         <v>150</v>
       </c>
       <c r="Q138" s="5" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="V138" s="5" t="s">
         <v>531</v>
@@ -17446,11 +17455,11 @@
         <v>1</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>1251</v>
+        <v>1242</v>
       </c>
       <c r="H139" s="8"/>
       <c r="I139" s="5" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="K139" s="5">
         <v>-28</v>
@@ -17471,7 +17480,7 @@
         <v>150</v>
       </c>
       <c r="Q139" s="5" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="V139" s="5" t="s">
         <v>531</v>
@@ -17506,11 +17515,11 @@
         <v>1</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>1252</v>
+        <v>1243</v>
       </c>
       <c r="H140" s="8"/>
       <c r="I140" s="5" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="K140" s="5">
         <v>-28</v>
@@ -17531,7 +17540,7 @@
         <v>150</v>
       </c>
       <c r="Q140" s="5" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="V140" s="5" t="s">
         <v>531</v>
@@ -17570,7 +17579,7 @@
       </c>
       <c r="H141" s="8"/>
       <c r="I141" s="5" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="K141" s="5">
         <v>-28</v>
@@ -17591,7 +17600,7 @@
         <v>150</v>
       </c>
       <c r="Q141" s="5" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="V141" s="5" t="s">
         <v>531</v>
@@ -17629,7 +17638,7 @@
         <v>333</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="K142" s="5">
         <v>-28</v>
@@ -17691,7 +17700,7 @@
         <v>334</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="K143" s="5">
         <v>-28</v>
@@ -17753,7 +17762,7 @@
         <v>335</v>
       </c>
       <c r="I144" s="5" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="K144" s="5">
         <v>-28</v>
@@ -17819,7 +17828,7 @@
       </c>
       <c r="H145" s="22"/>
       <c r="I145" s="5" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="K145" s="5">
         <v>-28</v>
@@ -17840,13 +17849,13 @@
         <v>338</v>
       </c>
       <c r="Q145" s="5" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="S145" s="5" t="s">
         <v>80</v>
       </c>
       <c r="T145" s="5" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="V145" s="5" t="s">
         <v>529</v>
@@ -17885,7 +17894,7 @@
       </c>
       <c r="H146" s="22"/>
       <c r="I146" s="5" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="K146" s="5">
         <v>-28</v>
@@ -17906,13 +17915,13 @@
         <v>268</v>
       </c>
       <c r="Q146" s="5" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="S146" s="5" t="s">
         <v>150</v>
       </c>
       <c r="T146" s="5" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="V146" s="5" t="s">
         <v>529</v>
@@ -17951,7 +17960,7 @@
       </c>
       <c r="H147" s="22"/>
       <c r="I147" s="5" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="K147" s="5">
         <v>-28</v>
@@ -17972,13 +17981,13 @@
         <v>268</v>
       </c>
       <c r="Q147" s="5" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="S147" s="5" t="s">
         <v>150</v>
       </c>
       <c r="T147" s="5" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="V147" s="5" t="s">
         <v>529</v>
@@ -18017,7 +18026,7 @@
       </c>
       <c r="H148" s="22"/>
       <c r="I148" s="5" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="K148" s="5">
         <v>-28</v>
@@ -18038,13 +18047,13 @@
         <v>268</v>
       </c>
       <c r="Q148" s="5" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="S148" s="5" t="s">
         <v>150</v>
       </c>
       <c r="T148" s="5" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="V148" s="5" t="s">
         <v>529</v>
@@ -18083,7 +18092,7 @@
       </c>
       <c r="H149" s="22"/>
       <c r="I149" s="5" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="K149" s="5">
         <v>-28</v>
@@ -18104,13 +18113,13 @@
         <v>268</v>
       </c>
       <c r="Q149" s="5" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="S149" s="5" t="s">
         <v>150</v>
       </c>
       <c r="T149" s="5" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="V149" s="5" t="s">
         <v>529</v>
@@ -18145,7 +18154,7 @@
         <v>343</v>
       </c>
       <c r="I150" s="5" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="K150" s="5">
         <v>-28</v>
@@ -18207,7 +18216,7 @@
         <v>344</v>
       </c>
       <c r="I151" s="5" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="K151" s="5">
         <v>-28</v>
@@ -18269,7 +18278,7 @@
         <v>345</v>
       </c>
       <c r="I152" s="5" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="K152" s="5">
         <v>-28</v>
@@ -18328,10 +18337,10 @@
         <v>1</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="I153" s="5" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="K153" s="5">
         <v>-28</v>
@@ -18352,13 +18361,13 @@
         <v>338</v>
       </c>
       <c r="Q153" s="5" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="S153" s="5" t="s">
         <v>80</v>
       </c>
       <c r="T153" s="5" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="V153" s="5" t="s">
         <v>531</v>
@@ -18393,7 +18402,7 @@
         <v>346</v>
       </c>
       <c r="I154" s="5" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="K154" s="5">
         <v>-28</v>
@@ -18414,13 +18423,13 @@
         <v>338</v>
       </c>
       <c r="Q154" s="5" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="S154" s="5" t="s">
         <v>80</v>
       </c>
       <c r="T154" s="5" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="V154" s="5" t="s">
         <v>531</v>
@@ -18455,7 +18464,7 @@
         <v>347</v>
       </c>
       <c r="I155" s="5" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="K155" s="5">
         <v>-28</v>
@@ -18476,13 +18485,13 @@
         <v>338</v>
       </c>
       <c r="Q155" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="S155" s="5" t="s">
         <v>80</v>
       </c>
       <c r="T155" s="5" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="V155" s="5" t="s">
         <v>531</v>
@@ -18517,7 +18526,7 @@
         <v>348</v>
       </c>
       <c r="I156" s="5" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="K156" s="5">
         <v>-28</v>
@@ -18538,13 +18547,13 @@
         <v>338</v>
       </c>
       <c r="Q156" s="5" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="S156" s="5" t="s">
         <v>80</v>
       </c>
       <c r="T156" s="5" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="V156" s="5" t="s">
         <v>531</v>
@@ -18579,7 +18588,7 @@
         <v>349</v>
       </c>
       <c r="I157" s="5" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="K157" s="5">
         <v>-28</v>
@@ -18600,13 +18609,13 @@
         <v>338</v>
       </c>
       <c r="Q157" s="5" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="S157" s="5" t="s">
         <v>80</v>
       </c>
       <c r="T157" s="5" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="V157" s="5" t="s">
         <v>531</v>
@@ -18641,7 +18650,7 @@
         <v>350</v>
       </c>
       <c r="I158" s="5" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="K158" s="5">
         <v>-28</v>
@@ -18703,7 +18712,7 @@
         <v>352</v>
       </c>
       <c r="I159" s="5" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="K159" s="5">
         <v>-28</v>
@@ -18765,7 +18774,7 @@
         <v>354</v>
       </c>
       <c r="I160" s="5" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="K160" s="5">
         <v>-28</v>
@@ -18827,7 +18836,7 @@
         <v>356</v>
       </c>
       <c r="I161" s="5" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="K161" s="5">
         <v>-28</v>
@@ -18889,7 +18898,7 @@
         <v>357</v>
       </c>
       <c r="I162" s="5" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="K162" s="5">
         <v>-28</v>
@@ -18951,7 +18960,7 @@
         <v>358</v>
       </c>
       <c r="I163" s="5" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="K163" s="5">
         <v>-28</v>
@@ -19010,10 +19019,10 @@
         <v>1</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="I164" s="5" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="J164" s="5">
         <v>21032</v>
@@ -19037,7 +19046,7 @@
         <v>210</v>
       </c>
       <c r="Q164" s="10" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="V164" s="5" t="s">
         <v>528</v>
@@ -19078,7 +19087,7 @@
         <v>359</v>
       </c>
       <c r="I165" s="5" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="K165" s="5">
         <v>-28</v>
@@ -19140,7 +19149,7 @@
         <v>360</v>
       </c>
       <c r="I166" s="5" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="K166" s="5">
         <v>-28</v>
@@ -19202,7 +19211,7 @@
         <v>361</v>
       </c>
       <c r="I167" s="5" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="K167" s="5">
         <v>-28</v>
@@ -19264,7 +19273,7 @@
         <v>362</v>
       </c>
       <c r="I168" s="19" t="s">
-        <v>1077</v>
+        <v>1070</v>
       </c>
       <c r="K168" s="19">
         <v>-28</v>
@@ -19282,10 +19291,10 @@
         <v>600</v>
       </c>
       <c r="P168" s="19" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="Q168" s="19" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="V168" s="19" t="s">
         <v>528</v>
@@ -19326,10 +19335,10 @@
         <v>1</v>
       </c>
       <c r="G169" s="19" t="s">
-        <v>1253</v>
+        <v>1244</v>
       </c>
       <c r="I169" s="19" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="K169" s="19">
         <v>-28</v>
@@ -19347,13 +19356,13 @@
         <v>3000</v>
       </c>
       <c r="P169" s="19" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="Q169" s="19" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="V169" s="19" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="W169" s="19">
         <v>9999999</v>
@@ -19391,7 +19400,7 @@
         <v>363</v>
       </c>
       <c r="I170" s="19" t="s">
-        <v>1079</v>
+        <v>1072</v>
       </c>
       <c r="K170" s="19">
         <v>-28</v>
@@ -19409,13 +19418,13 @@
         <v>19800</v>
       </c>
       <c r="P170" s="19" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="Q170" s="19" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="V170" s="19" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="W170" s="19">
         <v>9999999</v>
@@ -19450,13 +19459,13 @@
         <v>1</v>
       </c>
       <c r="G171" s="19" t="s">
-        <v>1254</v>
+        <v>1245</v>
       </c>
       <c r="H171" s="19" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
       <c r="I171" s="19" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
       <c r="K171" s="19">
         <v>-28</v>
@@ -19474,10 +19483,10 @@
         <v>100</v>
       </c>
       <c r="P171" s="19" t="s">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="Q171" s="19" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="V171" s="19" t="s">
         <v>570</v>
@@ -19518,13 +19527,13 @@
         <v>1</v>
       </c>
       <c r="G172" s="19" t="s">
-        <v>1254</v>
+        <v>1245</v>
       </c>
       <c r="H172" s="19" t="s">
-        <v>1274</v>
+        <v>1265</v>
       </c>
       <c r="I172" s="19" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
       <c r="K172" s="19">
         <v>-28</v>
@@ -19542,10 +19551,10 @@
         <v>300</v>
       </c>
       <c r="P172" s="19" t="s">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="Q172" s="19" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="V172" s="19" t="s">
         <v>531</v>
@@ -19586,13 +19595,13 @@
         <v>1</v>
       </c>
       <c r="G173" s="19" t="s">
-        <v>1255</v>
+        <v>1246</v>
       </c>
       <c r="H173" s="19" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
       <c r="I173" s="19" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="K173" s="19">
         <v>-28</v>
@@ -19610,10 +19619,10 @@
         <v>600</v>
       </c>
       <c r="P173" s="19" t="s">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="Q173" s="19" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="V173" s="19" t="s">
         <v>531</v>
@@ -19654,13 +19663,13 @@
         <v>1</v>
       </c>
       <c r="G174" s="19" t="s">
-        <v>1255</v>
+        <v>1246</v>
       </c>
       <c r="H174" s="19" t="s">
-        <v>1276</v>
+        <v>1267</v>
       </c>
       <c r="I174" s="19" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="K174" s="19">
         <v>-28</v>
@@ -19678,10 +19687,10 @@
         <v>600</v>
       </c>
       <c r="P174" s="19" t="s">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="Q174" s="19" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="V174" s="19" t="s">
         <v>531</v>
@@ -19722,13 +19731,13 @@
         <v>1</v>
       </c>
       <c r="G175" s="19" t="s">
-        <v>1255</v>
+        <v>1246</v>
       </c>
       <c r="H175" s="19" t="s">
-        <v>1277</v>
+        <v>1268</v>
       </c>
       <c r="I175" s="19" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
       <c r="K175" s="19">
         <v>-28</v>
@@ -19746,10 +19755,10 @@
         <v>1000</v>
       </c>
       <c r="P175" s="19" t="s">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="Q175" s="19" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="V175" s="19" t="s">
         <v>531</v>
@@ -19790,13 +19799,13 @@
         <v>1</v>
       </c>
       <c r="G176" s="19" t="s">
-        <v>1255</v>
+        <v>1246</v>
       </c>
       <c r="H176" s="19" t="s">
-        <v>1278</v>
+        <v>1269</v>
       </c>
       <c r="I176" s="19" t="s">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="K176" s="19">
         <v>-28</v>
@@ -19814,10 +19823,10 @@
         <v>1800</v>
       </c>
       <c r="P176" s="19" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="Q176" s="19" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="V176" s="19" t="s">
         <v>531</v>
@@ -19858,13 +19867,13 @@
         <v>1</v>
       </c>
       <c r="G177" s="19" t="s">
-        <v>1254</v>
+        <v>1245</v>
       </c>
       <c r="H177" s="19" t="s">
-        <v>1279</v>
+        <v>1270</v>
       </c>
       <c r="I177" s="19" t="s">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="K177" s="19">
         <v>-28</v>
@@ -19882,10 +19891,10 @@
         <v>1800</v>
       </c>
       <c r="P177" s="19" t="s">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="Q177" s="19" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="V177" s="19" t="s">
         <v>531</v>
@@ -19926,13 +19935,13 @@
         <v>1</v>
       </c>
       <c r="G178" s="19" t="s">
-        <v>1255</v>
+        <v>1246</v>
       </c>
       <c r="H178" s="19" t="s">
         <v>492</v>
       </c>
       <c r="I178" s="19" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="K178" s="19">
         <v>-28</v>
@@ -19950,10 +19959,10 @@
         <v>4800</v>
       </c>
       <c r="P178" s="19" t="s">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="Q178" s="19" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="V178" s="19" t="s">
         <v>531</v>
@@ -19994,13 +20003,13 @@
         <v>1</v>
       </c>
       <c r="G179" s="19" t="s">
-        <v>1254</v>
+        <v>1245</v>
       </c>
       <c r="H179" s="19" t="s">
-        <v>1280</v>
+        <v>1271</v>
       </c>
       <c r="I179" s="19" t="s">
-        <v>1022</v>
+        <v>1015</v>
       </c>
       <c r="K179" s="19">
         <v>-28</v>
@@ -20018,10 +20027,10 @@
         <v>9800</v>
       </c>
       <c r="P179" s="19" t="s">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="Q179" s="19" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="V179" s="19" t="s">
         <v>531</v>
@@ -20062,13 +20071,13 @@
         <v>1</v>
       </c>
       <c r="G180" s="19" t="s">
-        <v>1255</v>
+        <v>1246</v>
       </c>
       <c r="H180" s="19" t="s">
-        <v>1281</v>
+        <v>1272</v>
       </c>
       <c r="I180" s="19" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="K180" s="19">
         <v>-28</v>
@@ -20086,10 +20095,10 @@
         <v>4800</v>
       </c>
       <c r="P180" s="19" t="s">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="Q180" s="19" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="V180" s="19" t="s">
         <v>531</v>
@@ -20130,13 +20139,13 @@
         <v>1</v>
       </c>
       <c r="G181" s="19" t="s">
-        <v>1255</v>
+        <v>1246</v>
       </c>
       <c r="H181" s="19" t="s">
-        <v>1282</v>
+        <v>1273</v>
       </c>
       <c r="I181" s="19" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="K181" s="19">
         <v>-28</v>
@@ -20154,10 +20163,10 @@
         <v>9800</v>
       </c>
       <c r="P181" s="19" t="s">
-        <v>1017</v>
+        <v>1010</v>
       </c>
       <c r="Q181" s="19" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="V181" s="19" t="s">
         <v>531</v>
@@ -20198,13 +20207,13 @@
         <v>1</v>
       </c>
       <c r="G182" s="19" t="s">
-        <v>1254</v>
+        <v>1245</v>
       </c>
       <c r="H182" s="19" t="s">
-        <v>1283</v>
+        <v>1274</v>
       </c>
       <c r="I182" s="19" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="K182" s="19">
         <v>-28</v>
@@ -20222,10 +20231,10 @@
         <v>19800</v>
       </c>
       <c r="P182" s="19" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="Q182" s="19" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="V182" s="19" t="s">
         <v>531</v>
@@ -20266,13 +20275,13 @@
         <v>1</v>
       </c>
       <c r="G183" s="19" t="s">
-        <v>1255</v>
+        <v>1246</v>
       </c>
       <c r="H183" s="19" t="s">
-        <v>1284</v>
+        <v>1275</v>
       </c>
       <c r="I183" s="19" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="K183" s="19">
         <v>-28</v>
@@ -20290,10 +20299,10 @@
         <v>9800</v>
       </c>
       <c r="P183" s="19" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="Q183" s="19" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="V183" s="19" t="s">
         <v>531</v>
@@ -20334,13 +20343,13 @@
         <v>1</v>
       </c>
       <c r="G184" s="19" t="s">
-        <v>1255</v>
+        <v>1246</v>
       </c>
       <c r="H184" s="19" t="s">
-        <v>1285</v>
+        <v>1276</v>
       </c>
       <c r="I184" s="19" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="K184" s="19">
         <v>-28</v>
@@ -20358,10 +20367,10 @@
         <v>19800</v>
       </c>
       <c r="P184" s="19" t="s">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="Q184" s="19" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="V184" s="19" t="s">
         <v>531</v>
@@ -20402,13 +20411,13 @@
         <v>1</v>
       </c>
       <c r="G185" s="19" t="s">
-        <v>1254</v>
+        <v>1245</v>
       </c>
       <c r="H185" s="19" t="s">
-        <v>1286</v>
+        <v>1277</v>
       </c>
       <c r="I185" s="19" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="K185" s="19">
         <v>-28</v>
@@ -20426,10 +20435,10 @@
         <v>49800</v>
       </c>
       <c r="P185" s="19" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="Q185" s="19" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="V185" s="19" t="s">
         <v>531</v>
@@ -20473,7 +20482,7 @@
         <v>317</v>
       </c>
       <c r="I186" s="5" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="K186" s="5">
         <v>-29</v>
@@ -20494,13 +20503,13 @@
         <v>450</v>
       </c>
       <c r="Q186" s="5" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="S186" s="5" t="s">
         <v>320</v>
       </c>
       <c r="T186" s="5" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="V186" s="5" t="s">
         <v>528</v>
@@ -20535,7 +20544,7 @@
         <v>364</v>
       </c>
       <c r="I187" s="5" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="K187" s="5">
         <v>-28</v>
@@ -20600,7 +20609,7 @@
         <v>366</v>
       </c>
       <c r="I188" s="5" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="K188" s="5">
         <v>-28</v>
@@ -20665,7 +20674,7 @@
         <v>368</v>
       </c>
       <c r="I189" s="5" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="K189" s="5">
         <v>-28</v>
@@ -20730,7 +20739,7 @@
         <v>370</v>
       </c>
       <c r="I190" s="5" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="K190" s="5">
         <v>-28</v>
@@ -20795,7 +20804,7 @@
         <v>372</v>
       </c>
       <c r="I191" s="5" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="K191" s="5">
         <v>-28</v>
@@ -20860,7 +20869,7 @@
         <v>374</v>
       </c>
       <c r="I192" s="5" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="K192" s="5">
         <v>-28</v>
@@ -20925,7 +20934,7 @@
         <v>376</v>
       </c>
       <c r="I193" s="5" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="K193" s="5">
         <v>-28</v>
@@ -20990,7 +20999,7 @@
         <v>378</v>
       </c>
       <c r="I194" s="5" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="K194" s="5">
         <v>-28</v>
@@ -21055,7 +21064,7 @@
         <v>380</v>
       </c>
       <c r="I195" s="5" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="K195" s="5">
         <v>-28</v>
@@ -21120,7 +21129,7 @@
         <v>382</v>
       </c>
       <c r="I196" s="5" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="K196" s="5">
         <v>-28</v>
@@ -21185,7 +21194,7 @@
         <v>384</v>
       </c>
       <c r="I197" s="5" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="K197" s="5">
         <v>-28</v>
@@ -21250,7 +21259,7 @@
         <v>386</v>
       </c>
       <c r="I198" s="5" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="K198" s="5">
         <v>-28</v>
@@ -21315,7 +21324,7 @@
         <v>388</v>
       </c>
       <c r="I199" s="5" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="K199" s="5">
         <v>-28</v>
@@ -21380,7 +21389,7 @@
         <v>389</v>
       </c>
       <c r="I200" s="5" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="K200" s="5">
         <v>-28</v>
@@ -21445,7 +21454,7 @@
         <v>390</v>
       </c>
       <c r="I201" s="5" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="K201" s="5">
         <v>-28</v>
@@ -21510,7 +21519,7 @@
         <v>364</v>
       </c>
       <c r="I202" s="5" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="K202" s="5">
         <v>-28</v>
@@ -21575,7 +21584,7 @@
         <v>366</v>
       </c>
       <c r="I203" s="5" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="K203" s="5">
         <v>-28</v>
@@ -21640,7 +21649,7 @@
         <v>368</v>
       </c>
       <c r="I204" s="5" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="K204" s="5">
         <v>-28</v>
@@ -21705,7 +21714,7 @@
         <v>370</v>
       </c>
       <c r="I205" s="5" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="K205" s="5">
         <v>-28</v>
@@ -21770,7 +21779,7 @@
         <v>372</v>
       </c>
       <c r="I206" s="5" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="K206" s="5">
         <v>-28</v>
@@ -21835,7 +21844,7 @@
         <v>374</v>
       </c>
       <c r="I207" s="5" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="K207" s="5">
         <v>-28</v>
@@ -21900,7 +21909,7 @@
         <v>376</v>
       </c>
       <c r="I208" s="5" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="K208" s="5">
         <v>-28</v>
@@ -21965,7 +21974,7 @@
         <v>378</v>
       </c>
       <c r="I209" s="5" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="K209" s="5">
         <v>-28</v>
@@ -22030,7 +22039,7 @@
         <v>380</v>
       </c>
       <c r="I210" s="5" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="K210" s="5">
         <v>-28</v>
@@ -22095,7 +22104,7 @@
         <v>382</v>
       </c>
       <c r="I211" s="5" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="K211" s="5">
         <v>-28</v>
@@ -22160,7 +22169,7 @@
         <v>384</v>
       </c>
       <c r="I212" s="5" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="K212" s="5">
         <v>-28</v>
@@ -22225,7 +22234,7 @@
         <v>386</v>
       </c>
       <c r="I213" s="5" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="K213" s="5">
         <v>-28</v>
@@ -22290,7 +22299,7 @@
         <v>388</v>
       </c>
       <c r="I214" s="5" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="K214" s="5">
         <v>-28</v>
@@ -22355,7 +22364,7 @@
         <v>389</v>
       </c>
       <c r="I215" s="5" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="K215" s="5">
         <v>-28</v>
@@ -22420,7 +22429,7 @@
         <v>390</v>
       </c>
       <c r="I216" s="5" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="K216" s="5">
         <v>-28</v>
@@ -22485,7 +22494,7 @@
         <v>364</v>
       </c>
       <c r="I217" s="5" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="K217" s="5">
         <v>-28</v>
@@ -22550,7 +22559,7 @@
         <v>366</v>
       </c>
       <c r="I218" s="5" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="K218" s="5">
         <v>-28</v>
@@ -22615,7 +22624,7 @@
         <v>368</v>
       </c>
       <c r="I219" s="5" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="K219" s="5">
         <v>-28</v>
@@ -22680,7 +22689,7 @@
         <v>370</v>
       </c>
       <c r="I220" s="5" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="K220" s="5">
         <v>-28</v>
@@ -22745,7 +22754,7 @@
         <v>372</v>
       </c>
       <c r="I221" s="5" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="K221" s="5">
         <v>-28</v>
@@ -22810,7 +22819,7 @@
         <v>374</v>
       </c>
       <c r="I222" s="5" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="K222" s="5">
         <v>-28</v>
@@ -22875,7 +22884,7 @@
         <v>376</v>
       </c>
       <c r="I223" s="5" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="K223" s="5">
         <v>-28</v>
@@ -22940,7 +22949,7 @@
         <v>378</v>
       </c>
       <c r="I224" s="5" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="K224" s="5">
         <v>-28</v>
@@ -23005,7 +23014,7 @@
         <v>380</v>
       </c>
       <c r="I225" s="5" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="K225" s="5">
         <v>-28</v>
@@ -23070,7 +23079,7 @@
         <v>382</v>
       </c>
       <c r="I226" s="5" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="K226" s="5">
         <v>-28</v>
@@ -23135,7 +23144,7 @@
         <v>384</v>
       </c>
       <c r="I227" s="5" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="K227" s="5">
         <v>-28</v>
@@ -23200,7 +23209,7 @@
         <v>386</v>
       </c>
       <c r="I228" s="5" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="K228" s="5">
         <v>-28</v>
@@ -23265,7 +23274,7 @@
         <v>388</v>
       </c>
       <c r="I229" s="5" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="K229" s="5">
         <v>-28</v>
@@ -23330,7 +23339,7 @@
         <v>389</v>
       </c>
       <c r="I230" s="5" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="K230" s="5">
         <v>-28</v>
@@ -23395,7 +23404,7 @@
         <v>390</v>
       </c>
       <c r="I231" s="5" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="K231" s="5">
         <v>-28</v>
@@ -23460,7 +23469,7 @@
         <v>364</v>
       </c>
       <c r="I232" s="5" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="K232" s="5">
         <v>-28</v>
@@ -23525,7 +23534,7 @@
         <v>366</v>
       </c>
       <c r="I233" s="5" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="K233" s="5">
         <v>-28</v>
@@ -23590,7 +23599,7 @@
         <v>368</v>
       </c>
       <c r="I234" s="5" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="K234" s="5">
         <v>-28</v>
@@ -23655,7 +23664,7 @@
         <v>370</v>
       </c>
       <c r="I235" s="5" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="K235" s="5">
         <v>-28</v>
@@ -23720,7 +23729,7 @@
         <v>372</v>
       </c>
       <c r="I236" s="5" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="K236" s="5">
         <v>-28</v>
@@ -23785,7 +23794,7 @@
         <v>374</v>
       </c>
       <c r="I237" s="5" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="K237" s="5">
         <v>-28</v>
@@ -23850,7 +23859,7 @@
         <v>376</v>
       </c>
       <c r="I238" s="5" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="K238" s="5">
         <v>-28</v>
@@ -23915,7 +23924,7 @@
         <v>378</v>
       </c>
       <c r="I239" s="5" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="K239" s="5">
         <v>-28</v>
@@ -23980,7 +23989,7 @@
         <v>380</v>
       </c>
       <c r="I240" s="5" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="K240" s="5">
         <v>-28</v>
@@ -24045,7 +24054,7 @@
         <v>382</v>
       </c>
       <c r="I241" s="5" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="K241" s="5">
         <v>-28</v>
@@ -24110,7 +24119,7 @@
         <v>384</v>
       </c>
       <c r="I242" s="5" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="K242" s="5">
         <v>-28</v>
@@ -24175,7 +24184,7 @@
         <v>386</v>
       </c>
       <c r="I243" s="5" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="K243" s="5">
         <v>-28</v>
@@ -24240,7 +24249,7 @@
         <v>388</v>
       </c>
       <c r="I244" s="5" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="K244" s="5">
         <v>-28</v>
@@ -24305,7 +24314,7 @@
         <v>389</v>
       </c>
       <c r="I245" s="5" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="K245" s="5">
         <v>-28</v>
@@ -24370,7 +24379,7 @@
         <v>390</v>
       </c>
       <c r="I246" s="5" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="K246" s="5">
         <v>-28</v>
@@ -24432,11 +24441,11 @@
         <v>1</v>
       </c>
       <c r="G247" s="8" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="H247" s="8"/>
       <c r="I247" s="5" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="K247" s="5">
         <v>-28</v>
@@ -24457,7 +24466,7 @@
         <v>150</v>
       </c>
       <c r="Q247" s="5" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="V247" s="5" t="s">
         <v>531</v>
@@ -24502,7 +24511,7 @@
       </c>
       <c r="H248" s="8"/>
       <c r="I248" s="5" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="K248" s="5">
         <v>-28</v>
@@ -24523,7 +24532,7 @@
         <v>150</v>
       </c>
       <c r="Q248" s="5" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="V248" s="5" t="s">
         <v>531</v>
@@ -24568,7 +24577,7 @@
       </c>
       <c r="H249" s="8"/>
       <c r="I249" s="5" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="K249" s="5">
         <v>-28</v>
@@ -24589,7 +24598,7 @@
         <v>150</v>
       </c>
       <c r="Q249" s="5" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="V249" s="5" t="s">
         <v>531</v>
@@ -24634,7 +24643,7 @@
       </c>
       <c r="H250" s="43"/>
       <c r="I250" s="19" t="s">
-        <v>1035</v>
+        <v>1028</v>
       </c>
       <c r="K250" s="19">
         <v>-28</v>
@@ -24655,7 +24664,7 @@
         <v>448</v>
       </c>
       <c r="Q250" s="19" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="V250" s="19" t="s">
         <v>528</v>
@@ -24696,7 +24705,7 @@
         <v>317</v>
       </c>
       <c r="I251" s="5" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="K251" s="5">
         <v>-29</v>
@@ -24714,16 +24723,16 @@
         <v>600</v>
       </c>
       <c r="P251" s="5" t="s">
-        <v>1098</v>
+        <v>1089</v>
       </c>
       <c r="Q251" s="5" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="S251" s="5" t="s">
         <v>320</v>
       </c>
       <c r="T251" s="5" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="V251" s="5" t="s">
         <v>528</v>
@@ -24764,7 +24773,7 @@
         <v>470</v>
       </c>
       <c r="I252" s="5" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="K252" s="5">
         <v>-30</v>
@@ -24785,10 +24794,10 @@
         <v>448</v>
       </c>
       <c r="Q252" s="5" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="V252" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="W252" s="5">
         <v>9999999</v>
@@ -24826,7 +24835,7 @@
         <v>471</v>
       </c>
       <c r="I253" s="5" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="K253" s="5">
         <v>-30</v>
@@ -24847,7 +24856,7 @@
         <v>488</v>
       </c>
       <c r="Q253" s="5" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="V253" s="5" t="s">
         <v>531</v>
@@ -24885,10 +24894,10 @@
         <v>1</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>1256</v>
+        <v>1247</v>
       </c>
       <c r="I254" s="5" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="K254" s="5">
         <v>-31</v>
@@ -24909,7 +24918,7 @@
         <v>487</v>
       </c>
       <c r="Q254" s="5" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="V254" s="5" t="s">
         <v>531</v>
@@ -24953,7 +24962,7 @@
         <v>482</v>
       </c>
       <c r="I255" s="5" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="K255" s="5">
         <v>-31</v>
@@ -24974,7 +24983,7 @@
         <v>469</v>
       </c>
       <c r="Q255" s="5" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="V255" s="5" t="s">
         <v>531</v>
@@ -25018,7 +25027,7 @@
         <v>483</v>
       </c>
       <c r="I256" s="5" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="K256" s="5">
         <v>-31</v>
@@ -25039,7 +25048,7 @@
         <v>497</v>
       </c>
       <c r="Q256" s="5" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="V256" s="5" t="s">
         <v>531</v>
@@ -25080,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>1257</v>
+        <v>1248</v>
       </c>
       <c r="I257" s="5" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="K257" s="5">
         <v>-31</v>
@@ -25104,13 +25113,13 @@
         <v>582</v>
       </c>
       <c r="Q257" s="5" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="S257" s="5" t="s">
         <v>490</v>
       </c>
       <c r="T257" s="5" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="V257" s="5" t="s">
         <v>528</v>
@@ -25151,7 +25160,7 @@
         <v>519</v>
       </c>
       <c r="I258" s="5" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="K258" s="5">
         <v>-31</v>
@@ -25216,7 +25225,7 @@
         <v>366</v>
       </c>
       <c r="I259" s="5" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="K259" s="5">
         <v>-31</v>
@@ -25281,7 +25290,7 @@
         <v>368</v>
       </c>
       <c r="I260" s="5" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="K260" s="5">
         <v>-31</v>
@@ -25346,7 +25355,7 @@
         <v>370</v>
       </c>
       <c r="I261" s="5" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="K261" s="5">
         <v>-31</v>
@@ -25411,7 +25420,7 @@
         <v>372</v>
       </c>
       <c r="I262" s="5" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="K262" s="5">
         <v>-31</v>
@@ -25476,7 +25485,7 @@
         <v>374</v>
       </c>
       <c r="I263" s="5" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="K263" s="5">
         <v>-31</v>
@@ -25541,7 +25550,7 @@
         <v>491</v>
       </c>
       <c r="I264" s="5" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="K264" s="5">
         <v>-31</v>
@@ -25603,10 +25612,10 @@
         <v>0</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>1258</v>
+        <v>1249</v>
       </c>
       <c r="I265" s="5" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="K265" s="5">
         <v>-31</v>
@@ -25671,7 +25680,7 @@
         <v>493</v>
       </c>
       <c r="I266" s="5" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="K266" s="5">
         <v>-31</v>
@@ -25736,7 +25745,7 @@
         <v>494</v>
       </c>
       <c r="I267" s="5" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="K267" s="5">
         <v>-31</v>
@@ -25801,7 +25810,7 @@
         <v>495</v>
       </c>
       <c r="I268" s="5" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="K268" s="5">
         <v>-31</v>
@@ -25863,10 +25872,10 @@
         <v>0</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>1259</v>
+        <v>1250</v>
       </c>
       <c r="I269" s="5" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="K269" s="5">
         <v>-31</v>
@@ -25931,7 +25940,7 @@
         <v>388</v>
       </c>
       <c r="I270" s="5" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="K270" s="5">
         <v>-31</v>
@@ -25996,7 +26005,7 @@
         <v>389</v>
       </c>
       <c r="I271" s="5" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="K271" s="5">
         <v>-31</v>
@@ -26061,7 +26070,7 @@
         <v>390</v>
       </c>
       <c r="I272" s="5" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="K272" s="5">
         <v>-31</v>
@@ -26147,7 +26156,7 @@
         <v>80</v>
       </c>
       <c r="Q273" s="5" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="V273" s="5" t="s">
         <v>528</v>
@@ -26185,7 +26194,7 @@
       </c>
       <c r="H274" s="5"/>
       <c r="I274" s="5" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="J274" s="5"/>
       <c r="K274" s="5">
@@ -26207,7 +26216,7 @@
         <v>527</v>
       </c>
       <c r="Q274" s="5" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="R274" s="5"/>
       <c r="S274" s="5"/>
@@ -26258,7 +26267,7 @@
         <v>532</v>
       </c>
       <c r="I275" s="5" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="K275" s="5">
         <v>-31</v>
@@ -26279,7 +26288,7 @@
         <v>562</v>
       </c>
       <c r="Q275" s="5" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="V275" s="5" t="s">
         <v>528</v>
@@ -26323,7 +26332,7 @@
         <v>533</v>
       </c>
       <c r="I276" s="5" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="K276" s="5">
         <v>-31</v>
@@ -26344,7 +26353,7 @@
         <v>541</v>
       </c>
       <c r="Q276" s="5" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="V276" s="5" t="s">
         <v>531</v>
@@ -26385,10 +26394,10 @@
         <v>0</v>
       </c>
       <c r="G277" s="5" t="s">
-        <v>1260</v>
+        <v>1251</v>
       </c>
       <c r="I277" s="5" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="K277" s="5">
         <v>-31</v>
@@ -26409,7 +26418,7 @@
         <v>541</v>
       </c>
       <c r="Q277" s="5" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="V277" s="5" t="s">
         <v>538</v>
@@ -26450,10 +26459,10 @@
         <v>0</v>
       </c>
       <c r="G278" s="5" t="s">
-        <v>1261</v>
+        <v>1252</v>
       </c>
       <c r="I278" s="5" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="K278" s="5">
         <v>-31</v>
@@ -26474,7 +26483,7 @@
         <v>541</v>
       </c>
       <c r="Q278" s="5" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="V278" s="5" t="s">
         <v>539</v>
@@ -26515,10 +26524,10 @@
         <v>0</v>
       </c>
       <c r="G279" s="5" t="s">
-        <v>1262</v>
+        <v>1253</v>
       </c>
       <c r="I279" s="5" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="K279" s="5">
         <v>-31</v>
@@ -26539,7 +26548,7 @@
         <v>541</v>
       </c>
       <c r="Q279" s="5" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="V279" s="5" t="s">
         <v>540</v>
@@ -26580,10 +26589,10 @@
         <v>0</v>
       </c>
       <c r="G280" s="5" t="s">
-        <v>1263</v>
+        <v>1254</v>
       </c>
       <c r="I280" s="5" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="K280" s="5">
         <v>-31</v>
@@ -26604,7 +26613,7 @@
         <v>541</v>
       </c>
       <c r="Q280" s="5" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="V280" s="5" t="s">
         <v>528</v>
@@ -26648,7 +26657,7 @@
         <v>534</v>
       </c>
       <c r="I281" s="5" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="K281" s="5">
         <v>-31</v>
@@ -26669,7 +26678,7 @@
         <v>541</v>
       </c>
       <c r="Q281" s="5" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="V281" s="5" t="s">
         <v>531</v>
@@ -26713,7 +26722,7 @@
         <v>535</v>
       </c>
       <c r="I282" s="5" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="K282" s="5">
         <v>-31</v>
@@ -26734,7 +26743,7 @@
         <v>541</v>
       </c>
       <c r="Q282" s="5" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="V282" s="5" t="s">
         <v>538</v>
@@ -26778,7 +26787,7 @@
         <v>536</v>
       </c>
       <c r="I283" s="5" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="K283" s="5">
         <v>-31</v>
@@ -26799,7 +26808,7 @@
         <v>541</v>
       </c>
       <c r="Q283" s="5" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="V283" s="5" t="s">
         <v>539</v>
@@ -26843,7 +26852,7 @@
         <v>537</v>
       </c>
       <c r="I284" s="5" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="K284" s="5">
         <v>-31</v>
@@ -26864,7 +26873,7 @@
         <v>541</v>
       </c>
       <c r="Q284" s="5" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="V284" s="5" t="s">
         <v>540</v>
@@ -26929,7 +26938,7 @@
         <v>541</v>
       </c>
       <c r="Q285" s="5" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="V285" s="5" t="s">
         <v>531</v>
@@ -26991,7 +27000,7 @@
         <v>541</v>
       </c>
       <c r="Q286" s="5" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="V286" s="5" t="s">
         <v>531</v>
@@ -27053,7 +27062,7 @@
         <v>541</v>
       </c>
       <c r="Q287" s="5" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="V287" s="5" t="s">
         <v>531</v>
@@ -27115,7 +27124,7 @@
         <v>541</v>
       </c>
       <c r="Q288" s="5" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="V288" s="5" t="s">
         <v>531</v>
@@ -27177,7 +27186,7 @@
         <v>541</v>
       </c>
       <c r="Q289" s="5" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="V289" s="5" t="s">
         <v>531</v>
@@ -27239,7 +27248,7 @@
         <v>541</v>
       </c>
       <c r="Q290" s="5" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="V290" s="5" t="s">
         <v>531</v>
@@ -27301,7 +27310,7 @@
         <v>541</v>
       </c>
       <c r="Q291" s="5" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="V291" s="5" t="s">
         <v>531</v>
@@ -27363,7 +27372,7 @@
         <v>541</v>
       </c>
       <c r="Q292" s="5" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="V292" s="5" t="s">
         <v>531</v>
@@ -27422,10 +27431,10 @@
         <v>249800</v>
       </c>
       <c r="P293" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Q293" s="5" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="V293" s="5" t="s">
         <v>531</v>
@@ -27463,10 +27472,10 @@
         <v>0</v>
       </c>
       <c r="G294" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I294" s="5" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="K294" s="5">
         <v>-31</v>
@@ -27487,7 +27496,7 @@
         <v>581</v>
       </c>
       <c r="Q294" s="5" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="V294" s="5" t="s">
         <v>531</v>
@@ -27525,10 +27534,10 @@
         <v>0</v>
       </c>
       <c r="G295" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I295" s="5" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="K295" s="5">
         <v>-31</v>
@@ -27549,7 +27558,7 @@
         <v>581</v>
       </c>
       <c r="Q295" s="5" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="V295" s="5" t="s">
         <v>531</v>
@@ -27587,10 +27596,10 @@
         <v>0</v>
       </c>
       <c r="G296" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I296" s="5" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="K296" s="5">
         <v>-31</v>
@@ -27611,7 +27620,7 @@
         <v>581</v>
       </c>
       <c r="Q296" s="5" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="V296" s="5" t="s">
         <v>531</v>
@@ -27649,10 +27658,10 @@
         <v>0</v>
       </c>
       <c r="G297" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I297" s="5" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="K297" s="5">
         <v>-31</v>
@@ -27673,7 +27682,7 @@
         <v>581</v>
       </c>
       <c r="Q297" s="5" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="V297" s="5" t="s">
         <v>531</v>
@@ -27711,10 +27720,10 @@
         <v>0</v>
       </c>
       <c r="G298" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I298" s="5" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="K298" s="5">
         <v>-31</v>
@@ -27735,7 +27744,7 @@
         <v>580</v>
       </c>
       <c r="Q298" s="5" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="V298" s="5" t="s">
         <v>531</v>
@@ -27773,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="G299" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I299" s="5" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="K299" s="5">
         <v>-31</v>
@@ -27797,7 +27806,7 @@
         <v>579</v>
       </c>
       <c r="Q299" s="5" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="V299" s="5" t="s">
         <v>531</v>
@@ -27835,10 +27844,10 @@
         <v>0</v>
       </c>
       <c r="G300" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I300" s="5" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="K300" s="5">
         <v>-31</v>
@@ -27859,7 +27868,7 @@
         <v>579</v>
       </c>
       <c r="Q300" s="5" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="V300" s="5" t="s">
         <v>531</v>
@@ -27897,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="G301" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I301" s="5" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="K301" s="5">
         <v>-31</v>
@@ -27921,7 +27930,7 @@
         <v>579</v>
       </c>
       <c r="Q301" s="5" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="V301" s="5" t="s">
         <v>531</v>
@@ -27959,10 +27968,10 @@
         <v>0</v>
       </c>
       <c r="G302" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I302" s="5" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="K302" s="5">
         <v>-31</v>
@@ -27983,7 +27992,7 @@
         <v>579</v>
       </c>
       <c r="Q302" s="5" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="V302" s="5" t="s">
         <v>531</v>
@@ -28021,10 +28030,10 @@
         <v>0</v>
       </c>
       <c r="G303" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I303" s="5" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="K303" s="5">
         <v>-31</v>
@@ -28045,7 +28054,7 @@
         <v>579</v>
       </c>
       <c r="Q303" s="5" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="V303" s="5" t="s">
         <v>531</v>
@@ -28083,10 +28092,10 @@
         <v>0</v>
       </c>
       <c r="G304" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I304" s="5" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="K304" s="5">
         <v>-31</v>
@@ -28107,7 +28116,7 @@
         <v>579</v>
       </c>
       <c r="Q304" s="5" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="V304" s="5" t="s">
         <v>531</v>
@@ -28145,10 +28154,10 @@
         <v>0</v>
       </c>
       <c r="G305" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I305" s="5" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="K305" s="5">
         <v>-31</v>
@@ -28169,7 +28178,7 @@
         <v>579</v>
       </c>
       <c r="Q305" s="5" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="V305" s="5" t="s">
         <v>531</v>
@@ -28207,10 +28216,10 @@
         <v>0</v>
       </c>
       <c r="G306" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I306" s="5" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="K306" s="5">
         <v>-31</v>
@@ -28231,7 +28240,7 @@
         <v>579</v>
       </c>
       <c r="Q306" s="5" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="V306" s="5" t="s">
         <v>531</v>
@@ -28269,10 +28278,10 @@
         <v>0</v>
       </c>
       <c r="G307" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I307" s="5" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="K307" s="5">
         <v>-31</v>
@@ -28293,7 +28302,7 @@
         <v>579</v>
       </c>
       <c r="Q307" s="5" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="V307" s="5" t="s">
         <v>531</v>
@@ -28331,10 +28340,10 @@
         <v>0</v>
       </c>
       <c r="G308" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I308" s="5" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="K308" s="5">
         <v>-31</v>
@@ -28352,10 +28361,10 @@
         <v>49800</v>
       </c>
       <c r="P308" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="Q308" s="5" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="V308" s="5" t="s">
         <v>531</v>
@@ -28393,10 +28402,10 @@
         <v>0</v>
       </c>
       <c r="G309" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I309" s="5" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="K309" s="5">
         <v>-31</v>
@@ -28414,10 +28423,10 @@
         <v>0</v>
       </c>
       <c r="P309" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="Q309" s="5" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="V309" s="5" t="s">
         <v>531</v>
@@ -28455,10 +28464,10 @@
         <v>0</v>
       </c>
       <c r="G310" s="5" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="I310" s="5" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="K310" s="5">
         <v>-31</v>
@@ -28476,10 +28485,10 @@
         <v>0</v>
       </c>
       <c r="P310" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Q310" s="5" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="V310" s="5" t="s">
         <v>531</v>
@@ -28517,10 +28526,10 @@
         <v>0</v>
       </c>
       <c r="G311" s="5" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="I311" s="5" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="K311" s="5">
         <v>-31</v>
@@ -28538,10 +28547,10 @@
         <v>600</v>
       </c>
       <c r="P311" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Q311" s="5" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="V311" s="5" t="s">
         <v>531</v>
@@ -28579,10 +28588,10 @@
         <v>0</v>
       </c>
       <c r="G312" s="5" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="I312" s="5" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="K312" s="5">
         <v>-31</v>
@@ -28600,13 +28609,13 @@
         <v>1800</v>
       </c>
       <c r="P312" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Q312" s="5" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="V312" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="W312" s="5">
         <v>9999999</v>
@@ -28641,10 +28650,10 @@
         <v>0</v>
       </c>
       <c r="G313" s="5" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
       <c r="I313" s="5" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="K313" s="5">
         <v>-31</v>
@@ -28662,13 +28671,13 @@
         <v>4800</v>
       </c>
       <c r="P313" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Q313" s="5" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="V313" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="W313" s="5">
         <v>9999999</v>
@@ -28703,10 +28712,10 @@
         <v>0</v>
       </c>
       <c r="G314" s="5" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="I314" s="5" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="K314" s="5">
         <v>-31</v>
@@ -28724,13 +28733,13 @@
         <v>9800</v>
       </c>
       <c r="P314" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Q314" s="5" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="V314" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="W314" s="5">
         <v>9999999</v>
@@ -28765,10 +28774,10 @@
         <v>0</v>
       </c>
       <c r="G315" s="5" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
       <c r="I315" s="5" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="K315" s="5">
         <v>-31</v>
@@ -28786,13 +28795,13 @@
         <v>19800</v>
       </c>
       <c r="P315" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Q315" s="5" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="V315" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="W315" s="5">
         <v>9999999</v>
@@ -28827,10 +28836,10 @@
         <v>0</v>
       </c>
       <c r="G316" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I316" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="K316" s="5">
         <v>-31</v>
@@ -28848,13 +28857,13 @@
         <v>0</v>
       </c>
       <c r="P316" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="Q316" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="V316" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="W316" s="5">
         <v>20</v>
@@ -28889,10 +28898,10 @@
         <v>0</v>
       </c>
       <c r="G317" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I317" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K317" s="5">
         <v>-31</v>
@@ -28910,13 +28919,13 @@
         <v>0</v>
       </c>
       <c r="P317" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="Q317" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V317" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="W317" s="5">
         <v>20</v>
@@ -28951,10 +28960,10 @@
         <v>0</v>
       </c>
       <c r="G318" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I318" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="K318" s="5">
         <v>-31</v>
@@ -28972,13 +28981,13 @@
         <v>0</v>
       </c>
       <c r="P318" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="Q318" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="V318" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="W318" s="5">
         <v>9</v>
@@ -29013,10 +29022,10 @@
         <v>1</v>
       </c>
       <c r="G319" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I319" s="5" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="K319" s="5">
         <v>-23</v>
@@ -29034,10 +29043,10 @@
         <v>4800</v>
       </c>
       <c r="P319" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="Q319" s="5" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="V319" s="5" t="s">
         <v>530</v>
@@ -29069,10 +29078,10 @@
         <v>1</v>
       </c>
       <c r="G320" s="5" t="s">
-        <v>1264</v>
+        <v>1255</v>
       </c>
       <c r="I320" s="5" t="s">
-        <v>1448</v>
+        <v>1439</v>
       </c>
       <c r="K320" s="5">
         <v>-25</v>
@@ -29090,10 +29099,10 @@
         <v>9600</v>
       </c>
       <c r="P320" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Q320" s="5" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="V320" s="5" t="s">
         <v>530</v>
@@ -29125,10 +29134,10 @@
         <v>1</v>
       </c>
       <c r="G321" s="5" t="s">
-        <v>1265</v>
+        <v>1256</v>
       </c>
       <c r="I321" s="5" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="K321" s="5">
         <v>-23</v>
@@ -29140,16 +29149,16 @@
         <v>0</v>
       </c>
       <c r="N321" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="O321" s="5">
         <v>9800</v>
       </c>
       <c r="P321" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Q321" s="5" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="V321" s="5" t="s">
         <v>528</v>
@@ -29187,10 +29196,10 @@
         <v>1</v>
       </c>
       <c r="G322" s="5" t="s">
-        <v>1266</v>
+        <v>1257</v>
       </c>
       <c r="I322" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K322" s="5">
         <v>-25</v>
@@ -29202,16 +29211,16 @@
         <v>0</v>
       </c>
       <c r="N322" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="O322" s="5">
         <v>19800</v>
       </c>
       <c r="P322" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="Q322" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="V322" s="5" t="s">
         <v>528</v>
@@ -29252,11 +29261,11 @@
         <v>1</v>
       </c>
       <c r="G323" s="19" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="H323" s="19"/>
       <c r="I323" s="19" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="J323" s="19"/>
       <c r="K323" s="19">
@@ -29275,10 +29284,10 @@
         <v>600</v>
       </c>
       <c r="P323" s="19" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="Q323" s="19" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
       <c r="R323" s="19"/>
       <c r="S323" s="19"/>
@@ -29335,11 +29344,11 @@
         <v>1</v>
       </c>
       <c r="G324" s="19" t="s">
-        <v>1002</v>
+        <v>995</v>
       </c>
       <c r="H324" s="19"/>
       <c r="I324" s="19" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="J324" s="19"/>
       <c r="K324" s="19">
@@ -29358,10 +29367,10 @@
         <v>4800</v>
       </c>
       <c r="P324" s="19" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="Q324" s="19" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="R324" s="19"/>
       <c r="S324" s="19"/>
@@ -29418,11 +29427,11 @@
         <v>1</v>
       </c>
       <c r="G325" s="19" t="s">
-        <v>1267</v>
+        <v>1258</v>
       </c>
       <c r="H325" s="19"/>
       <c r="I325" s="19" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="J325" s="19"/>
       <c r="K325" s="19">
@@ -29441,10 +29450,10 @@
         <v>9800</v>
       </c>
       <c r="P325" s="19" t="s">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="Q325" s="19" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="R325" s="19"/>
       <c r="S325" s="19"/>
@@ -29498,10 +29507,10 @@
         <v>1</v>
       </c>
       <c r="G326" s="41" t="s">
-        <v>1268</v>
+        <v>1259</v>
       </c>
       <c r="I326" s="41" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="K326" s="41">
         <v>-4</v>
@@ -29513,13 +29522,13 @@
         <v>0</v>
       </c>
       <c r="N326" s="41" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="O326" s="41">
         <v>100</v>
       </c>
       <c r="V326" s="41" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="W326" s="41">
         <v>9999999</v>
@@ -29531,13 +29540,13 @@
         <v>2552233600</v>
       </c>
       <c r="AA326" s="41" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="AB326" s="41" t="s">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="AC326" s="42" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="AG326" s="41">
         <v>1</v>
@@ -29557,10 +29566,10 @@
         <v>1</v>
       </c>
       <c r="G327" s="44" t="s">
-        <v>1269</v>
+        <v>1260</v>
       </c>
       <c r="I327" s="44" t="s">
-        <v>1051</v>
+        <v>1044</v>
       </c>
       <c r="K327" s="44">
         <v>-31</v>
@@ -29572,19 +29581,19 @@
         <v>0</v>
       </c>
       <c r="N327" s="44" t="s">
-        <v>1038</v>
+        <v>1031</v>
       </c>
       <c r="O327" s="44">
         <v>9900</v>
       </c>
       <c r="P327" s="44" t="s">
-        <v>1039</v>
+        <v>1032</v>
       </c>
       <c r="Q327" s="44" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
       <c r="V327" s="44" t="s">
-        <v>1040</v>
+        <v>1033</v>
       </c>
       <c r="W327" s="44">
         <v>99999999</v>
@@ -29622,11 +29631,11 @@
         <v>1</v>
       </c>
       <c r="G328" s="44" t="s">
-        <v>1044</v>
+        <v>1037</v>
       </c>
       <c r="H328" s="44"/>
       <c r="I328" s="44" t="s">
-        <v>1052</v>
+        <v>1045</v>
       </c>
       <c r="J328" s="44"/>
       <c r="K328" s="44">
@@ -29639,23 +29648,23 @@
         <v>0</v>
       </c>
       <c r="N328" s="44" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="O328" s="44">
         <v>600</v>
       </c>
       <c r="P328" s="44" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="Q328" s="44" t="s">
-        <v>1063</v>
+        <v>1056</v>
       </c>
       <c r="R328" s="44"/>
       <c r="S328" s="44"/>
       <c r="T328" s="44"/>
       <c r="U328" s="44"/>
       <c r="V328" s="44" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="W328" s="44">
         <v>99999999</v>
@@ -29704,11 +29713,11 @@
         <v>1</v>
       </c>
       <c r="G329" s="44" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="H329" s="44"/>
       <c r="I329" s="44" t="s">
-        <v>1053</v>
+        <v>1046</v>
       </c>
       <c r="J329" s="44"/>
       <c r="K329" s="44">
@@ -29721,23 +29730,23 @@
         <v>0</v>
       </c>
       <c r="N329" s="44" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="O329" s="44">
         <v>2800</v>
       </c>
       <c r="P329" s="44" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="Q329" s="44" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="R329" s="44"/>
       <c r="S329" s="44"/>
       <c r="T329" s="44"/>
       <c r="U329" s="44"/>
       <c r="V329" s="44" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="W329" s="44">
         <v>99999999</v>
@@ -29786,11 +29795,11 @@
         <v>1</v>
       </c>
       <c r="G330" s="44" t="s">
-        <v>1042</v>
+        <v>1035</v>
       </c>
       <c r="H330" s="44"/>
       <c r="I330" s="44" t="s">
-        <v>1054</v>
+        <v>1047</v>
       </c>
       <c r="J330" s="44"/>
       <c r="K330" s="44">
@@ -29803,23 +29812,23 @@
         <v>0</v>
       </c>
       <c r="N330" s="44" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="O330" s="44">
         <v>4800</v>
       </c>
       <c r="P330" s="44" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="Q330" s="44" t="s">
-        <v>1070</v>
+        <v>1063</v>
       </c>
       <c r="R330" s="44"/>
       <c r="S330" s="44"/>
       <c r="T330" s="44"/>
       <c r="U330" s="44"/>
       <c r="V330" s="44" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="W330" s="44">
         <v>99999999</v>
@@ -29868,11 +29877,11 @@
         <v>1</v>
       </c>
       <c r="G331" s="44" t="s">
-        <v>1043</v>
+        <v>1036</v>
       </c>
       <c r="H331" s="44"/>
       <c r="I331" s="44" t="s">
-        <v>1055</v>
+        <v>1048</v>
       </c>
       <c r="J331" s="44"/>
       <c r="K331" s="44">
@@ -29885,23 +29894,23 @@
         <v>0</v>
       </c>
       <c r="N331" s="44" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="O331" s="44">
         <v>9900</v>
       </c>
       <c r="P331" s="44" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="Q331" s="44" t="s">
-        <v>1071</v>
+        <v>1064</v>
       </c>
       <c r="R331" s="44"/>
       <c r="S331" s="44"/>
       <c r="T331" s="44"/>
       <c r="U331" s="44"/>
       <c r="V331" s="44" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="W331" s="44">
         <v>99999999</v>
@@ -29950,11 +29959,11 @@
         <v>1</v>
       </c>
       <c r="G332" s="44" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
       <c r="H332" s="44"/>
       <c r="I332" s="44" t="s">
-        <v>1056</v>
+        <v>1049</v>
       </c>
       <c r="J332" s="44"/>
       <c r="K332" s="44">
@@ -29967,23 +29976,23 @@
         <v>0</v>
       </c>
       <c r="N332" s="44" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="O332" s="44">
         <v>19800</v>
       </c>
       <c r="P332" s="44" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="Q332" s="44" t="s">
-        <v>1065</v>
+        <v>1058</v>
       </c>
       <c r="R332" s="44"/>
       <c r="S332" s="44"/>
       <c r="T332" s="44"/>
       <c r="U332" s="44"/>
       <c r="V332" s="44" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="W332" s="44">
         <v>99999999</v>
@@ -30032,11 +30041,11 @@
         <v>1</v>
       </c>
       <c r="G333" s="44" t="s">
-        <v>1046</v>
+        <v>1039</v>
       </c>
       <c r="H333" s="44"/>
       <c r="I333" s="44" t="s">
-        <v>1057</v>
+        <v>1050</v>
       </c>
       <c r="J333" s="44"/>
       <c r="K333" s="44">
@@ -30049,23 +30058,23 @@
         <v>0</v>
       </c>
       <c r="N333" s="44" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="O333" s="44">
         <v>29800</v>
       </c>
       <c r="P333" s="44" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="Q333" s="44" t="s">
-        <v>1066</v>
+        <v>1059</v>
       </c>
       <c r="R333" s="44"/>
       <c r="S333" s="44"/>
       <c r="T333" s="44"/>
       <c r="U333" s="44"/>
       <c r="V333" s="44" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="W333" s="44">
         <v>99999999</v>
@@ -30114,11 +30123,11 @@
         <v>1</v>
       </c>
       <c r="G334" s="44" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="H334" s="44"/>
       <c r="I334" s="44" t="s">
-        <v>1058</v>
+        <v>1051</v>
       </c>
       <c r="J334" s="44"/>
       <c r="K334" s="44">
@@ -30131,23 +30140,23 @@
         <v>0</v>
       </c>
       <c r="N334" s="44" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="O334" s="44">
         <v>39800</v>
       </c>
       <c r="P334" s="44" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="Q334" s="44" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="R334" s="44"/>
       <c r="S334" s="44"/>
       <c r="T334" s="44"/>
       <c r="U334" s="44"/>
       <c r="V334" s="44" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="W334" s="44">
         <v>99999999</v>
@@ -30196,11 +30205,11 @@
         <v>1</v>
       </c>
       <c r="G335" s="44" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
       <c r="H335" s="44"/>
       <c r="I335" s="44" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="J335" s="44"/>
       <c r="K335" s="44">
@@ -30213,23 +30222,23 @@
         <v>0</v>
       </c>
       <c r="N335" s="44" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="O335" s="44">
         <v>49800</v>
       </c>
       <c r="P335" s="44" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="Q335" s="44" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
       <c r="R335" s="44"/>
       <c r="S335" s="44"/>
       <c r="T335" s="44"/>
       <c r="U335" s="44"/>
       <c r="V335" s="44" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="W335" s="44">
         <v>99999999</v>
@@ -30278,11 +30287,11 @@
         <v>1</v>
       </c>
       <c r="G336" s="44" t="s">
-        <v>1049</v>
+        <v>1042</v>
       </c>
       <c r="H336" s="44"/>
       <c r="I336" s="44" t="s">
-        <v>1060</v>
+        <v>1053</v>
       </c>
       <c r="J336" s="44"/>
       <c r="K336" s="44">
@@ -30295,23 +30304,23 @@
         <v>0</v>
       </c>
       <c r="N336" s="44" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="O336" s="44">
         <v>59800</v>
       </c>
       <c r="P336" s="44" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="Q336" s="44" t="s">
-        <v>1068</v>
+        <v>1061</v>
       </c>
       <c r="R336" s="44"/>
       <c r="S336" s="44"/>
       <c r="T336" s="44"/>
       <c r="U336" s="44"/>
       <c r="V336" s="44" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="W336" s="44">
         <v>99999999</v>
@@ -30360,11 +30369,11 @@
         <v>1</v>
       </c>
       <c r="G337" s="44" t="s">
-        <v>1050</v>
+        <v>1043</v>
       </c>
       <c r="H337" s="44"/>
       <c r="I337" s="44" t="s">
-        <v>1061</v>
+        <v>1054</v>
       </c>
       <c r="J337" s="44"/>
       <c r="K337" s="44">
@@ -30377,23 +30386,23 @@
         <v>0</v>
       </c>
       <c r="N337" s="44" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="O337" s="44">
         <v>69800</v>
       </c>
       <c r="P337" s="44" t="s">
+        <v>1055</v>
+      </c>
+      <c r="Q337" s="44" t="s">
         <v>1062</v>
-      </c>
-      <c r="Q337" s="44" t="s">
-        <v>1069</v>
       </c>
       <c r="R337" s="44"/>
       <c r="S337" s="44"/>
       <c r="T337" s="44"/>
       <c r="U337" s="44"/>
       <c r="V337" s="44" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="W337" s="44">
         <v>99999999</v>
@@ -30439,10 +30448,10 @@
         <v>1</v>
       </c>
       <c r="G338" s="19" t="s">
-        <v>1270</v>
+        <v>1261</v>
       </c>
       <c r="I338" s="19" t="s">
-        <v>1092</v>
+        <v>1083</v>
       </c>
       <c r="K338" s="19">
         <v>-31</v>
@@ -30460,10 +30469,10 @@
         <v>19800</v>
       </c>
       <c r="P338" s="19" t="s">
-        <v>1090</v>
+        <v>1081</v>
       </c>
       <c r="Q338" s="19" t="s">
-        <v>1096</v>
+        <v>1087</v>
       </c>
       <c r="V338" s="19" t="s">
         <v>528</v>
@@ -30478,10 +30487,10 @@
         <v>2552233600</v>
       </c>
       <c r="AA338" s="19" t="s">
-        <v>1091</v>
+        <v>1082</v>
       </c>
       <c r="AB338" s="19" t="s">
-        <v>1099</v>
+        <v>1090</v>
       </c>
       <c r="AG338" s="19">
         <v>1</v>
@@ -30514,7 +30523,7 @@
       </c>
       <c r="H339" s="19"/>
       <c r="I339" s="19" t="s">
-        <v>1094</v>
+        <v>1085</v>
       </c>
       <c r="J339" s="19"/>
       <c r="K339" s="19">
@@ -30533,10 +30542,10 @@
         <v>30000</v>
       </c>
       <c r="P339" s="19" t="s">
-        <v>1090</v>
+        <v>1081</v>
       </c>
       <c r="Q339" s="19" t="s">
-        <v>1097</v>
+        <v>1088</v>
       </c>
       <c r="R339" s="19"/>
       <c r="S339" s="19"/>
@@ -30556,10 +30565,10 @@
       </c>
       <c r="Z339" s="19"/>
       <c r="AA339" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="AB339" s="19" t="s">
         <v>1091</v>
-      </c>
-      <c r="AB339" s="19" t="s">
-        <v>1100</v>
       </c>
       <c r="AC339" s="19"/>
       <c r="AD339" s="19"/>
@@ -30594,11 +30603,11 @@
         <v>1</v>
       </c>
       <c r="G340" s="19" t="s">
-        <v>1271</v>
+        <v>1262</v>
       </c>
       <c r="H340" s="19"/>
       <c r="I340" s="19" t="s">
-        <v>1093</v>
+        <v>1084</v>
       </c>
       <c r="J340" s="19"/>
       <c r="K340" s="19">
@@ -30617,10 +30626,10 @@
         <v>78000</v>
       </c>
       <c r="P340" s="19" t="s">
-        <v>1090</v>
+        <v>1081</v>
       </c>
       <c r="Q340" s="19" t="s">
-        <v>1095</v>
+        <v>1086</v>
       </c>
       <c r="R340" s="19"/>
       <c r="S340" s="19"/>
@@ -30640,10 +30649,10 @@
       </c>
       <c r="Z340" s="19"/>
       <c r="AA340" s="19" t="s">
-        <v>1091</v>
+        <v>1082</v>
       </c>
       <c r="AB340" s="19" t="s">
-        <v>1101</v>
+        <v>1092</v>
       </c>
       <c r="AC340" s="19"/>
       <c r="AD340" s="19"/>
@@ -30675,11 +30684,11 @@
         <v>1</v>
       </c>
       <c r="G341" s="6" t="s">
-        <v>1287</v>
+        <v>1278</v>
       </c>
       <c r="H341" s="6"/>
       <c r="I341" s="5" t="s">
-        <v>1288</v>
+        <v>1279</v>
       </c>
       <c r="K341" s="5">
         <v>-31</v>
@@ -30691,19 +30700,19 @@
         <v>0</v>
       </c>
       <c r="N341" s="5" t="s">
-        <v>1289</v>
+        <v>1280</v>
       </c>
       <c r="O341" s="5">
         <v>600</v>
       </c>
       <c r="P341" s="5" t="s">
-        <v>1290</v>
+        <v>1281</v>
       </c>
       <c r="Q341" s="10" t="s">
-        <v>1291</v>
+        <v>1282</v>
       </c>
       <c r="V341" s="5" t="s">
-        <v>1292</v>
+        <v>1283</v>
       </c>
       <c r="W341" s="5">
         <v>9999999</v>
@@ -30718,10 +30727,10 @@
         <v>26</v>
       </c>
       <c r="AA341" s="5" t="s">
-        <v>1293</v>
+        <v>1284</v>
       </c>
       <c r="AB341" s="5" t="s">
-        <v>1294</v>
+        <v>1285</v>
       </c>
       <c r="AG341" s="5">
         <v>1</v>
@@ -30747,10 +30756,10 @@
         <v>1</v>
       </c>
       <c r="G342" s="6" t="s">
-        <v>1295</v>
+        <v>1286</v>
       </c>
       <c r="I342" s="5" t="s">
-        <v>1296</v>
+        <v>1287</v>
       </c>
       <c r="K342" s="5">
         <v>-31</v>
@@ -30762,19 +30771,19 @@
         <v>0</v>
       </c>
       <c r="N342" s="5" t="s">
-        <v>1289</v>
+        <v>1280</v>
       </c>
       <c r="O342" s="5">
         <v>600</v>
       </c>
       <c r="P342" s="5" t="s">
-        <v>1290</v>
+        <v>1281</v>
       </c>
       <c r="Q342" s="10" t="s">
-        <v>1196</v>
+        <v>1187</v>
       </c>
       <c r="V342" s="5" t="s">
-        <v>1292</v>
+        <v>1283</v>
       </c>
       <c r="W342" s="5">
         <v>9999999</v>
@@ -30789,10 +30798,10 @@
         <v>27</v>
       </c>
       <c r="AA342" s="5" t="s">
-        <v>1293</v>
+        <v>1284</v>
       </c>
       <c r="AB342" s="5" t="s">
-        <v>1297</v>
+        <v>1288</v>
       </c>
       <c r="AG342" s="5">
         <v>1</v>
@@ -30818,10 +30827,10 @@
         <v>1</v>
       </c>
       <c r="G343" s="6" t="s">
-        <v>1298</v>
+        <v>1289</v>
       </c>
       <c r="I343" s="5" t="s">
-        <v>1299</v>
+        <v>1290</v>
       </c>
       <c r="K343" s="5">
         <v>-31</v>
@@ -30833,19 +30842,19 @@
         <v>0</v>
       </c>
       <c r="N343" s="5" t="s">
-        <v>1289</v>
+        <v>1280</v>
       </c>
       <c r="O343" s="5">
         <v>600</v>
       </c>
       <c r="P343" s="5" t="s">
-        <v>1290</v>
+        <v>1281</v>
       </c>
       <c r="Q343" s="10" t="s">
-        <v>1197</v>
+        <v>1188</v>
       </c>
       <c r="V343" s="5" t="s">
-        <v>1292</v>
+        <v>1283</v>
       </c>
       <c r="W343" s="5">
         <v>9999999</v>
@@ -30860,10 +30869,10 @@
         <v>28</v>
       </c>
       <c r="AA343" s="5" t="s">
-        <v>1293</v>
+        <v>1284</v>
       </c>
       <c r="AB343" s="5" t="s">
-        <v>1300</v>
+        <v>1291</v>
       </c>
       <c r="AG343" s="5">
         <v>1</v>
@@ -30889,10 +30898,10 @@
         <v>1</v>
       </c>
       <c r="G344" s="6" t="s">
-        <v>1301</v>
+        <v>1292</v>
       </c>
       <c r="I344" s="5" t="s">
-        <v>1302</v>
+        <v>1293</v>
       </c>
       <c r="K344" s="5">
         <v>-31</v>
@@ -30904,19 +30913,19 @@
         <v>0</v>
       </c>
       <c r="N344" s="5" t="s">
-        <v>1289</v>
+        <v>1280</v>
       </c>
       <c r="O344" s="5">
         <v>4800</v>
       </c>
       <c r="P344" s="5" t="s">
-        <v>1290</v>
+        <v>1281</v>
       </c>
       <c r="Q344" s="10" t="s">
-        <v>1303</v>
+        <v>1294</v>
       </c>
       <c r="V344" s="5" t="s">
-        <v>1292</v>
+        <v>1283</v>
       </c>
       <c r="W344" s="5">
         <v>9999999</v>
@@ -30931,10 +30940,10 @@
         <v>29</v>
       </c>
       <c r="AA344" s="5" t="s">
-        <v>1293</v>
+        <v>1284</v>
       </c>
       <c r="AB344" s="5" t="s">
-        <v>1304</v>
+        <v>1295</v>
       </c>
       <c r="AG344" s="5">
         <v>1</v>
@@ -30960,10 +30969,10 @@
         <v>1</v>
       </c>
       <c r="G345" s="6" t="s">
-        <v>1198</v>
+        <v>1189</v>
       </c>
       <c r="I345" s="5" t="s">
-        <v>1305</v>
+        <v>1296</v>
       </c>
       <c r="K345" s="5">
         <v>-31</v>
@@ -30975,19 +30984,19 @@
         <v>0</v>
       </c>
       <c r="N345" s="5" t="s">
-        <v>1289</v>
+        <v>1280</v>
       </c>
       <c r="O345" s="5">
         <v>4800</v>
       </c>
       <c r="P345" s="5" t="s">
-        <v>1290</v>
+        <v>1281</v>
       </c>
       <c r="Q345" s="10" t="s">
-        <v>1199</v>
+        <v>1190</v>
       </c>
       <c r="V345" s="5" t="s">
-        <v>1292</v>
+        <v>1283</v>
       </c>
       <c r="W345" s="5">
         <v>9999999</v>
@@ -31002,10 +31011,10 @@
         <v>30</v>
       </c>
       <c r="AA345" s="5" t="s">
-        <v>1293</v>
+        <v>1284</v>
       </c>
       <c r="AB345" s="5" t="s">
-        <v>1306</v>
+        <v>1297</v>
       </c>
       <c r="AG345" s="5">
         <v>1</v>
@@ -31031,10 +31040,10 @@
         <v>1</v>
       </c>
       <c r="G346" s="6" t="s">
-        <v>1200</v>
+        <v>1191</v>
       </c>
       <c r="I346" s="5" t="s">
-        <v>1307</v>
+        <v>1298</v>
       </c>
       <c r="K346" s="5">
         <v>-31</v>
@@ -31046,19 +31055,19 @@
         <v>0</v>
       </c>
       <c r="N346" s="5" t="s">
-        <v>1289</v>
+        <v>1280</v>
       </c>
       <c r="O346" s="5">
         <v>4800</v>
       </c>
       <c r="P346" s="5" t="s">
-        <v>1290</v>
+        <v>1281</v>
       </c>
       <c r="Q346" s="10" t="s">
-        <v>1201</v>
+        <v>1192</v>
       </c>
       <c r="V346" s="5" t="s">
-        <v>1292</v>
+        <v>1283</v>
       </c>
       <c r="W346" s="5">
         <v>9999999</v>
@@ -31073,10 +31082,10 @@
         <v>31</v>
       </c>
       <c r="AA346" s="5" t="s">
-        <v>1293</v>
+        <v>1284</v>
       </c>
       <c r="AB346" s="5" t="s">
-        <v>1308</v>
+        <v>1299</v>
       </c>
       <c r="AG346" s="5">
         <v>1</v>
@@ -31102,10 +31111,10 @@
         <v>1</v>
       </c>
       <c r="G347" s="6" t="s">
-        <v>1202</v>
+        <v>1193</v>
       </c>
       <c r="I347" s="5" t="s">
-        <v>1309</v>
+        <v>1300</v>
       </c>
       <c r="K347" s="5">
         <v>-31</v>
@@ -31117,19 +31126,19 @@
         <v>0</v>
       </c>
       <c r="N347" s="5" t="s">
-        <v>1289</v>
+        <v>1280</v>
       </c>
       <c r="O347" s="5">
         <v>9800</v>
       </c>
       <c r="P347" s="5" t="s">
-        <v>1290</v>
+        <v>1281</v>
       </c>
       <c r="Q347" s="10" t="s">
-        <v>1310</v>
+        <v>1301</v>
       </c>
       <c r="V347" s="5" t="s">
-        <v>1292</v>
+        <v>1283</v>
       </c>
       <c r="W347" s="5">
         <v>9999999</v>
@@ -31144,10 +31153,10 @@
         <v>32</v>
       </c>
       <c r="AA347" s="5" t="s">
-        <v>1293</v>
+        <v>1284</v>
       </c>
       <c r="AB347" s="5" t="s">
-        <v>1311</v>
+        <v>1302</v>
       </c>
       <c r="AG347" s="5">
         <v>1</v>
@@ -31173,10 +31182,10 @@
         <v>1</v>
       </c>
       <c r="G348" s="6" t="s">
-        <v>1203</v>
+        <v>1194</v>
       </c>
       <c r="I348" s="5" t="s">
-        <v>1312</v>
+        <v>1303</v>
       </c>
       <c r="K348" s="5">
         <v>-31</v>
@@ -31188,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="N348" s="5" t="s">
-        <v>1289</v>
+        <v>1280</v>
       </c>
       <c r="O348" s="5">
         <v>9800</v>
       </c>
       <c r="P348" s="5" t="s">
-        <v>1290</v>
+        <v>1281</v>
       </c>
       <c r="Q348" s="10" t="s">
-        <v>1313</v>
+        <v>1304</v>
       </c>
       <c r="V348" s="5" t="s">
-        <v>1292</v>
+        <v>1283</v>
       </c>
       <c r="W348" s="5">
         <v>9999999</v>
@@ -31215,10 +31224,10 @@
         <v>33</v>
       </c>
       <c r="AA348" s="5" t="s">
-        <v>1293</v>
+        <v>1284</v>
       </c>
       <c r="AB348" s="5" t="s">
-        <v>1314</v>
+        <v>1305</v>
       </c>
       <c r="AG348" s="5">
         <v>1</v>
@@ -31244,10 +31253,10 @@
         <v>1</v>
       </c>
       <c r="G349" s="6" t="s">
-        <v>1204</v>
+        <v>1195</v>
       </c>
       <c r="I349" s="5" t="s">
-        <v>1315</v>
+        <v>1306</v>
       </c>
       <c r="K349" s="5">
         <v>-31</v>
@@ -31265,13 +31274,13 @@
         <v>9800</v>
       </c>
       <c r="P349" s="5" t="s">
-        <v>1290</v>
+        <v>1281</v>
       </c>
       <c r="Q349" s="10" t="s">
-        <v>1316</v>
+        <v>1307</v>
       </c>
       <c r="V349" s="5" t="s">
-        <v>1292</v>
+        <v>1283</v>
       </c>
       <c r="W349" s="5">
         <v>9999999</v>
@@ -31286,10 +31295,10 @@
         <v>34</v>
       </c>
       <c r="AA349" s="5" t="s">
-        <v>1293</v>
+        <v>1284</v>
       </c>
       <c r="AB349" s="5" t="s">
-        <v>1205</v>
+        <v>1196</v>
       </c>
       <c r="AG349" s="5">
         <v>1</v>
@@ -31315,10 +31324,10 @@
         <v>1</v>
       </c>
       <c r="G350" s="6" t="s">
-        <v>1206</v>
+        <v>1197</v>
       </c>
       <c r="I350" s="5" t="s">
-        <v>1317</v>
+        <v>1308</v>
       </c>
       <c r="K350" s="5">
         <v>-31</v>
@@ -31336,13 +31345,13 @@
         <v>19800</v>
       </c>
       <c r="P350" s="5" t="s">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="Q350" s="10" t="s">
-        <v>1318</v>
+        <v>1309</v>
       </c>
       <c r="V350" s="5" t="s">
-        <v>1292</v>
+        <v>1283</v>
       </c>
       <c r="W350" s="5">
         <v>9999999</v>
@@ -31360,7 +31369,7 @@
         <v>448</v>
       </c>
       <c r="AB350" s="5" t="s">
-        <v>1319</v>
+        <v>1310</v>
       </c>
       <c r="AG350" s="5">
         <v>1</v>
@@ -31386,10 +31395,10 @@
         <v>1</v>
       </c>
       <c r="G351" s="6" t="s">
-        <v>1207</v>
+        <v>1198</v>
       </c>
       <c r="I351" s="5" t="s">
-        <v>1320</v>
+        <v>1311</v>
       </c>
       <c r="K351" s="5">
         <v>-31</v>
@@ -31401,19 +31410,19 @@
         <v>0</v>
       </c>
       <c r="N351" s="5" t="s">
-        <v>1289</v>
+        <v>1280</v>
       </c>
       <c r="O351" s="5">
         <v>19800</v>
       </c>
       <c r="P351" s="5" t="s">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="Q351" s="10" t="s">
-        <v>1208</v>
+        <v>1199</v>
       </c>
       <c r="V351" s="5" t="s">
-        <v>1292</v>
+        <v>1283</v>
       </c>
       <c r="W351" s="5">
         <v>9999999</v>
@@ -31431,7 +31440,7 @@
         <v>448</v>
       </c>
       <c r="AB351" s="5" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
       <c r="AG351" s="5">
         <v>1</v>
@@ -31457,10 +31466,10 @@
         <v>1</v>
       </c>
       <c r="G352" s="6" t="s">
-        <v>1209</v>
+        <v>1200</v>
       </c>
       <c r="I352" s="5" t="s">
-        <v>1210</v>
+        <v>1201</v>
       </c>
       <c r="K352" s="5">
         <v>-31</v>
@@ -31478,10 +31487,10 @@
         <v>19800</v>
       </c>
       <c r="P352" s="5" t="s">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="Q352" s="10" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
       <c r="V352" s="5" t="s">
         <v>570</v>
@@ -31499,10 +31508,10 @@
         <v>37</v>
       </c>
       <c r="AA352" s="5" t="s">
-        <v>1293</v>
+        <v>1284</v>
       </c>
       <c r="AB352" s="5" t="s">
-        <v>1211</v>
+        <v>1202</v>
       </c>
       <c r="AG352" s="5">
         <v>1</v>
@@ -31528,13 +31537,13 @@
         <v>0</v>
       </c>
       <c r="G353" s="5" t="s">
-        <v>1323</v>
+        <v>1314</v>
       </c>
       <c r="H353" s="5" t="s">
-        <v>1213</v>
+        <v>1204</v>
       </c>
       <c r="I353" s="5" t="s">
-        <v>1214</v>
+        <v>1205</v>
       </c>
       <c r="K353" s="5">
         <v>-31</v>
@@ -31552,13 +31561,13 @@
         <v>600</v>
       </c>
       <c r="P353" s="5" t="s">
-        <v>1324</v>
+        <v>1315</v>
       </c>
       <c r="Q353" s="10" t="s">
-        <v>1325</v>
+        <v>1316</v>
       </c>
       <c r="V353" s="5" t="s">
-        <v>1326</v>
+        <v>1317</v>
       </c>
       <c r="W353" s="5">
         <v>9999999</v>
@@ -31596,13 +31605,13 @@
         <v>0</v>
       </c>
       <c r="G354" s="5" t="s">
-        <v>1327</v>
+        <v>1318</v>
       </c>
       <c r="H354" s="5" t="s">
-        <v>1213</v>
+        <v>1204</v>
       </c>
       <c r="I354" s="5" t="s">
-        <v>1328</v>
+        <v>1319</v>
       </c>
       <c r="K354" s="5">
         <v>-31</v>
@@ -31614,19 +31623,19 @@
         <v>0</v>
       </c>
       <c r="N354" s="5" t="s">
-        <v>1289</v>
+        <v>1280</v>
       </c>
       <c r="O354" s="5">
         <v>1200</v>
       </c>
       <c r="P354" s="5" t="s">
-        <v>1217</v>
+        <v>1208</v>
       </c>
       <c r="Q354" s="10" t="s">
-        <v>1325</v>
+        <v>1316</v>
       </c>
       <c r="V354" s="5" t="s">
-        <v>1326</v>
+        <v>1317</v>
       </c>
       <c r="W354" s="5">
         <v>9999999</v>
@@ -31664,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G355" s="5" t="s">
-        <v>1329</v>
+        <v>1320</v>
       </c>
       <c r="H355" s="5" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="I355" s="5" t="s">
-        <v>1214</v>
+        <v>1205</v>
       </c>
       <c r="K355" s="5">
         <v>-31</v>
@@ -31682,19 +31691,19 @@
         <v>0</v>
       </c>
       <c r="N355" s="5" t="s">
-        <v>1289</v>
+        <v>1280</v>
       </c>
       <c r="O355" s="5">
         <v>1800</v>
       </c>
       <c r="P355" s="5" t="s">
-        <v>1219</v>
+        <v>1210</v>
       </c>
       <c r="Q355" s="10" t="s">
-        <v>1215</v>
+        <v>1206</v>
       </c>
       <c r="V355" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="W355" s="5">
         <v>9999999</v>
@@ -31732,13 +31741,13 @@
         <v>0</v>
       </c>
       <c r="G356" s="5" t="s">
-        <v>1212</v>
+        <v>1203</v>
       </c>
       <c r="H356" s="5" t="s">
-        <v>1220</v>
+        <v>1211</v>
       </c>
       <c r="I356" s="5" t="s">
-        <v>1214</v>
+        <v>1205</v>
       </c>
       <c r="K356" s="5">
         <v>-31</v>
@@ -31756,13 +31765,13 @@
         <v>4800</v>
       </c>
       <c r="P356" s="5" t="s">
-        <v>1221</v>
+        <v>1212</v>
       </c>
       <c r="Q356" s="10" t="s">
         <v>274</v>
       </c>
       <c r="V356" s="5" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
       <c r="W356" s="5">
         <v>9999999</v>
@@ -31800,13 +31809,13 @@
         <v>0</v>
       </c>
       <c r="G357" s="5" t="s">
-        <v>1327</v>
+        <v>1318</v>
       </c>
       <c r="H357" s="5" t="s">
-        <v>1220</v>
+        <v>1211</v>
       </c>
       <c r="I357" s="5" t="s">
-        <v>1214</v>
+        <v>1205</v>
       </c>
       <c r="K357" s="5">
         <v>-31</v>
@@ -31818,19 +31827,19 @@
         <v>0</v>
       </c>
       <c r="N357" s="5" t="s">
-        <v>1289</v>
+        <v>1280</v>
       </c>
       <c r="O357" s="5">
         <v>9800</v>
       </c>
       <c r="P357" s="5" t="s">
-        <v>1223</v>
+        <v>1214</v>
       </c>
       <c r="Q357" s="10" t="s">
         <v>274</v>
       </c>
       <c r="V357" s="5" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
       <c r="W357" s="5">
         <v>9999999</v>
@@ -31868,13 +31877,13 @@
         <v>0</v>
       </c>
       <c r="G358" s="5" t="s">
-        <v>1218</v>
+        <v>1209</v>
       </c>
       <c r="H358" s="5" t="s">
-        <v>1220</v>
+        <v>1211</v>
       </c>
       <c r="I358" s="5" t="s">
-        <v>1328</v>
+        <v>1319</v>
       </c>
       <c r="K358" s="5">
         <v>-31</v>
@@ -31886,19 +31895,19 @@
         <v>0</v>
       </c>
       <c r="N358" s="5" t="s">
-        <v>1289</v>
+        <v>1280</v>
       </c>
       <c r="O358" s="5">
         <v>19800</v>
       </c>
       <c r="P358" s="5" t="s">
-        <v>1224</v>
+        <v>1215</v>
       </c>
       <c r="Q358" s="10" t="s">
         <v>274</v>
       </c>
       <c r="V358" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="W358" s="5">
         <v>9999999</v>
@@ -31936,13 +31945,13 @@
         <v>0</v>
       </c>
       <c r="G359" s="5" t="s">
-        <v>1212</v>
+        <v>1203</v>
       </c>
       <c r="H359" s="5" t="s">
-        <v>1225</v>
+        <v>1216</v>
       </c>
       <c r="I359" s="5" t="s">
-        <v>1328</v>
+        <v>1319</v>
       </c>
       <c r="K359" s="5">
         <v>-31</v>
@@ -31954,19 +31963,19 @@
         <v>0</v>
       </c>
       <c r="N359" s="5" t="s">
-        <v>1289</v>
+        <v>1280</v>
       </c>
       <c r="O359" s="5">
         <v>9800</v>
       </c>
       <c r="P359" s="5" t="s">
-        <v>1226</v>
+        <v>1217</v>
       </c>
       <c r="Q359" s="10" t="s">
         <v>274</v>
       </c>
       <c r="V359" s="5" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
       <c r="W359" s="5">
         <v>9999999</v>
@@ -32004,13 +32013,13 @@
         <v>0</v>
       </c>
       <c r="G360" s="5" t="s">
+        <v>1207</v>
+      </c>
+      <c r="H360" s="5" t="s">
         <v>1216</v>
       </c>
-      <c r="H360" s="5" t="s">
-        <v>1225</v>
-      </c>
       <c r="I360" s="5" t="s">
-        <v>1328</v>
+        <v>1319</v>
       </c>
       <c r="K360" s="5">
         <v>-31</v>
@@ -32022,19 +32031,19 @@
         <v>0</v>
       </c>
       <c r="N360" s="5" t="s">
-        <v>1289</v>
+        <v>1280</v>
       </c>
       <c r="O360" s="5">
         <v>19800</v>
       </c>
       <c r="P360" s="5" t="s">
-        <v>1227</v>
+        <v>1218</v>
       </c>
       <c r="Q360" s="10" t="s">
         <v>274</v>
       </c>
       <c r="V360" s="5" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
       <c r="W360" s="5">
         <v>9999999</v>
@@ -32072,13 +32081,13 @@
         <v>0</v>
       </c>
       <c r="G361" s="5" t="s">
-        <v>1218</v>
+        <v>1209</v>
       </c>
       <c r="H361" s="5" t="s">
-        <v>1225</v>
+        <v>1216</v>
       </c>
       <c r="I361" s="5" t="s">
-        <v>1328</v>
+        <v>1319</v>
       </c>
       <c r="K361" s="5">
         <v>-31</v>
@@ -32090,19 +32099,19 @@
         <v>0</v>
       </c>
       <c r="N361" s="5" t="s">
-        <v>1289</v>
+        <v>1280</v>
       </c>
       <c r="O361" s="5">
         <v>49800</v>
       </c>
       <c r="P361" s="5" t="s">
-        <v>1228</v>
+        <v>1219</v>
       </c>
       <c r="Q361" s="10" t="s">
         <v>274</v>
       </c>
       <c r="V361" s="5" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="W361" s="5">
         <v>9999999</v>
@@ -32140,13 +32149,13 @@
         <v>0</v>
       </c>
       <c r="G362" s="5" t="s">
-        <v>1329</v>
+        <v>1320</v>
       </c>
       <c r="H362" s="5" t="s">
-        <v>1213</v>
+        <v>1204</v>
       </c>
       <c r="I362" s="5" t="s">
-        <v>1328</v>
+        <v>1319</v>
       </c>
       <c r="K362" s="5">
         <v>-31</v>
@@ -32164,10 +32173,10 @@
         <v>1800</v>
       </c>
       <c r="P362" s="5" t="s">
-        <v>1219</v>
+        <v>1210</v>
       </c>
       <c r="Q362" s="10" t="s">
-        <v>1325</v>
+        <v>1316</v>
       </c>
       <c r="V362" s="5" t="s">
         <v>570</v>
@@ -32185,10 +32194,10 @@
         <v>38</v>
       </c>
       <c r="AA362" s="5" t="s">
-        <v>1332</v>
+        <v>1323</v>
       </c>
       <c r="AB362" s="5" t="s">
-        <v>1230</v>
+        <v>1221</v>
       </c>
       <c r="AG362" s="5">
         <v>1</v>
@@ -32214,13 +32223,13 @@
         <v>0</v>
       </c>
       <c r="G363" s="5" t="s">
-        <v>1329</v>
+        <v>1320</v>
       </c>
       <c r="H363" s="5" t="s">
-        <v>1231</v>
+        <v>1222</v>
       </c>
       <c r="I363" s="5" t="s">
-        <v>1328</v>
+        <v>1319</v>
       </c>
       <c r="K363" s="5">
         <v>-31</v>
@@ -32232,19 +32241,19 @@
         <v>0</v>
       </c>
       <c r="N363" s="5" t="s">
-        <v>1289</v>
+        <v>1280</v>
       </c>
       <c r="O363" s="5">
         <v>19800</v>
       </c>
       <c r="P363" s="5" t="s">
-        <v>1224</v>
+        <v>1215</v>
       </c>
       <c r="Q363" s="10" t="s">
         <v>274</v>
       </c>
       <c r="V363" s="5" t="s">
-        <v>1292</v>
+        <v>1283</v>
       </c>
       <c r="W363" s="5">
         <v>9999999</v>
@@ -32259,10 +32268,10 @@
         <v>39</v>
       </c>
       <c r="AA363" s="5" t="s">
-        <v>1332</v>
+        <v>1323</v>
       </c>
       <c r="AB363" s="5" t="s">
-        <v>1232</v>
+        <v>1223</v>
       </c>
       <c r="AG363" s="5">
         <v>1</v>
@@ -32288,13 +32297,13 @@
         <v>0</v>
       </c>
       <c r="G364" s="5" t="s">
-        <v>1329</v>
+        <v>1320</v>
       </c>
       <c r="H364" s="5" t="s">
-        <v>1225</v>
+        <v>1216</v>
       </c>
       <c r="I364" s="5" t="s">
-        <v>1214</v>
+        <v>1205</v>
       </c>
       <c r="K364" s="5">
         <v>-31</v>
@@ -32306,19 +32315,19 @@
         <v>0</v>
       </c>
       <c r="N364" s="5" t="s">
-        <v>1289</v>
+        <v>1280</v>
       </c>
       <c r="O364" s="5">
         <v>49800</v>
       </c>
       <c r="P364" s="5" t="s">
-        <v>1228</v>
+        <v>1219</v>
       </c>
       <c r="Q364" s="10" t="s">
         <v>274</v>
       </c>
       <c r="V364" s="5" t="s">
-        <v>1292</v>
+        <v>1283</v>
       </c>
       <c r="W364" s="5">
         <v>9999999</v>
@@ -32333,10 +32342,10 @@
         <v>40</v>
       </c>
       <c r="AA364" s="5" t="s">
-        <v>1229</v>
+        <v>1220</v>
       </c>
       <c r="AB364" s="5" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
       <c r="AG364" s="5">
         <v>1</v>
@@ -32362,10 +32371,10 @@
         <v>1</v>
       </c>
       <c r="G365" s="5" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
       <c r="I365" s="5" t="s">
-        <v>1233</v>
+        <v>1224</v>
       </c>
       <c r="K365" s="5">
         <v>-31</v>
@@ -32377,16 +32386,16 @@
         <v>0</v>
       </c>
       <c r="N365" s="5" t="s">
-        <v>1289</v>
+        <v>1280</v>
       </c>
       <c r="O365" s="5">
         <v>131400</v>
       </c>
       <c r="P365" s="5" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
       <c r="Q365" s="10" t="s">
-        <v>1336</v>
+        <v>1327</v>
       </c>
       <c r="V365" s="5" t="s">
         <v>570</v>
@@ -32427,10 +32436,10 @@
         <v>1</v>
       </c>
       <c r="G366" s="5" t="s">
-        <v>1337</v>
+        <v>1328</v>
       </c>
       <c r="I366" s="5" t="s">
-        <v>1338</v>
+        <v>1329</v>
       </c>
       <c r="K366" s="5">
         <v>-31</v>
@@ -32442,16 +32451,16 @@
         <v>0</v>
       </c>
       <c r="N366" s="5" t="s">
-        <v>1289</v>
+        <v>1280</v>
       </c>
       <c r="O366" s="5">
         <v>52000</v>
       </c>
       <c r="P366" s="5" t="s">
-        <v>1234</v>
+        <v>1225</v>
       </c>
       <c r="Q366" s="10" t="s">
-        <v>1339</v>
+        <v>1330</v>
       </c>
       <c r="V366" s="5" t="s">
         <v>570</v>
@@ -32492,10 +32501,10 @@
         <v>1</v>
       </c>
       <c r="G367" s="5" t="s">
-        <v>1340</v>
+        <v>1331</v>
       </c>
       <c r="I367" s="5" t="s">
-        <v>1235</v>
+        <v>1226</v>
       </c>
       <c r="K367" s="5">
         <v>-31</v>
@@ -32507,19 +32516,19 @@
         <v>0</v>
       </c>
       <c r="N367" s="5" t="s">
-        <v>1289</v>
+        <v>1280</v>
       </c>
       <c r="O367" s="5">
         <v>25800</v>
       </c>
       <c r="P367" s="5" t="s">
-        <v>1234</v>
+        <v>1225</v>
       </c>
       <c r="Q367" s="10" t="s">
-        <v>1341</v>
+        <v>1332</v>
       </c>
       <c r="V367" s="5" t="s">
-        <v>1292</v>
+        <v>1283</v>
       </c>
       <c r="W367" s="5">
         <v>9999999</v>
@@ -32557,10 +32566,10 @@
         <v>1</v>
       </c>
       <c r="G368" s="5" t="s">
-        <v>1342</v>
+        <v>1333</v>
       </c>
       <c r="I368" s="5" t="s">
-        <v>1236</v>
+        <v>1227</v>
       </c>
       <c r="K368" s="5">
         <v>-31</v>
@@ -32572,16 +32581,16 @@
         <v>0</v>
       </c>
       <c r="N368" s="5" t="s">
-        <v>1289</v>
+        <v>1280</v>
       </c>
       <c r="O368" s="5">
         <v>14700</v>
       </c>
       <c r="P368" s="5" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
       <c r="Q368" s="10" t="s">
-        <v>1343</v>
+        <v>1334</v>
       </c>
       <c r="V368" s="5" t="s">
         <v>570</v>
@@ -32622,10 +32631,10 @@
         <v>1</v>
       </c>
       <c r="G369" s="5" t="s">
-        <v>1344</v>
+        <v>1335</v>
       </c>
       <c r="I369" s="5" t="s">
-        <v>1237</v>
+        <v>1228</v>
       </c>
       <c r="K369" s="5">
         <v>-31</v>
@@ -32643,13 +32652,13 @@
         <v>5200</v>
       </c>
       <c r="P369" s="5" t="s">
-        <v>1234</v>
+        <v>1225</v>
       </c>
       <c r="Q369" s="10" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="V369" s="5" t="s">
-        <v>1292</v>
+        <v>1283</v>
       </c>
       <c r="W369" s="5">
         <v>9999999</v>
@@ -32687,10 +32696,10 @@
         <v>1</v>
       </c>
       <c r="G370" s="5" t="s">
-        <v>1239</v>
+        <v>1230</v>
       </c>
       <c r="I370" s="5" t="s">
-        <v>1345</v>
+        <v>1336</v>
       </c>
       <c r="K370" s="5">
         <v>-31</v>
@@ -32708,10 +32717,10 @@
         <v>1800</v>
       </c>
       <c r="P370" s="5" t="s">
-        <v>1346</v>
+        <v>1337</v>
       </c>
       <c r="Q370" s="10" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="V370" s="5" t="s">
         <v>570</v>
@@ -32749,10 +32758,10 @@
         <v>1</v>
       </c>
       <c r="G371" s="5" t="s">
-        <v>1347</v>
+        <v>1338</v>
       </c>
       <c r="I371" s="5" t="s">
-        <v>1240</v>
+        <v>1231</v>
       </c>
       <c r="K371" s="5">
         <v>-31</v>
@@ -32770,13 +32779,13 @@
         <v>4800</v>
       </c>
       <c r="P371" s="5" t="s">
-        <v>1346</v>
+        <v>1337</v>
       </c>
       <c r="Q371" s="10" t="s">
-        <v>1348</v>
+        <v>1339</v>
       </c>
       <c r="V371" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="W371" s="5">
         <v>9999999</v>
@@ -32811,10 +32820,10 @@
         <v>1</v>
       </c>
       <c r="G372" s="5" t="s">
-        <v>1241</v>
+        <v>1232</v>
       </c>
       <c r="I372" s="5" t="s">
-        <v>1349</v>
+        <v>1340</v>
       </c>
       <c r="K372" s="5">
         <v>-31</v>
@@ -32832,10 +32841,10 @@
         <v>9800</v>
       </c>
       <c r="P372" s="5" t="s">
-        <v>1346</v>
+        <v>1337</v>
       </c>
       <c r="Q372" s="10" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="V372" s="5" t="s">
         <v>539</v>
@@ -32873,10 +32882,10 @@
         <v>1</v>
       </c>
       <c r="G373" s="5" t="s">
-        <v>1242</v>
+        <v>1233</v>
       </c>
       <c r="I373" s="5" t="s">
-        <v>1350</v>
+        <v>1341</v>
       </c>
       <c r="K373" s="5">
         <v>-31</v>
@@ -32894,13 +32903,13 @@
         <v>19800</v>
       </c>
       <c r="P373" s="5" t="s">
-        <v>1346</v>
+        <v>1337</v>
       </c>
       <c r="Q373" s="10" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="V373" s="5" t="s">
-        <v>1351</v>
+        <v>1342</v>
       </c>
       <c r="W373" s="5">
         <v>9999999</v>
@@ -32935,13 +32944,13 @@
         <v>1</v>
       </c>
       <c r="G374" s="5" t="s">
-        <v>1243</v>
+        <v>1234</v>
       </c>
       <c r="H374" s="5" t="s">
-        <v>1244</v>
+        <v>1235</v>
       </c>
       <c r="I374" s="5" t="s">
-        <v>1245</v>
+        <v>1236</v>
       </c>
       <c r="K374" s="5">
         <v>-31</v>
@@ -32953,7 +32962,7 @@
         <v>0</v>
       </c>
       <c r="N374" s="5" t="s">
-        <v>1289</v>
+        <v>1280</v>
       </c>
       <c r="O374" s="5">
         <v>300</v>
@@ -32962,7 +32971,7 @@
         <v>527</v>
       </c>
       <c r="Q374" s="10" t="s">
-        <v>1246</v>
+        <v>1237</v>
       </c>
       <c r="V374" s="5" t="s">
         <v>570</v>
@@ -33003,13 +33012,13 @@
         <v>1</v>
       </c>
       <c r="G375" s="5" t="s">
-        <v>1368</v>
+        <v>1359</v>
       </c>
       <c r="H375" s="5" t="s">
-        <v>1369</v>
+        <v>1360</v>
       </c>
       <c r="I375" s="5" t="s">
-        <v>1370</v>
+        <v>1361</v>
       </c>
       <c r="K375" s="5">
         <v>-31</v>
@@ -33021,19 +33030,19 @@
         <v>0</v>
       </c>
       <c r="N375" s="5" t="s">
-        <v>1371</v>
+        <v>1362</v>
       </c>
       <c r="O375" s="5">
         <v>300</v>
       </c>
       <c r="P375" s="5" t="s">
-        <v>1372</v>
+        <v>1363</v>
       </c>
       <c r="Q375" s="10" t="s">
-        <v>1373</v>
+        <v>1364</v>
       </c>
       <c r="V375" s="5" t="s">
-        <v>1374</v>
+        <v>1365</v>
       </c>
       <c r="W375" s="5">
         <v>9999999</v>
@@ -33071,13 +33080,13 @@
         <v>1</v>
       </c>
       <c r="G376" s="5" t="s">
-        <v>1376</v>
+        <v>1367</v>
       </c>
       <c r="H376" s="5" t="s">
-        <v>1378</v>
+        <v>1369</v>
       </c>
       <c r="I376" s="5" t="s">
-        <v>1379</v>
+        <v>1370</v>
       </c>
       <c r="K376" s="5">
         <v>-31</v>
@@ -33089,19 +33098,19 @@
         <v>0</v>
       </c>
       <c r="N376" s="5" t="s">
-        <v>1371</v>
+        <v>1362</v>
       </c>
       <c r="O376" s="5">
         <v>0</v>
       </c>
       <c r="P376" s="5" t="s">
-        <v>1381</v>
+        <v>1372</v>
       </c>
       <c r="Q376" s="10" t="s">
-        <v>1382</v>
+        <v>1373</v>
       </c>
       <c r="V376" s="5" t="s">
-        <v>1383</v>
+        <v>1374</v>
       </c>
       <c r="W376" s="5">
         <v>9999999</v>
@@ -33139,13 +33148,13 @@
         <v>1</v>
       </c>
       <c r="G377" s="5" t="s">
-        <v>1376</v>
+        <v>1367</v>
       </c>
       <c r="H377" s="5" t="s">
-        <v>1378</v>
+        <v>1369</v>
       </c>
       <c r="I377" s="5" t="s">
-        <v>1035</v>
+        <v>1028</v>
       </c>
       <c r="K377" s="5">
         <v>-31</v>
@@ -33157,19 +33166,19 @@
         <v>0</v>
       </c>
       <c r="N377" s="5" t="s">
-        <v>1371</v>
+        <v>1362</v>
       </c>
       <c r="O377" s="5">
         <v>300</v>
       </c>
       <c r="P377" s="5" t="s">
-        <v>1380</v>
+        <v>1371</v>
       </c>
       <c r="Q377" s="10" t="s">
-        <v>1384</v>
+        <v>1375</v>
       </c>
       <c r="V377" s="5" t="s">
-        <v>1374</v>
+        <v>1365</v>
       </c>
       <c r="W377" s="5">
         <v>9999999</v>
@@ -33207,13 +33216,13 @@
         <v>1</v>
       </c>
       <c r="G378" s="5" t="s">
+        <v>1367</v>
+      </c>
+      <c r="H378" s="5" t="s">
+        <v>1368</v>
+      </c>
+      <c r="I378" s="5" t="s">
         <v>1376</v>
-      </c>
-      <c r="H378" s="5" t="s">
-        <v>1377</v>
-      </c>
-      <c r="I378" s="5" t="s">
-        <v>1385</v>
       </c>
       <c r="K378" s="5">
         <v>-31</v>
@@ -33231,13 +33240,13 @@
         <v>600</v>
       </c>
       <c r="P378" s="5" t="s">
-        <v>1381</v>
+        <v>1372</v>
       </c>
       <c r="Q378" s="10" t="s">
-        <v>1386</v>
+        <v>1377</v>
       </c>
       <c r="V378" s="5" t="s">
-        <v>1387</v>
+        <v>1378</v>
       </c>
       <c r="W378" s="5">
         <v>9999999</v>
@@ -33275,13 +33284,13 @@
         <v>1</v>
       </c>
       <c r="G379" s="5" t="s">
-        <v>1375</v>
+        <v>1366</v>
       </c>
       <c r="H379" s="5" t="s">
-        <v>1378</v>
+        <v>1369</v>
       </c>
       <c r="I379" s="5" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="K379" s="5">
         <v>-31</v>
@@ -33293,19 +33302,19 @@
         <v>0</v>
       </c>
       <c r="N379" s="5" t="s">
-        <v>1371</v>
+        <v>1362</v>
       </c>
       <c r="O379" s="5">
         <v>1800</v>
       </c>
       <c r="P379" s="5" t="s">
-        <v>1381</v>
+        <v>1372</v>
       </c>
       <c r="Q379" s="10" t="s">
-        <v>1399</v>
+        <v>1390</v>
       </c>
       <c r="V379" s="5" t="s">
-        <v>1388</v>
+        <v>1379</v>
       </c>
       <c r="W379" s="5">
         <v>9999999</v>
@@ -33343,13 +33352,13 @@
         <v>1</v>
       </c>
       <c r="G380" s="5" t="s">
-        <v>1375</v>
+        <v>1366</v>
       </c>
       <c r="H380" s="5" t="s">
-        <v>1377</v>
+        <v>1368</v>
       </c>
       <c r="I380" s="5" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="K380" s="5">
         <v>-31</v>
@@ -33361,19 +33370,19 @@
         <v>0</v>
       </c>
       <c r="N380" s="5" t="s">
-        <v>1371</v>
+        <v>1362</v>
       </c>
       <c r="O380" s="5">
         <v>4800</v>
       </c>
       <c r="P380" s="5" t="s">
-        <v>1381</v>
+        <v>1372</v>
       </c>
       <c r="Q380" s="10" t="s">
-        <v>1400</v>
+        <v>1391</v>
       </c>
       <c r="V380" s="5" t="s">
-        <v>1389</v>
+        <v>1380</v>
       </c>
       <c r="W380" s="5">
         <v>9999999</v>
@@ -33411,13 +33420,13 @@
         <v>1</v>
       </c>
       <c r="G381" s="5" t="s">
-        <v>1376</v>
+        <v>1367</v>
       </c>
       <c r="H381" s="5" t="s">
-        <v>1390</v>
+        <v>1381</v>
       </c>
       <c r="I381" s="5" t="s">
-        <v>1379</v>
+        <v>1370</v>
       </c>
       <c r="K381" s="5">
         <v>-31</v>
@@ -33435,10 +33444,10 @@
         <v>0</v>
       </c>
       <c r="P381" s="5" t="s">
-        <v>1381</v>
+        <v>1372</v>
       </c>
       <c r="Q381" s="10" t="s">
-        <v>1382</v>
+        <v>1373</v>
       </c>
       <c r="V381" s="5" t="s">
         <v>572</v>
@@ -33479,13 +33488,13 @@
         <v>1</v>
       </c>
       <c r="G382" s="5" t="s">
-        <v>1375</v>
+        <v>1366</v>
       </c>
       <c r="H382" s="5" t="s">
-        <v>1390</v>
+        <v>1381</v>
       </c>
       <c r="I382" s="5" t="s">
-        <v>1345</v>
+        <v>1336</v>
       </c>
       <c r="K382" s="5">
         <v>-31</v>
@@ -33503,13 +33512,13 @@
         <v>1800</v>
       </c>
       <c r="P382" s="5" t="s">
-        <v>1380</v>
+        <v>1371</v>
       </c>
       <c r="Q382" s="10" t="s">
-        <v>1391</v>
+        <v>1382</v>
       </c>
       <c r="V382" s="5" t="s">
-        <v>1374</v>
+        <v>1365</v>
       </c>
       <c r="W382" s="5">
         <v>9999999</v>
@@ -33547,13 +33556,13 @@
         <v>1</v>
       </c>
       <c r="G383" s="5" t="s">
-        <v>1376</v>
+        <v>1367</v>
       </c>
       <c r="H383" s="5" t="s">
-        <v>1390</v>
+        <v>1381</v>
       </c>
       <c r="I383" s="5" t="s">
-        <v>1392</v>
+        <v>1383</v>
       </c>
       <c r="K383" s="5">
         <v>-31</v>
@@ -33571,10 +33580,10 @@
         <v>4800</v>
       </c>
       <c r="P383" s="5" t="s">
-        <v>1381</v>
+        <v>1372</v>
       </c>
       <c r="Q383" s="10" t="s">
-        <v>1393</v>
+        <v>1384</v>
       </c>
       <c r="V383" s="5" t="s">
         <v>538</v>
@@ -33615,13 +33624,13 @@
         <v>1</v>
       </c>
       <c r="G384" s="5" t="s">
-        <v>1375</v>
+        <v>1366</v>
       </c>
       <c r="H384" s="5" t="s">
-        <v>1390</v>
+        <v>1381</v>
       </c>
       <c r="I384" s="5" t="s">
-        <v>1394</v>
+        <v>1385</v>
       </c>
       <c r="K384" s="5">
         <v>-31</v>
@@ -33633,16 +33642,16 @@
         <v>0</v>
       </c>
       <c r="N384" s="5" t="s">
-        <v>1371</v>
+        <v>1362</v>
       </c>
       <c r="O384" s="5">
         <v>9800</v>
       </c>
       <c r="P384" s="5" t="s">
-        <v>1381</v>
+        <v>1372</v>
       </c>
       <c r="Q384" s="10" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="V384" s="5" t="s">
         <v>539</v>
@@ -33683,13 +33692,13 @@
         <v>1</v>
       </c>
       <c r="G385" s="5" t="s">
-        <v>1376</v>
+        <v>1367</v>
       </c>
       <c r="H385" s="5" t="s">
-        <v>1390</v>
+        <v>1381</v>
       </c>
       <c r="I385" s="5" t="s">
-        <v>1395</v>
+        <v>1386</v>
       </c>
       <c r="K385" s="5">
         <v>-31</v>
@@ -33701,19 +33710,19 @@
         <v>0</v>
       </c>
       <c r="N385" s="5" t="s">
-        <v>1371</v>
+        <v>1362</v>
       </c>
       <c r="O385" s="5">
         <v>19800</v>
       </c>
       <c r="P385" s="5" t="s">
+        <v>1371</v>
+      </c>
+      <c r="Q385" s="10" t="s">
+        <v>1387</v>
+      </c>
+      <c r="V385" s="5" t="s">
         <v>1380</v>
-      </c>
-      <c r="Q385" s="10" t="s">
-        <v>1396</v>
-      </c>
-      <c r="V385" s="5" t="s">
-        <v>1389</v>
       </c>
       <c r="W385" s="5">
         <v>9999999</v>
@@ -33751,13 +33760,13 @@
         <v>1</v>
       </c>
       <c r="G386" s="48" t="s">
-        <v>1401</v>
+        <v>1392</v>
       </c>
       <c r="H386" s="48" t="s">
-        <v>1402</v>
+        <v>1393</v>
       </c>
       <c r="I386" s="48" t="s">
-        <v>1403</v>
+        <v>1394</v>
       </c>
       <c r="K386" s="48">
         <v>-31</v>
@@ -33775,10 +33784,10 @@
         <v>1800</v>
       </c>
       <c r="P386" s="48" t="s">
-        <v>1404</v>
+        <v>1395</v>
       </c>
       <c r="Q386" s="49" t="s">
-        <v>1405</v>
+        <v>1396</v>
       </c>
       <c r="V386" s="48" t="s">
         <v>538</v>
@@ -33819,13 +33828,13 @@
         <v>1</v>
       </c>
       <c r="G387" s="48" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
       <c r="H387" s="48" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
       <c r="I387" s="48" t="s">
-        <v>1408</v>
+        <v>1399</v>
       </c>
       <c r="K387" s="48">
         <v>-31</v>
@@ -33837,16 +33846,16 @@
         <v>0</v>
       </c>
       <c r="N387" s="48" t="s">
-        <v>1409</v>
+        <v>1400</v>
       </c>
       <c r="O387" s="48">
         <v>3000</v>
       </c>
       <c r="P387" s="48" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
       <c r="Q387" s="49" t="s">
-        <v>1411</v>
+        <v>1402</v>
       </c>
       <c r="V387" s="48" t="s">
         <v>538</v>
@@ -33887,13 +33896,13 @@
         <v>1</v>
       </c>
       <c r="G388" s="48" t="s">
-        <v>1412</v>
+        <v>1403</v>
       </c>
       <c r="H388" s="48" t="s">
-        <v>1413</v>
+        <v>1404</v>
       </c>
       <c r="I388" s="48" t="s">
-        <v>1414</v>
+        <v>1405</v>
       </c>
       <c r="K388" s="48">
         <v>-31</v>
@@ -33905,19 +33914,19 @@
         <v>0</v>
       </c>
       <c r="N388" s="48" t="s">
-        <v>1415</v>
+        <v>1406</v>
       </c>
       <c r="O388" s="48">
         <v>4800</v>
       </c>
       <c r="P388" s="48" t="s">
-        <v>1416</v>
+        <v>1407</v>
       </c>
       <c r="Q388" s="49" t="s">
-        <v>1417</v>
+        <v>1408</v>
       </c>
       <c r="V388" s="48" t="s">
-        <v>1418</v>
+        <v>1409</v>
       </c>
       <c r="W388" s="48">
         <v>9999999</v>
@@ -33955,13 +33964,13 @@
         <v>1</v>
       </c>
       <c r="G389" s="48" t="s">
-        <v>1419</v>
+        <v>1410</v>
       </c>
       <c r="H389" s="48" t="s">
-        <v>1420</v>
+        <v>1411</v>
       </c>
       <c r="I389" s="48" t="s">
-        <v>1421</v>
+        <v>1412</v>
       </c>
       <c r="K389" s="48">
         <v>-31</v>
@@ -33973,16 +33982,16 @@
         <v>0</v>
       </c>
       <c r="N389" s="48" t="s">
-        <v>1422</v>
+        <v>1413</v>
       </c>
       <c r="O389" s="48">
         <v>4800</v>
       </c>
       <c r="P389" s="48" t="s">
-        <v>1423</v>
+        <v>1414</v>
       </c>
       <c r="Q389" s="49" t="s">
-        <v>1417</v>
+        <v>1408</v>
       </c>
       <c r="V389" s="48" t="s">
         <v>538</v>
@@ -34023,13 +34032,13 @@
         <v>1</v>
       </c>
       <c r="G390" s="48" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
       <c r="H390" s="48" t="s">
-        <v>1231</v>
+        <v>1222</v>
       </c>
       <c r="I390" s="48" t="s">
-        <v>1424</v>
+        <v>1415</v>
       </c>
       <c r="K390" s="48">
         <v>-31</v>
@@ -34047,10 +34056,10 @@
         <v>9800</v>
       </c>
       <c r="P390" s="48" t="s">
-        <v>1425</v>
+        <v>1416</v>
       </c>
       <c r="Q390" s="49" t="s">
-        <v>1426</v>
+        <v>1417</v>
       </c>
       <c r="V390" s="48" t="s">
         <v>538</v>
@@ -34091,13 +34100,13 @@
         <v>1</v>
       </c>
       <c r="G391" s="48" t="s">
-        <v>1427</v>
+        <v>1418</v>
       </c>
       <c r="H391" s="48" t="s">
-        <v>1420</v>
+        <v>1411</v>
       </c>
       <c r="I391" s="48" t="s">
-        <v>1428</v>
+        <v>1419</v>
       </c>
       <c r="K391" s="48">
         <v>-31</v>
@@ -34115,10 +34124,10 @@
         <v>19800</v>
       </c>
       <c r="P391" s="48" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
       <c r="Q391" s="49" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="V391" s="48" t="s">
         <v>538</v>
@@ -34159,13 +34168,13 @@
         <v>1</v>
       </c>
       <c r="G392" s="48" t="s">
-        <v>1401</v>
+        <v>1392</v>
       </c>
       <c r="H392" s="48" t="s">
-        <v>1431</v>
+        <v>1422</v>
       </c>
       <c r="I392" s="48" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="K392" s="48">
         <v>-31</v>
@@ -34183,10 +34192,10 @@
         <v>9800</v>
       </c>
       <c r="P392" s="48" t="s">
-        <v>1433</v>
+        <v>1424</v>
       </c>
       <c r="Q392" s="49" t="s">
-        <v>1434</v>
+        <v>1425</v>
       </c>
       <c r="V392" s="48" t="s">
         <v>538</v>
@@ -34227,13 +34236,13 @@
         <v>1</v>
       </c>
       <c r="G393" s="48" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
       <c r="H393" s="48" t="s">
-        <v>1435</v>
+        <v>1426</v>
       </c>
       <c r="I393" s="48" t="s">
-        <v>1436</v>
+        <v>1427</v>
       </c>
       <c r="K393" s="48">
         <v>-31</v>
@@ -34251,10 +34260,10 @@
         <v>19800</v>
       </c>
       <c r="P393" s="48" t="s">
-        <v>1437</v>
+        <v>1428</v>
       </c>
       <c r="Q393" s="49" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="V393" s="48" t="s">
         <v>538</v>
@@ -34295,13 +34304,13 @@
         <v>1</v>
       </c>
       <c r="G394" s="48" t="s">
-        <v>1412</v>
+        <v>1403</v>
       </c>
       <c r="H394" s="48" t="s">
-        <v>1438</v>
+        <v>1429</v>
       </c>
       <c r="I394" s="48" t="s">
-        <v>1439</v>
+        <v>1430</v>
       </c>
       <c r="K394" s="48">
         <v>-31</v>
@@ -34313,16 +34322,16 @@
         <v>0</v>
       </c>
       <c r="N394" s="48" t="s">
-        <v>1440</v>
+        <v>1431</v>
       </c>
       <c r="O394" s="48">
         <v>49800</v>
       </c>
       <c r="P394" s="48" t="s">
-        <v>1441</v>
+        <v>1432</v>
       </c>
       <c r="Q394" s="49" t="s">
-        <v>1442</v>
+        <v>1433</v>
       </c>
       <c r="V394" s="48" t="s">
         <v>538</v>
@@ -34380,7 +34389,7 @@
         <v>392</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>393</v>
@@ -34397,7 +34406,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1102</v>
+        <v>1093</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -34414,7 +34423,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1103</v>
+        <v>1094</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -34428,7 +34437,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1104</v>
+        <v>1095</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -34442,7 +34451,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1105</v>
+        <v>1096</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -34456,7 +34465,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -34568,7 +34577,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -34596,7 +34605,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1106</v>
+        <v>1097</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -34750,7 +34759,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>1352</v>
+        <v>1343</v>
       </c>
       <c r="C27" s="12">
         <v>1</v>
@@ -34764,7 +34773,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>1353</v>
+        <v>1344</v>
       </c>
       <c r="C28" s="12">
         <v>1</v>
@@ -34778,7 +34787,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>1354</v>
+        <v>1345</v>
       </c>
       <c r="C29" s="12">
         <v>1</v>
@@ -34792,7 +34801,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>1355</v>
+        <v>1346</v>
       </c>
       <c r="C30" s="12">
         <v>1</v>
@@ -34806,7 +34815,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>1356</v>
+        <v>1347</v>
       </c>
       <c r="C31" s="12">
         <v>1</v>
@@ -34820,7 +34829,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>1357</v>
+        <v>1348</v>
       </c>
       <c r="C32" s="12">
         <v>1</v>
@@ -34834,7 +34843,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>1358</v>
+        <v>1349</v>
       </c>
       <c r="C33" s="12">
         <v>1</v>
@@ -34848,7 +34857,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>1359</v>
+        <v>1350</v>
       </c>
       <c r="C34" s="12">
         <v>1</v>
@@ -34862,7 +34871,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>1360</v>
+        <v>1351</v>
       </c>
       <c r="C35" s="12">
         <v>1</v>
@@ -34876,7 +34885,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>1361</v>
+        <v>1352</v>
       </c>
       <c r="C36" s="12">
         <v>1</v>
@@ -34890,7 +34899,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="C37" s="12">
         <v>1</v>
@@ -34904,7 +34913,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="C38" s="12">
         <v>1</v>
@@ -34918,7 +34927,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>1364</v>
+        <v>1355</v>
       </c>
       <c r="C39" s="12">
         <v>1</v>
@@ -34932,7 +34941,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>1365</v>
+        <v>1356</v>
       </c>
       <c r="C40" s="12">
         <v>1</v>
@@ -34946,7 +34955,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>1366</v>
+        <v>1357</v>
       </c>
       <c r="C41" s="12">
         <v>1</v>
@@ -34960,7 +34969,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>1367</v>
+        <v>1358</v>
       </c>
       <c r="C42" s="12">
         <v>1</v>
@@ -34974,7 +34983,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>1397</v>
+        <v>1388</v>
       </c>
       <c r="C43" s="12">
         <v>1</v>
@@ -34988,7 +34997,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>1398</v>
+        <v>1389</v>
       </c>
       <c r="C44" s="12">
         <v>1</v>
@@ -35002,7 +35011,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="51" t="s">
-        <v>1443</v>
+        <v>1434</v>
       </c>
       <c r="C45" s="50">
         <v>1</v>
@@ -35016,7 +35025,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="51" t="s">
-        <v>1444</v>
+        <v>1435</v>
       </c>
       <c r="C46" s="50">
         <v>1</v>
@@ -35030,7 +35039,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="51" t="s">
-        <v>1445</v>
+        <v>1436</v>
       </c>
       <c r="C47" s="50">
         <v>1</v>
@@ -35102,10 +35111,10 @@
         <v>406</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>22</v>
@@ -35162,7 +35171,7 @@
         <v>42</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -35206,16 +35215,16 @@
         <v>3</v>
       </c>
       <c r="P2" s="34" t="s">
-        <v>1170</v>
+        <v>1161</v>
       </c>
       <c r="R2" s="34" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="S2" s="11" t="s">
         <v>49</v>
       </c>
       <c r="T2" s="34" t="s">
-        <v>1172</v>
+        <v>1163</v>
       </c>
       <c r="U2" s="11" t="s">
         <v>409</v>
@@ -35271,16 +35280,16 @@
         <v>4</v>
       </c>
       <c r="P3" s="34" t="s">
-        <v>1173</v>
+        <v>1164</v>
       </c>
       <c r="R3" s="34" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="S3" s="11" t="s">
         <v>51</v>
       </c>
       <c r="T3" s="34" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="U3" s="11" t="s">
         <v>409</v>
@@ -35336,16 +35345,16 @@
         <v>5</v>
       </c>
       <c r="P4" s="34" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
       <c r="R4" s="34" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="S4" s="11" t="s">
         <v>52</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="U4" s="11" t="s">
         <v>409</v>
@@ -35401,16 +35410,16 @@
         <v>6</v>
       </c>
       <c r="P5" s="34" t="s">
-        <v>1176</v>
+        <v>1167</v>
       </c>
       <c r="R5" s="34" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="S5" s="11" t="s">
         <v>53</v>
       </c>
       <c r="T5" s="34" t="s">
-        <v>1177</v>
+        <v>1168</v>
       </c>
       <c r="U5" s="11" t="s">
         <v>409</v>
@@ -35466,16 +35475,16 @@
         <v>7</v>
       </c>
       <c r="P6" s="34" t="s">
-        <v>1178</v>
+        <v>1169</v>
       </c>
       <c r="R6" s="34" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="S6" s="11" t="s">
         <v>54</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="U6" s="11" t="s">
         <v>409</v>
@@ -35531,16 +35540,16 @@
         <v>9</v>
       </c>
       <c r="P7" s="34" t="s">
-        <v>1179</v>
+        <v>1170</v>
       </c>
       <c r="R7" s="34" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="S7" s="11" t="s">
         <v>55</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="U7" s="11" t="s">
         <v>409</v>
@@ -35593,16 +35602,16 @@
         <v>0</v>
       </c>
       <c r="P8" s="34" t="s">
-        <v>1180</v>
+        <v>1171</v>
       </c>
       <c r="R8" s="34" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="S8" s="11" t="s">
         <v>49</v>
       </c>
       <c r="T8" s="34" t="s">
-        <v>1172</v>
+        <v>1163</v>
       </c>
       <c r="U8" s="11" t="s">
         <v>409</v>
@@ -35657,7 +35666,7 @@
         <v>2</v>
       </c>
       <c r="P9" s="36" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="Q9" s="35"/>
       <c r="R9" s="35"/>
@@ -35665,7 +35674,7 @@
         <v>5000</v>
       </c>
       <c r="T9" s="35" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="U9" s="35" t="s">
         <v>409</v>
@@ -35681,7 +35690,7 @@
       <c r="Z9" s="35"/>
       <c r="AA9" s="35"/>
       <c r="AB9" s="36" t="s">
-        <v>1181</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -35727,7 +35736,7 @@
         <v>1</v>
       </c>
       <c r="P10" s="36" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="Q10" s="35"/>
       <c r="R10" s="35"/>
@@ -35735,7 +35744,7 @@
         <v>1000</v>
       </c>
       <c r="T10" s="35" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="U10" s="35" t="s">
         <v>409</v>
@@ -35751,7 +35760,7 @@
       <c r="Z10" s="35"/>
       <c r="AA10" s="35"/>
       <c r="AB10" s="36" t="s">
-        <v>1182</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="11" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -35795,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="P11" s="34" t="s">
-        <v>1173</v>
+        <v>1164</v>
       </c>
       <c r="R11" s="34" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="S11" s="23" t="s">
         <v>51</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="U11" s="11" t="s">
         <v>409</v>
@@ -35824,7 +35833,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>1183</v>
+        <v>1174</v>
       </c>
       <c r="D12" s="11">
         <v>109</v>
@@ -35860,16 +35869,16 @@
         <v>9</v>
       </c>
       <c r="P12" s="34" t="s">
-        <v>1184</v>
+        <v>1175</v>
       </c>
       <c r="R12" s="34" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="S12" s="11" t="s">
         <v>56</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="U12" s="11" t="s">
         <v>409</v>
@@ -35925,16 +35934,16 @@
         <v>10</v>
       </c>
       <c r="P13" s="34" t="s">
-        <v>1185</v>
+        <v>1176</v>
       </c>
       <c r="R13" s="34" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="S13" s="11" t="s">
         <v>411</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="U13" s="11" t="s">
         <v>409</v>
@@ -35990,16 +35999,16 @@
         <v>11</v>
       </c>
       <c r="P14" s="34" t="s">
-        <v>1186</v>
+        <v>1177</v>
       </c>
       <c r="R14" s="34" t="s">
-        <v>1187</v>
+        <v>1178</v>
       </c>
       <c r="S14" s="11" t="s">
         <v>412</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="U14" s="11" t="s">
         <v>409</v>
@@ -36026,7 +36035,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>1188</v>
+        <v>1179</v>
       </c>
       <c r="G15" s="35">
         <v>100</v>
@@ -36056,7 +36065,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="36" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="Q15" s="35"/>
       <c r="R15" s="36"/>
@@ -36064,7 +36073,7 @@
         <v>100</v>
       </c>
       <c r="T15" s="36" t="s">
-        <v>1172</v>
+        <v>1163</v>
       </c>
       <c r="U15" s="35" t="s">
         <v>409</v>
@@ -36080,7 +36089,7 @@
       <c r="Z15" s="35"/>
       <c r="AA15" s="35"/>
       <c r="AB15" s="36" t="s">
-        <v>1189</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="16" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -36127,17 +36136,17 @@
         <v>3</v>
       </c>
       <c r="P16" s="34" t="s">
-        <v>1190</v>
+        <v>1181</v>
       </c>
       <c r="Q16" s="12"/>
       <c r="R16" s="34" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="S16" s="11" t="s">
         <v>63</v>
       </c>
       <c r="T16" s="34" t="s">
-        <v>1172</v>
+        <v>1163</v>
       </c>
       <c r="U16" s="11" t="s">
         <v>409</v>
@@ -36192,17 +36201,17 @@
         <v>4</v>
       </c>
       <c r="P17" s="34" t="s">
-        <v>1191</v>
+        <v>1182</v>
       </c>
       <c r="Q17" s="12"/>
       <c r="R17" s="34" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="S17" s="11" t="s">
         <v>66</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="U17" s="11" t="s">
         <v>409</v>
@@ -36257,17 +36266,17 @@
         <v>5</v>
       </c>
       <c r="P18" s="34" t="s">
-        <v>1192</v>
+        <v>1183</v>
       </c>
       <c r="Q18" s="12"/>
       <c r="R18" s="34" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="S18" s="11" t="s">
         <v>69</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="U18" s="11" t="s">
         <v>409</v>
@@ -36322,17 +36331,17 @@
         <v>6</v>
       </c>
       <c r="P19" s="34" t="s">
-        <v>1193</v>
+        <v>1184</v>
       </c>
       <c r="Q19" s="12"/>
       <c r="R19" s="34" t="s">
-        <v>1169</v>
+        <v>1160</v>
       </c>
       <c r="S19" s="11" t="s">
         <v>73</v>
       </c>
       <c r="T19" s="34" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="U19" s="11" t="s">
         <v>409</v>
@@ -36387,16 +36396,16 @@
         <v>7</v>
       </c>
       <c r="P20" s="34" t="s">
-        <v>1168</v>
+        <v>1159</v>
       </c>
       <c r="R20" s="34" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
       <c r="S20" s="11" t="s">
         <v>77</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="U20" s="11" t="s">
         <v>409</v>
@@ -36451,17 +36460,17 @@
         <v>0</v>
       </c>
       <c r="P21" s="34" t="s">
-        <v>1194</v>
+        <v>1185</v>
       </c>
       <c r="Q21" s="11"/>
       <c r="R21" s="34" t="s">
-        <v>1169</v>
+        <v>1160</v>
       </c>
       <c r="S21" s="11" t="s">
         <v>79</v>
       </c>
       <c r="T21" s="34" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="U21" s="11" t="s">
         <v>409</v>
@@ -36521,7 +36530,7 @@
         <v>2</v>
       </c>
       <c r="P22" s="36" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="Q22" s="35"/>
       <c r="R22" s="36"/>
@@ -36529,7 +36538,7 @@
         <v>5000</v>
       </c>
       <c r="T22" s="36" t="s">
-        <v>1177</v>
+        <v>1168</v>
       </c>
       <c r="U22" s="35" t="s">
         <v>409</v>
@@ -36589,7 +36598,7 @@
         <v>1</v>
       </c>
       <c r="P23" s="36" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="Q23" s="35"/>
       <c r="R23" s="36"/>
@@ -36597,7 +36606,7 @@
         <v>1000</v>
       </c>
       <c r="T23" s="36" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="U23" s="35" t="s">
         <v>409</v>
@@ -36659,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="36" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="Q24" s="35"/>
       <c r="R24" s="36"/>
@@ -36667,7 +36676,7 @@
         <v>100</v>
       </c>
       <c r="T24" s="36" t="s">
-        <v>1172</v>
+        <v>1163</v>
       </c>
       <c r="U24" s="35" t="s">
         <v>409</v>
@@ -36683,7 +36692,7 @@
       <c r="Z24" s="35"/>
       <c r="AA24" s="35"/>
       <c r="AB24" s="36" t="s">
-        <v>1195</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="25" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -36703,7 +36712,7 @@
         <v>111</v>
       </c>
       <c r="F25" s="34" t="s">
-        <v>1076</v>
+        <v>1069</v>
       </c>
       <c r="G25" s="11">
         <v>19800</v>
@@ -36730,16 +36739,16 @@
         <v>8</v>
       </c>
       <c r="P25" s="34" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="R25" s="34" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
       <c r="S25" s="34" t="s">
         <v>525</v>
       </c>
       <c r="T25" s="34" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="U25" s="11" t="s">
         <v>409</v>
@@ -37191,7 +37200,7 @@
         <v>80</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>1037</v>
+        <v>1030</v>
       </c>
       <c r="L8" s="12">
         <v>57</v>
@@ -37209,7 +37218,7 @@
         <v>438</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>974</v>
+        <v>967</v>
       </c>
       <c r="S8" s="12" t="s">
         <v>423</v>
@@ -37384,7 +37393,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>1086</v>
+        <v>1077</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>473</v>
@@ -37431,7 +37440,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>1087</v>
+        <v>1078</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>473</v>
@@ -37478,7 +37487,7 @@
         <v>21</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>1088</v>
+        <v>1079</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>477</v>
@@ -37669,7 +37678,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>472</v>
@@ -37687,16 +37696,16 @@
         <v>0</v>
       </c>
       <c r="Q20" s="21" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="T20" s="20">
         <v>300000</v>
       </c>
       <c r="U20" s="21" t="s">
+        <v>631</v>
+      </c>
+      <c r="V20" s="21" t="s">
         <v>632</v>
-      </c>
-      <c r="V20" s="21" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="21" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -37707,7 +37716,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>472</v>
@@ -37725,13 +37734,13 @@
         <v>0</v>
       </c>
       <c r="Q21" s="21" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="T21" s="20">
         <v>300000</v>
       </c>
       <c r="U21" s="21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="V21" s="21" t="s">
         <v>457</v>

--- a/config_vivo/shoping_config_vivo.xlsx
+++ b/config_vivo/shoping_config_vivo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_vivo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_vivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3339" uniqueCount="1453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3375" uniqueCount="1472">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6627,6 +6627,78 @@
   </si>
   <si>
     <t>{300000,400000,95,400000,500000,5},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6元礼包</t>
+  </si>
+  <si>
+    <t>"60万金币","3000小游戏币","抽奖券*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_cwlb_cjq",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_cwlb_cjq",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,3000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20元礼包</t>
+  </si>
+  <si>
+    <t>"200万金币","1万小游戏币","抽奖券*4",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,10000,4,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","3万小游戏币","抽奖券*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,30000,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","10万小游戏币","抽奖券*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,100000,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>198元礼包</t>
+  </si>
+  <si>
+    <t>"1980万金币","50万小游戏币","抽奖券*30",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,500000,30,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>498元礼包</t>
+  </si>
+  <si>
+    <t>"4980万金币","200万小游戏币","抽奖券*50",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,2000000,50,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -6705,7 +6777,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6754,6 +6826,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -6797,7 +6875,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6953,6 +7031,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -9404,13 +9488,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM394"/>
+  <dimension ref="A1:AM400"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="K66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H377" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M88" sqref="M88"/>
+      <selection pane="bottomRight" activeCell="A395" sqref="A395:XFD400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -34361,6 +34445,378 @@
         <v>1</v>
       </c>
     </row>
+    <row r="395" spans="1:38" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A395" s="52">
+        <v>394</v>
+      </c>
+      <c r="B395" s="52">
+        <v>10311</v>
+      </c>
+      <c r="F395" s="52">
+        <v>1</v>
+      </c>
+      <c r="G395" s="52" t="s">
+        <v>1453</v>
+      </c>
+      <c r="I395" s="52" t="s">
+        <v>1454</v>
+      </c>
+      <c r="K395" s="52">
+        <v>-31</v>
+      </c>
+      <c r="L395" s="52">
+        <v>0</v>
+      </c>
+      <c r="M395" s="52">
+        <v>0</v>
+      </c>
+      <c r="N395" s="52" t="s">
+        <v>1455</v>
+      </c>
+      <c r="O395" s="52">
+        <v>600</v>
+      </c>
+      <c r="P395" s="52" t="s">
+        <v>1457</v>
+      </c>
+      <c r="Q395" s="53" t="s">
+        <v>1458</v>
+      </c>
+      <c r="V395" s="52" t="s">
+        <v>531</v>
+      </c>
+      <c r="W395" s="52">
+        <v>9999999</v>
+      </c>
+      <c r="X395" s="52">
+        <v>1600732800</v>
+      </c>
+      <c r="Y395" s="52">
+        <v>1601308799</v>
+      </c>
+      <c r="AG395" s="52">
+        <v>1</v>
+      </c>
+      <c r="AH395" s="52">
+        <v>1</v>
+      </c>
+      <c r="AK395" s="52">
+        <v>1</v>
+      </c>
+      <c r="AL395" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:38" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A396" s="52">
+        <v>395</v>
+      </c>
+      <c r="B396" s="52">
+        <v>10312</v>
+      </c>
+      <c r="F396" s="52">
+        <v>1</v>
+      </c>
+      <c r="G396" s="52" t="s">
+        <v>1459</v>
+      </c>
+      <c r="I396" s="52" t="s">
+        <v>1460</v>
+      </c>
+      <c r="K396" s="52">
+        <v>-31</v>
+      </c>
+      <c r="L396" s="52">
+        <v>0</v>
+      </c>
+      <c r="M396" s="52">
+        <v>0</v>
+      </c>
+      <c r="N396" s="52" t="s">
+        <v>1455</v>
+      </c>
+      <c r="O396" s="52">
+        <v>2000</v>
+      </c>
+      <c r="P396" s="52" t="s">
+        <v>1456</v>
+      </c>
+      <c r="Q396" s="53" t="s">
+        <v>1461</v>
+      </c>
+      <c r="V396" s="52" t="s">
+        <v>531</v>
+      </c>
+      <c r="W396" s="52">
+        <v>9999999</v>
+      </c>
+      <c r="X396" s="52">
+        <v>1600732800</v>
+      </c>
+      <c r="Y396" s="52">
+        <v>1601308799</v>
+      </c>
+      <c r="AG396" s="52">
+        <v>1</v>
+      </c>
+      <c r="AH396" s="52">
+        <v>1</v>
+      </c>
+      <c r="AK396" s="52">
+        <v>1</v>
+      </c>
+      <c r="AL396" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:38" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A397" s="52">
+        <v>396</v>
+      </c>
+      <c r="B397" s="52">
+        <v>10313</v>
+      </c>
+      <c r="F397" s="52">
+        <v>1</v>
+      </c>
+      <c r="G397" s="52" t="s">
+        <v>291</v>
+      </c>
+      <c r="I397" s="52" t="s">
+        <v>1462</v>
+      </c>
+      <c r="K397" s="52">
+        <v>-31</v>
+      </c>
+      <c r="L397" s="52">
+        <v>0</v>
+      </c>
+      <c r="M397" s="52">
+        <v>0</v>
+      </c>
+      <c r="N397" s="52" t="s">
+        <v>484</v>
+      </c>
+      <c r="O397" s="52">
+        <v>4800</v>
+      </c>
+      <c r="P397" s="52" t="s">
+        <v>1456</v>
+      </c>
+      <c r="Q397" s="53" t="s">
+        <v>1463</v>
+      </c>
+      <c r="V397" s="52" t="s">
+        <v>531</v>
+      </c>
+      <c r="W397" s="52">
+        <v>9999999</v>
+      </c>
+      <c r="X397" s="52">
+        <v>1600732800</v>
+      </c>
+      <c r="Y397" s="52">
+        <v>1601308799</v>
+      </c>
+      <c r="AG397" s="52">
+        <v>1</v>
+      </c>
+      <c r="AH397" s="52">
+        <v>1</v>
+      </c>
+      <c r="AK397" s="52">
+        <v>1</v>
+      </c>
+      <c r="AL397" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:38" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A398" s="52">
+        <v>397</v>
+      </c>
+      <c r="B398" s="52">
+        <v>10314</v>
+      </c>
+      <c r="F398" s="52">
+        <v>1</v>
+      </c>
+      <c r="G398" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="I398" s="52" t="s">
+        <v>1464</v>
+      </c>
+      <c r="K398" s="52">
+        <v>-31</v>
+      </c>
+      <c r="L398" s="52">
+        <v>0</v>
+      </c>
+      <c r="M398" s="52">
+        <v>0</v>
+      </c>
+      <c r="N398" s="52" t="s">
+        <v>484</v>
+      </c>
+      <c r="O398" s="52">
+        <v>9800</v>
+      </c>
+      <c r="P398" s="52" t="s">
+        <v>1456</v>
+      </c>
+      <c r="Q398" s="53" t="s">
+        <v>1465</v>
+      </c>
+      <c r="V398" s="52" t="s">
+        <v>531</v>
+      </c>
+      <c r="W398" s="52">
+        <v>9999999</v>
+      </c>
+      <c r="X398" s="52">
+        <v>1600732800</v>
+      </c>
+      <c r="Y398" s="52">
+        <v>1601308799</v>
+      </c>
+      <c r="AG398" s="52">
+        <v>1</v>
+      </c>
+      <c r="AH398" s="52">
+        <v>1</v>
+      </c>
+      <c r="AK398" s="52">
+        <v>1</v>
+      </c>
+      <c r="AL398" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:38" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A399" s="52">
+        <v>398</v>
+      </c>
+      <c r="B399" s="52">
+        <v>10315</v>
+      </c>
+      <c r="F399" s="52">
+        <v>1</v>
+      </c>
+      <c r="G399" s="52" t="s">
+        <v>1466</v>
+      </c>
+      <c r="I399" s="52" t="s">
+        <v>1467</v>
+      </c>
+      <c r="K399" s="52">
+        <v>-31</v>
+      </c>
+      <c r="L399" s="52">
+        <v>0</v>
+      </c>
+      <c r="M399" s="52">
+        <v>0</v>
+      </c>
+      <c r="N399" s="52" t="s">
+        <v>1455</v>
+      </c>
+      <c r="O399" s="52">
+        <v>19800</v>
+      </c>
+      <c r="P399" s="52" t="s">
+        <v>1457</v>
+      </c>
+      <c r="Q399" s="53" t="s">
+        <v>1468</v>
+      </c>
+      <c r="V399" s="52" t="s">
+        <v>531</v>
+      </c>
+      <c r="W399" s="52">
+        <v>9999999</v>
+      </c>
+      <c r="X399" s="52">
+        <v>1600732800</v>
+      </c>
+      <c r="Y399" s="52">
+        <v>1601308799</v>
+      </c>
+      <c r="AG399" s="52">
+        <v>1</v>
+      </c>
+      <c r="AH399" s="52">
+        <v>1</v>
+      </c>
+      <c r="AK399" s="52">
+        <v>1</v>
+      </c>
+      <c r="AL399" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:38" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A400" s="52">
+        <v>399</v>
+      </c>
+      <c r="B400" s="52">
+        <v>10316</v>
+      </c>
+      <c r="F400" s="52">
+        <v>1</v>
+      </c>
+      <c r="G400" s="52" t="s">
+        <v>1469</v>
+      </c>
+      <c r="I400" s="52" t="s">
+        <v>1470</v>
+      </c>
+      <c r="K400" s="52">
+        <v>-31</v>
+      </c>
+      <c r="L400" s="52">
+        <v>0</v>
+      </c>
+      <c r="M400" s="52">
+        <v>0</v>
+      </c>
+      <c r="N400" s="52" t="s">
+        <v>1455</v>
+      </c>
+      <c r="O400" s="52">
+        <v>49800</v>
+      </c>
+      <c r="P400" s="52" t="s">
+        <v>1457</v>
+      </c>
+      <c r="Q400" s="53" t="s">
+        <v>1471</v>
+      </c>
+      <c r="V400" s="52" t="s">
+        <v>531</v>
+      </c>
+      <c r="W400" s="52">
+        <v>9999999</v>
+      </c>
+      <c r="X400" s="52">
+        <v>1600732800</v>
+      </c>
+      <c r="Y400" s="52">
+        <v>1601308799</v>
+      </c>
+      <c r="AG400" s="52">
+        <v>1</v>
+      </c>
+      <c r="AH400" s="52">
+        <v>1</v>
+      </c>
+      <c r="AK400" s="52">
+        <v>1</v>
+      </c>
+      <c r="AL400" s="52">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_vivo/shoping_config_vivo.xlsx
+++ b/config_vivo/shoping_config_vivo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_vivo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_vivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3375" uniqueCount="1472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3418" uniqueCount="1504">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6699,6 +6699,134 @@
   </si>
   <si>
     <t>49800000,2000000,50,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一帆风顺</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","10万金币","水滴*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","jing_bi","prop_guess_apple_bet_1"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","jing_bi","prop_guess_apple_bet_1"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,100000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>二龙飞腾</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","15万金币","水滴*8",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,150000,8,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>三阳开泰</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","30万金币","阳光*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","jing_bi","prop_guess_apple_bet_2"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","jing_bi","prop_guess_apple_bet_2"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,300000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>四季发财</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","60万金币","阳光*8",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,600000,8,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>五福临门</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2980万金币","90万金币","阳光*12",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","jing_bi","prop_guess_apple_bet_2"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>29800000,900000,12,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>六六大顺</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","150万金币","铁锹*2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","jing_bi","prop_guess_apple_bet_3"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","jing_bi","prop_guess_apple_bet_3"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,1500000,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>七星高照</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9980万金币","300万金币","铁锹*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>99800000,3000000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "031_gqfd_gift" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -6777,7 +6905,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6832,6 +6960,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -6875,7 +7009,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7037,6 +7171,15 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -9488,13 +9631,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM400"/>
+  <dimension ref="A1:AM407"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H377" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A395" sqref="A395:XFD400"/>
+      <selection pane="bottomRight" activeCell="A401" sqref="A401:XFD407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -34817,6 +34960,461 @@
         <v>1</v>
       </c>
     </row>
+    <row r="401" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A401" s="54">
+        <v>400</v>
+      </c>
+      <c r="B401" s="54">
+        <v>10317</v>
+      </c>
+      <c r="F401" s="54">
+        <v>1</v>
+      </c>
+      <c r="G401" s="54" t="s">
+        <v>1472</v>
+      </c>
+      <c r="I401" s="54" t="s">
+        <v>1473</v>
+      </c>
+      <c r="K401" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L401" s="54">
+        <v>0</v>
+      </c>
+      <c r="M401" s="54">
+        <v>0</v>
+      </c>
+      <c r="N401" s="54" t="s">
+        <v>1023</v>
+      </c>
+      <c r="O401" s="54">
+        <v>1800</v>
+      </c>
+      <c r="P401" s="54" t="s">
+        <v>1475</v>
+      </c>
+      <c r="Q401" s="54" t="s">
+        <v>1476</v>
+      </c>
+      <c r="V401" s="54" t="s">
+        <v>1283</v>
+      </c>
+      <c r="W401" s="54">
+        <v>99999999</v>
+      </c>
+      <c r="X401" s="54">
+        <v>1601335800</v>
+      </c>
+      <c r="Y401" s="54">
+        <v>1601913599</v>
+      </c>
+      <c r="Z401" s="54">
+        <v>47</v>
+      </c>
+      <c r="AG401" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH401" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK401" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL401" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A402" s="54">
+        <v>401</v>
+      </c>
+      <c r="B402" s="54">
+        <v>10318</v>
+      </c>
+      <c r="F402" s="54">
+        <v>1</v>
+      </c>
+      <c r="G402" s="54" t="s">
+        <v>1477</v>
+      </c>
+      <c r="I402" s="54" t="s">
+        <v>1478</v>
+      </c>
+      <c r="K402" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L402" s="54">
+        <v>0</v>
+      </c>
+      <c r="M402" s="54">
+        <v>0</v>
+      </c>
+      <c r="N402" s="54" t="s">
+        <v>1479</v>
+      </c>
+      <c r="O402" s="54">
+        <v>4800</v>
+      </c>
+      <c r="P402" s="54" t="s">
+        <v>1474</v>
+      </c>
+      <c r="Q402" s="54" t="s">
+        <v>1480</v>
+      </c>
+      <c r="V402" s="54" t="s">
+        <v>1283</v>
+      </c>
+      <c r="W402" s="54">
+        <v>99999999</v>
+      </c>
+      <c r="X402" s="54">
+        <v>1601335800</v>
+      </c>
+      <c r="Y402" s="54">
+        <v>1601913599</v>
+      </c>
+      <c r="Z402" s="54">
+        <v>47</v>
+      </c>
+      <c r="AG402" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH402" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK402" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL402" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A403" s="54">
+        <v>402</v>
+      </c>
+      <c r="B403" s="54">
+        <v>10319</v>
+      </c>
+      <c r="F403" s="54">
+        <v>1</v>
+      </c>
+      <c r="G403" s="54" t="s">
+        <v>1481</v>
+      </c>
+      <c r="I403" s="54" t="s">
+        <v>1482</v>
+      </c>
+      <c r="K403" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L403" s="54">
+        <v>0</v>
+      </c>
+      <c r="M403" s="54">
+        <v>0</v>
+      </c>
+      <c r="N403" s="54" t="s">
+        <v>1023</v>
+      </c>
+      <c r="O403" s="54">
+        <v>9800</v>
+      </c>
+      <c r="P403" s="54" t="s">
+        <v>1484</v>
+      </c>
+      <c r="Q403" s="54" t="s">
+        <v>1485</v>
+      </c>
+      <c r="V403" s="54" t="s">
+        <v>1283</v>
+      </c>
+      <c r="W403" s="54">
+        <v>99999999</v>
+      </c>
+      <c r="X403" s="54">
+        <v>1601335800</v>
+      </c>
+      <c r="Y403" s="54">
+        <v>1601913599</v>
+      </c>
+      <c r="Z403" s="54">
+        <v>47</v>
+      </c>
+      <c r="AG403" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH403" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK403" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL403" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A404" s="54">
+        <v>403</v>
+      </c>
+      <c r="B404" s="54">
+        <v>10320</v>
+      </c>
+      <c r="F404" s="54">
+        <v>1</v>
+      </c>
+      <c r="G404" s="54" t="s">
+        <v>1486</v>
+      </c>
+      <c r="I404" s="54" t="s">
+        <v>1487</v>
+      </c>
+      <c r="K404" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L404" s="54">
+        <v>0</v>
+      </c>
+      <c r="M404" s="54">
+        <v>0</v>
+      </c>
+      <c r="N404" s="54" t="s">
+        <v>1023</v>
+      </c>
+      <c r="O404" s="54">
+        <v>19800</v>
+      </c>
+      <c r="P404" s="54" t="s">
+        <v>1483</v>
+      </c>
+      <c r="Q404" s="54" t="s">
+        <v>1488</v>
+      </c>
+      <c r="V404" s="54" t="s">
+        <v>1283</v>
+      </c>
+      <c r="W404" s="54">
+        <v>99999999</v>
+      </c>
+      <c r="X404" s="54">
+        <v>1601335800</v>
+      </c>
+      <c r="Y404" s="54">
+        <v>1601913599</v>
+      </c>
+      <c r="Z404" s="54">
+        <v>47</v>
+      </c>
+      <c r="AG404" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH404" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK404" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL404" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A405" s="54">
+        <v>404</v>
+      </c>
+      <c r="B405" s="54">
+        <v>10321</v>
+      </c>
+      <c r="F405" s="54">
+        <v>1</v>
+      </c>
+      <c r="G405" s="54" t="s">
+        <v>1489</v>
+      </c>
+      <c r="I405" s="54" t="s">
+        <v>1490</v>
+      </c>
+      <c r="K405" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L405" s="54">
+        <v>0</v>
+      </c>
+      <c r="M405" s="54">
+        <v>0</v>
+      </c>
+      <c r="N405" s="54" t="s">
+        <v>1023</v>
+      </c>
+      <c r="O405" s="54">
+        <v>29800</v>
+      </c>
+      <c r="P405" s="54" t="s">
+        <v>1491</v>
+      </c>
+      <c r="Q405" s="54" t="s">
+        <v>1492</v>
+      </c>
+      <c r="V405" s="54" t="s">
+        <v>1283</v>
+      </c>
+      <c r="W405" s="54">
+        <v>99999999</v>
+      </c>
+      <c r="X405" s="54">
+        <v>1601335800</v>
+      </c>
+      <c r="Y405" s="54">
+        <v>1601913599</v>
+      </c>
+      <c r="Z405" s="54">
+        <v>47</v>
+      </c>
+      <c r="AG405" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH405" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK405" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL405" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A406" s="54">
+        <v>405</v>
+      </c>
+      <c r="B406" s="54">
+        <v>10322</v>
+      </c>
+      <c r="F406" s="54">
+        <v>1</v>
+      </c>
+      <c r="G406" s="54" t="s">
+        <v>1493</v>
+      </c>
+      <c r="I406" s="54" t="s">
+        <v>1494</v>
+      </c>
+      <c r="K406" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L406" s="54">
+        <v>0</v>
+      </c>
+      <c r="M406" s="54">
+        <v>0</v>
+      </c>
+      <c r="N406" s="54" t="s">
+        <v>1023</v>
+      </c>
+      <c r="O406" s="54">
+        <v>49800</v>
+      </c>
+      <c r="P406" s="54" t="s">
+        <v>1496</v>
+      </c>
+      <c r="Q406" s="54" t="s">
+        <v>1497</v>
+      </c>
+      <c r="V406" s="54" t="s">
+        <v>1498</v>
+      </c>
+      <c r="W406" s="54">
+        <v>99999999</v>
+      </c>
+      <c r="X406" s="54">
+        <v>1601335800</v>
+      </c>
+      <c r="Y406" s="54">
+        <v>1601913599</v>
+      </c>
+      <c r="Z406" s="54">
+        <v>47</v>
+      </c>
+      <c r="AG406" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH406" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK406" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL406" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A407" s="54">
+        <v>406</v>
+      </c>
+      <c r="B407" s="54">
+        <v>10323</v>
+      </c>
+      <c r="F407" s="54">
+        <v>1</v>
+      </c>
+      <c r="G407" s="54" t="s">
+        <v>1499</v>
+      </c>
+      <c r="I407" s="54" t="s">
+        <v>1500</v>
+      </c>
+      <c r="K407" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L407" s="54">
+        <v>0</v>
+      </c>
+      <c r="M407" s="54">
+        <v>0</v>
+      </c>
+      <c r="N407" s="54" t="s">
+        <v>1501</v>
+      </c>
+      <c r="O407" s="54">
+        <v>99800</v>
+      </c>
+      <c r="P407" s="54" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q407" s="54" t="s">
+        <v>1502</v>
+      </c>
+      <c r="V407" s="54" t="s">
+        <v>1283</v>
+      </c>
+      <c r="W407" s="54">
+        <v>99999999</v>
+      </c>
+      <c r="X407" s="54">
+        <v>1601335800</v>
+      </c>
+      <c r="Y407" s="54">
+        <v>1601913599</v>
+      </c>
+      <c r="Z407" s="54">
+        <v>47</v>
+      </c>
+      <c r="AG407" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH407" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK407" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL407" s="54">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34827,10 +35425,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -35501,6 +36099,20 @@
         <v>1</v>
       </c>
       <c r="D47" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="55">
+        <v>47</v>
+      </c>
+      <c r="B48" s="56" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C48" s="55">
+        <v>1</v>
+      </c>
+      <c r="D48" s="55">
         <v>0</v>
       </c>
     </row>
